--- a/3-JavaScript/Dars/JS_KORIN.xlsx
+++ b/3-JavaScript/Dars/JS_KORIN.xlsx
@@ -36,7 +36,7 @@
     <sheet name="Storage" sheetId="31" r:id="rId27"/>
     <sheet name="Obshi" sheetId="32" r:id="rId28"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -9421,7 +9421,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9440,8 +9440,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -9467,11 +9473,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9495,6 +9510,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9522,7 +9538,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -9573,7 +9591,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9615,7 +9633,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9657,7 +9675,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9699,7 +9717,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9741,7 +9759,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9783,7 +9801,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9825,7 +9843,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -24284,8 +24302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG13" sqref="AG13"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM6" sqref="AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
@@ -24324,90 +24342,90 @@
     <col min="33" max="33" width="23" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="41.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="43.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="32" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="44.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="41.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="43.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="31.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="45" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="33.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="40" style="5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.85546875" style="2" customWidth="1"/>
-    <col min="53" max="53" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="19.5703125" style="2" customWidth="1"/>
+    <col min="50" max="50" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="32.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="55" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="26.25">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>2776</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="17"/>
       <c r="Z1" s="8"/>
-      <c r="AA1" s="17" t="s">
+      <c r="AA1" s="18" t="s">
         <v>2775</v>
       </c>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="19"/>
       <c r="AJ1" s="13"/>
-      <c r="AK1" s="19" t="s">
+      <c r="AK1" s="20" t="s">
         <v>2774</v>
       </c>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="21" t="s">
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="22" t="s">
         <v>2773</v>
       </c>
-      <c r="AY1" s="22"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="23"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
     </row>
     <row r="3" spans="1:54" s="3" customFormat="1" ht="26.25">
       <c r="A3" s="3" t="s">
@@ -24530,10 +24548,10 @@
       <c r="AN3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="3" t="s">
-        <v>1665</v>
-      </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AO3" s="11" t="s">
+        <v>2771</v>
+      </c>
+      <c r="AP3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="AQ3" s="3" t="s">
@@ -24554,8 +24572,8 @@
       <c r="AV3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AW3" s="6" t="s">
-        <v>2771</v>
+      <c r="AW3" s="25" t="s">
+        <v>1665</v>
       </c>
       <c r="AX3" s="3" t="s">
         <v>2430</v>
@@ -24649,7 +24667,7 @@
       <c r="Z4" s="9">
         <v>1</v>
       </c>
-      <c r="AA4" s="24" t="s">
+      <c r="AA4" s="15" t="s">
         <v>845</v>
       </c>
       <c r="AB4" s="2">
@@ -24679,22 +24697,22 @@
       <c r="AJ4" s="9">
         <v>1</v>
       </c>
-      <c r="AK4" s="4" t="s">
-        <v>1154</v>
+      <c r="AK4" s="15" t="s">
+        <v>1205</v>
       </c>
       <c r="AL4" s="2">
         <v>1</v>
       </c>
-      <c r="AM4" s="4" t="s">
-        <v>1354</v>
+      <c r="AM4" s="15" t="s">
+        <v>1382</v>
       </c>
       <c r="AN4" s="2">
         <v>1</v>
       </c>
-      <c r="AO4" s="4" t="s">
-        <v>1666</v>
-      </c>
-      <c r="AP4" s="2">
+      <c r="AO4" s="10" t="s">
+        <v>2768</v>
+      </c>
+      <c r="AP4" s="9">
         <v>1</v>
       </c>
       <c r="AQ4" s="4" t="s">
@@ -24715,8 +24733,8 @@
       <c r="AV4" s="2">
         <v>1</v>
       </c>
-      <c r="AW4" s="7" t="s">
-        <v>2768</v>
+      <c r="AW4" s="26" t="s">
+        <v>1666</v>
       </c>
       <c r="AY4" s="2">
         <v>1</v>
@@ -24807,8 +24825,8 @@
       <c r="Z5" s="9">
         <v>2</v>
       </c>
-      <c r="AA5" s="4" t="s">
-        <v>846</v>
+      <c r="AA5" s="15" t="s">
+        <v>853</v>
       </c>
       <c r="AB5" s="2">
         <v>2</v>
@@ -24837,22 +24855,22 @@
       <c r="AJ5" s="9">
         <v>2</v>
       </c>
-      <c r="AK5" s="4" t="s">
-        <v>1155</v>
+      <c r="AK5" s="15" t="s">
+        <v>1206</v>
       </c>
       <c r="AL5" s="2">
         <v>2</v>
       </c>
-      <c r="AM5" s="4" t="s">
-        <v>1155</v>
+      <c r="AM5" s="15" t="s">
+        <v>1383</v>
       </c>
       <c r="AN5" s="2">
         <v>2</v>
       </c>
-      <c r="AO5" s="4" t="s">
-        <v>1667</v>
-      </c>
-      <c r="AP5" s="2">
+      <c r="AO5" s="10" t="s">
+        <v>2766</v>
+      </c>
+      <c r="AP5" s="9">
         <v>2</v>
       </c>
       <c r="AQ5" s="4" t="s">
@@ -24873,8 +24891,8 @@
       <c r="AV5" s="2">
         <v>2</v>
       </c>
-      <c r="AW5" s="7" t="s">
-        <v>2766</v>
+      <c r="AW5" s="26" t="s">
+        <v>1667</v>
       </c>
       <c r="AY5" s="2">
         <v>2</v>
@@ -24954,8 +24972,8 @@
       <c r="Z6" s="9">
         <v>3</v>
       </c>
-      <c r="AA6" s="4" t="s">
-        <v>847</v>
+      <c r="AA6" s="15" t="s">
+        <v>878</v>
       </c>
       <c r="AB6" s="2">
         <v>3</v>
@@ -24984,22 +25002,22 @@
       <c r="AJ6" s="9">
         <v>3</v>
       </c>
-      <c r="AK6" s="4" t="s">
-        <v>1156</v>
+      <c r="AK6" s="27" t="s">
+        <v>870</v>
       </c>
       <c r="AL6" s="2">
         <v>3</v>
       </c>
       <c r="AM6" s="4" t="s">
-        <v>1355</v>
+        <v>1381</v>
       </c>
       <c r="AN6" s="2">
         <v>3</v>
       </c>
-      <c r="AO6" s="4" t="s">
-        <v>1668</v>
-      </c>
-      <c r="AP6" s="2">
+      <c r="AO6" s="10" t="s">
+        <v>2764</v>
+      </c>
+      <c r="AP6" s="9">
         <v>3</v>
       </c>
       <c r="AQ6" s="4" t="s">
@@ -25020,8 +25038,8 @@
       <c r="AV6" s="2">
         <v>3</v>
       </c>
-      <c r="AW6" s="7" t="s">
-        <v>2764</v>
+      <c r="AW6" s="26" t="s">
+        <v>1668</v>
       </c>
       <c r="AY6" s="2">
         <v>3</v>
@@ -25101,8 +25119,8 @@
       <c r="Z7" s="9">
         <v>4</v>
       </c>
-      <c r="AA7" s="4" t="s">
-        <v>848</v>
+      <c r="AA7" s="15" t="s">
+        <v>877</v>
       </c>
       <c r="AB7" s="2">
         <v>4</v>
@@ -25131,22 +25149,22 @@
       <c r="AJ7" s="9">
         <v>4</v>
       </c>
-      <c r="AK7" s="4" t="s">
-        <v>1157</v>
+      <c r="AK7" s="27" t="s">
+        <v>851</v>
       </c>
       <c r="AL7" s="2">
         <v>4</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="AN7" s="2">
         <v>4</v>
       </c>
-      <c r="AO7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP7" s="2">
+      <c r="AO7" s="10" t="s">
+        <v>2762</v>
+      </c>
+      <c r="AP7" s="9">
         <v>4</v>
       </c>
       <c r="AQ7" s="4" t="s">
@@ -25161,8 +25179,8 @@
       <c r="AV7" s="2">
         <v>4</v>
       </c>
-      <c r="AW7" s="7" t="s">
-        <v>2762</v>
+      <c r="AW7" s="26" t="s">
+        <v>19</v>
       </c>
       <c r="BA7" s="2">
         <v>4</v>
@@ -25255,15 +25273,15 @@
         <v>5</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>847</v>
+        <v>1155</v>
       </c>
       <c r="AN8" s="2">
         <v>5</v>
       </c>
-      <c r="AO8" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="AP8" s="2">
+      <c r="AO8" s="10" t="s">
+        <v>2759</v>
+      </c>
+      <c r="AP8" s="9">
         <v>5</v>
       </c>
       <c r="AQ8" s="4" t="s">
@@ -25278,8 +25296,8 @@
       <c r="AV8" s="2">
         <v>5</v>
       </c>
-      <c r="AW8" s="7" t="s">
-        <v>2759</v>
+      <c r="AW8" s="26" t="s">
+        <v>728</v>
       </c>
       <c r="BA8" s="2">
         <v>5</v>
@@ -25377,10 +25395,10 @@
       <c r="AN9" s="2">
         <v>6</v>
       </c>
-      <c r="AO9" s="4" t="s">
-        <v>1669</v>
-      </c>
-      <c r="AP9" s="2">
+      <c r="AO9" s="10" t="s">
+        <v>2756</v>
+      </c>
+      <c r="AP9" s="9">
         <v>6</v>
       </c>
       <c r="AQ9" s="4" t="s">
@@ -25395,8 +25413,8 @@
       <c r="AV9" s="2">
         <v>6</v>
       </c>
-      <c r="AW9" s="7" t="s">
-        <v>2756</v>
+      <c r="AW9" s="26" t="s">
+        <v>1669</v>
       </c>
       <c r="BA9" s="2">
         <v>6</v>
@@ -25489,10 +25507,10 @@
       <c r="AN10" s="2">
         <v>7</v>
       </c>
-      <c r="AO10" s="4" t="s">
-        <v>1670</v>
-      </c>
-      <c r="AP10" s="2">
+      <c r="AO10" s="10" t="s">
+        <v>2754</v>
+      </c>
+      <c r="AP10" s="9">
         <v>7</v>
       </c>
       <c r="AQ10" s="4" t="s">
@@ -25507,8 +25525,8 @@
       <c r="AV10" s="2">
         <v>7</v>
       </c>
-      <c r="AW10" s="7" t="s">
-        <v>2754</v>
+      <c r="AW10" s="26" t="s">
+        <v>1670</v>
       </c>
     </row>
     <row r="11" spans="1:54">
@@ -25595,10 +25613,10 @@
       <c r="AN11" s="2">
         <v>8</v>
       </c>
-      <c r="AO11" s="4" t="s">
-        <v>1671</v>
-      </c>
-      <c r="AP11" s="2">
+      <c r="AO11" s="10" t="s">
+        <v>2751</v>
+      </c>
+      <c r="AP11" s="9">
         <v>8</v>
       </c>
       <c r="AQ11" s="4" t="s">
@@ -25613,8 +25631,8 @@
       <c r="AV11" s="2">
         <v>8</v>
       </c>
-      <c r="AW11" s="7" t="s">
-        <v>2751</v>
+      <c r="AW11" s="26" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="12" spans="1:54">
@@ -25670,8 +25688,8 @@
       <c r="Z12" s="9">
         <v>9</v>
       </c>
-      <c r="AA12" s="24" t="s">
-        <v>853</v>
+      <c r="AA12" s="4" t="s">
+        <v>846</v>
       </c>
       <c r="AD12" s="2">
         <v>9</v>
@@ -25701,10 +25719,10 @@
       <c r="AN12" s="2">
         <v>9</v>
       </c>
-      <c r="AO12" s="4" t="s">
-        <v>1672</v>
-      </c>
-      <c r="AP12" s="2">
+      <c r="AO12" s="10" t="s">
+        <v>2748</v>
+      </c>
+      <c r="AP12" s="9">
         <v>9</v>
       </c>
       <c r="AQ12" s="4" t="s">
@@ -25719,8 +25737,8 @@
       <c r="AV12" s="2">
         <v>9</v>
       </c>
-      <c r="AW12" s="7" t="s">
-        <v>2748</v>
+      <c r="AW12" s="26" t="s">
+        <v>1672</v>
       </c>
     </row>
     <row r="13" spans="1:54">
@@ -25777,7 +25795,7 @@
         <v>10</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="AD13" s="2">
         <v>10</v>
@@ -25796,7 +25814,7 @@
         <v>10</v>
       </c>
       <c r="AK13" s="4" t="s">
-        <v>851</v>
+        <v>1156</v>
       </c>
       <c r="AL13" s="2">
         <v>10</v>
@@ -25804,7 +25822,13 @@
       <c r="AM13" s="4" t="s">
         <v>1361</v>
       </c>
-      <c r="AP13" s="2">
+      <c r="AN13" s="2">
+        <v>10</v>
+      </c>
+      <c r="AO13" s="10" t="s">
+        <v>1781</v>
+      </c>
+      <c r="AP13" s="9">
         <v>10</v>
       </c>
       <c r="AQ13" s="4" t="s">
@@ -25815,12 +25839,6 @@
       </c>
       <c r="AS13" s="4" t="s">
         <v>1839</v>
-      </c>
-      <c r="AV13" s="2">
-        <v>10</v>
-      </c>
-      <c r="AW13" s="7" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="14" spans="1:54">
@@ -25904,7 +25922,13 @@
       <c r="AM14" s="4" t="s">
         <v>1362</v>
       </c>
-      <c r="AP14" s="2">
+      <c r="AN14" s="2">
+        <v>11</v>
+      </c>
+      <c r="AO14" s="10" t="s">
+        <v>2743</v>
+      </c>
+      <c r="AP14" s="9">
         <v>11</v>
       </c>
       <c r="AQ14" s="4" t="s">
@@ -25915,12 +25939,6 @@
       </c>
       <c r="AS14" s="4" t="s">
         <v>1841</v>
-      </c>
-      <c r="AV14" s="2">
-        <v>11</v>
-      </c>
-      <c r="AW14" s="7" t="s">
-        <v>2743</v>
       </c>
     </row>
     <row r="15" spans="1:54">
@@ -26004,7 +26022,13 @@
       <c r="AM15" s="4" t="s">
         <v>1363</v>
       </c>
-      <c r="AP15" s="2">
+      <c r="AN15" s="2">
+        <v>12</v>
+      </c>
+      <c r="AO15" s="10" t="s">
+        <v>2740</v>
+      </c>
+      <c r="AP15" s="9">
         <v>12</v>
       </c>
       <c r="AQ15" s="4" t="s">
@@ -26015,12 +26039,6 @@
       </c>
       <c r="AS15" s="4" t="s">
         <v>1836</v>
-      </c>
-      <c r="AV15" s="2">
-        <v>12</v>
-      </c>
-      <c r="AW15" s="7" t="s">
-        <v>2740</v>
       </c>
     </row>
     <row r="16" spans="1:54">
@@ -26091,7 +26109,13 @@
       <c r="AM16" s="4" t="s">
         <v>1364</v>
       </c>
-      <c r="AP16" s="2">
+      <c r="AN16" s="2">
+        <v>13</v>
+      </c>
+      <c r="AO16" s="10" t="s">
+        <v>2737</v>
+      </c>
+      <c r="AP16" s="9">
         <v>13</v>
       </c>
       <c r="AQ16" s="4" t="s">
@@ -26103,14 +26127,8 @@
       <c r="AS16" s="4" t="s">
         <v>1843</v>
       </c>
-      <c r="AV16" s="2">
-        <v>13</v>
-      </c>
-      <c r="AW16" s="7" t="s">
-        <v>2737</v>
-      </c>
-    </row>
-    <row r="17" spans="1:49">
+    </row>
+    <row r="17" spans="1:45">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -26178,7 +26196,13 @@
       <c r="AM17" s="4" t="s">
         <v>1365</v>
       </c>
-      <c r="AP17" s="2">
+      <c r="AN17" s="2">
+        <v>14</v>
+      </c>
+      <c r="AO17" s="10" t="s">
+        <v>2736</v>
+      </c>
+      <c r="AP17" s="9">
         <v>14</v>
       </c>
       <c r="AQ17" s="4" t="s">
@@ -26190,14 +26214,8 @@
       <c r="AS17" s="4" t="s">
         <v>1844</v>
       </c>
-      <c r="AV17" s="2">
-        <v>14</v>
-      </c>
-      <c r="AW17" s="7" t="s">
-        <v>2736</v>
-      </c>
-    </row>
-    <row r="18" spans="1:49">
+    </row>
+    <row r="18" spans="1:45">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -26265,7 +26283,13 @@
       <c r="AM18" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="AP18" s="2">
+      <c r="AN18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AO18" s="10" t="s">
+        <v>2733</v>
+      </c>
+      <c r="AP18" s="9">
         <v>15</v>
       </c>
       <c r="AQ18" s="4" t="s">
@@ -26277,14 +26301,8 @@
       <c r="AS18" s="4" t="s">
         <v>1845</v>
       </c>
-      <c r="AV18" s="2">
-        <v>15</v>
-      </c>
-      <c r="AW18" s="7" t="s">
-        <v>2733</v>
-      </c>
-    </row>
-    <row r="19" spans="1:49">
+    </row>
+    <row r="19" spans="1:45">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -26352,7 +26370,13 @@
       <c r="AM19" s="4" t="s">
         <v>1367</v>
       </c>
-      <c r="AP19" s="2">
+      <c r="AN19" s="2">
+        <v>16</v>
+      </c>
+      <c r="AO19" s="10" t="s">
+        <v>2730</v>
+      </c>
+      <c r="AP19" s="9">
         <v>16</v>
       </c>
       <c r="AQ19" s="4" t="s">
@@ -26364,14 +26388,8 @@
       <c r="AS19" s="4" t="s">
         <v>1855</v>
       </c>
-      <c r="AV19" s="2">
-        <v>16</v>
-      </c>
-      <c r="AW19" s="7" t="s">
-        <v>2730</v>
-      </c>
-    </row>
-    <row r="20" spans="1:49">
+    </row>
+    <row r="20" spans="1:45">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -26433,7 +26451,13 @@
       <c r="AM20" s="4" t="s">
         <v>1368</v>
       </c>
-      <c r="AP20" s="2">
+      <c r="AN20" s="2">
+        <v>17</v>
+      </c>
+      <c r="AO20" s="10" t="s">
+        <v>2728</v>
+      </c>
+      <c r="AP20" s="9">
         <v>17</v>
       </c>
       <c r="AQ20" s="4" t="s">
@@ -26445,14 +26469,8 @@
       <c r="AS20" s="4" t="s">
         <v>1838</v>
       </c>
-      <c r="AV20" s="2">
-        <v>17</v>
-      </c>
-      <c r="AW20" s="7" t="s">
-        <v>2728</v>
-      </c>
-    </row>
-    <row r="21" spans="1:49">
+    </row>
+    <row r="21" spans="1:45">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -26509,20 +26527,20 @@
       <c r="AM21" s="4" t="s">
         <v>1369</v>
       </c>
-      <c r="AP21" s="2">
+      <c r="AN21" s="2">
+        <v>18</v>
+      </c>
+      <c r="AO21" s="10" t="s">
+        <v>2726</v>
+      </c>
+      <c r="AP21" s="9">
         <v>18</v>
       </c>
       <c r="AQ21" s="4" t="s">
         <v>1717</v>
       </c>
-      <c r="AV21" s="2">
-        <v>18</v>
-      </c>
-      <c r="AW21" s="7" t="s">
-        <v>2726</v>
-      </c>
-    </row>
-    <row r="22" spans="1:49">
+    </row>
+    <row r="22" spans="1:45">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -26573,20 +26591,20 @@
       <c r="AM22" s="4" t="s">
         <v>1370</v>
       </c>
-      <c r="AP22" s="2">
+      <c r="AN22" s="2">
+        <v>19</v>
+      </c>
+      <c r="AO22" s="10" t="s">
+        <v>2725</v>
+      </c>
+      <c r="AP22" s="9">
         <v>19</v>
       </c>
       <c r="AQ22" s="4" t="s">
         <v>1718</v>
       </c>
-      <c r="AV22" s="2">
-        <v>19</v>
-      </c>
-      <c r="AW22" s="7" t="s">
-        <v>2725</v>
-      </c>
-    </row>
-    <row r="23" spans="1:49">
+    </row>
+    <row r="23" spans="1:45">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -26637,20 +26655,20 @@
       <c r="AM23" s="4" t="s">
         <v>1371</v>
       </c>
-      <c r="AP23" s="2">
+      <c r="AN23" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO23" s="10" t="s">
+        <v>2724</v>
+      </c>
+      <c r="AP23" s="9">
         <v>20</v>
       </c>
       <c r="AQ23" s="4" t="s">
         <v>1719</v>
       </c>
-      <c r="AV23" s="2">
-        <v>20</v>
-      </c>
-      <c r="AW23" s="7" t="s">
-        <v>2724</v>
-      </c>
-    </row>
-    <row r="24" spans="1:49">
+    </row>
+    <row r="24" spans="1:45">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -26701,20 +26719,20 @@
       <c r="AM24" s="4" t="s">
         <v>1372</v>
       </c>
-      <c r="AP24" s="2">
+      <c r="AN24" s="2">
+        <v>21</v>
+      </c>
+      <c r="AO24" s="10" t="s">
+        <v>2723</v>
+      </c>
+      <c r="AP24" s="9">
         <v>21</v>
       </c>
       <c r="AQ24" s="4" t="s">
         <v>1720</v>
       </c>
-      <c r="AV24" s="2">
-        <v>21</v>
-      </c>
-      <c r="AW24" s="7" t="s">
-        <v>2723</v>
-      </c>
-    </row>
-    <row r="25" spans="1:49">
+    </row>
+    <row r="25" spans="1:45">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -26765,20 +26783,20 @@
       <c r="AM25" s="4" t="s">
         <v>1373</v>
       </c>
-      <c r="AP25" s="2">
+      <c r="AN25" s="2">
+        <v>22</v>
+      </c>
+      <c r="AO25" s="10" t="s">
+        <v>2721</v>
+      </c>
+      <c r="AP25" s="9">
         <v>22</v>
       </c>
       <c r="AQ25" s="4" t="s">
         <v>1721</v>
       </c>
-      <c r="AV25" s="2">
-        <v>22</v>
-      </c>
-      <c r="AW25" s="7" t="s">
-        <v>2721</v>
-      </c>
-    </row>
-    <row r="26" spans="1:49">
+    </row>
+    <row r="26" spans="1:45">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -26829,20 +26847,20 @@
       <c r="AM26" s="4" t="s">
         <v>1374</v>
       </c>
-      <c r="AP26" s="2">
+      <c r="AN26" s="2">
+        <v>23</v>
+      </c>
+      <c r="AO26" s="10" t="s">
+        <v>2719</v>
+      </c>
+      <c r="AP26" s="9">
         <v>23</v>
       </c>
       <c r="AQ26" s="4" t="s">
         <v>1722</v>
       </c>
-      <c r="AV26" s="2">
-        <v>23</v>
-      </c>
-      <c r="AW26" s="7" t="s">
-        <v>2719</v>
-      </c>
-    </row>
-    <row r="27" spans="1:49">
+    </row>
+    <row r="27" spans="1:45">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -26893,20 +26911,20 @@
       <c r="AM27" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="AP27" s="2">
+      <c r="AN27" s="2">
+        <v>24</v>
+      </c>
+      <c r="AO27" s="10" t="s">
+        <v>2717</v>
+      </c>
+      <c r="AP27" s="9">
         <v>24</v>
       </c>
       <c r="AQ27" s="4" t="s">
         <v>1723</v>
       </c>
-      <c r="AV27" s="2">
-        <v>24</v>
-      </c>
-      <c r="AW27" s="7" t="s">
-        <v>2717</v>
-      </c>
-    </row>
-    <row r="28" spans="1:49">
+    </row>
+    <row r="28" spans="1:45">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -26957,20 +26975,20 @@
       <c r="AM28" s="4" t="s">
         <v>1375</v>
       </c>
-      <c r="AP28" s="2">
+      <c r="AN28" s="2">
+        <v>25</v>
+      </c>
+      <c r="AO28" s="10" t="s">
+        <v>2716</v>
+      </c>
+      <c r="AP28" s="9">
         <v>25</v>
       </c>
       <c r="AQ28" s="4" t="s">
         <v>1724</v>
       </c>
-      <c r="AV28" s="2">
-        <v>25</v>
-      </c>
-      <c r="AW28" s="7" t="s">
-        <v>2716</v>
-      </c>
-    </row>
-    <row r="29" spans="1:49">
+    </row>
+    <row r="29" spans="1:45">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -27021,20 +27039,20 @@
       <c r="AM29" s="4" t="s">
         <v>1376</v>
       </c>
-      <c r="AP29" s="2">
+      <c r="AN29" s="2">
+        <v>26</v>
+      </c>
+      <c r="AO29" s="10" t="s">
+        <v>2715</v>
+      </c>
+      <c r="AP29" s="9">
         <v>26</v>
       </c>
       <c r="AQ29" s="4" t="s">
         <v>1725</v>
       </c>
-      <c r="AV29" s="2">
-        <v>26</v>
-      </c>
-      <c r="AW29" s="7" t="s">
-        <v>2715</v>
-      </c>
-    </row>
-    <row r="30" spans="1:49">
+    </row>
+    <row r="30" spans="1:45">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -27085,20 +27103,20 @@
       <c r="AM30" s="4" t="s">
         <v>1377</v>
       </c>
-      <c r="AP30" s="2">
+      <c r="AN30" s="2">
+        <v>27</v>
+      </c>
+      <c r="AO30" s="10" t="s">
+        <v>2713</v>
+      </c>
+      <c r="AP30" s="9">
         <v>27</v>
       </c>
       <c r="AQ30" s="4" t="s">
         <v>1726</v>
       </c>
-      <c r="AV30" s="2">
-        <v>27</v>
-      </c>
-      <c r="AW30" s="7" t="s">
-        <v>2713</v>
-      </c>
-    </row>
-    <row r="31" spans="1:49">
+    </row>
+    <row r="31" spans="1:45">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -27149,20 +27167,20 @@
       <c r="AM31" s="4" t="s">
         <v>1182</v>
       </c>
-      <c r="AP31" s="2">
+      <c r="AN31" s="2">
+        <v>28</v>
+      </c>
+      <c r="AO31" s="10" t="s">
+        <v>2711</v>
+      </c>
+      <c r="AP31" s="9">
         <v>28</v>
       </c>
       <c r="AQ31" s="4" t="s">
         <v>1727</v>
       </c>
-      <c r="AV31" s="2">
-        <v>28</v>
-      </c>
-      <c r="AW31" s="7" t="s">
-        <v>2711</v>
-      </c>
-    </row>
-    <row r="32" spans="1:49">
+    </row>
+    <row r="32" spans="1:45">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -27213,20 +27231,20 @@
       <c r="AM32" s="4" t="s">
         <v>1184</v>
       </c>
-      <c r="AP32" s="2">
+      <c r="AN32" s="2">
+        <v>29</v>
+      </c>
+      <c r="AO32" s="10" t="s">
+        <v>2709</v>
+      </c>
+      <c r="AP32" s="9">
         <v>29</v>
       </c>
       <c r="AQ32" s="4" t="s">
         <v>1728</v>
       </c>
-      <c r="AV32" s="2">
-        <v>29</v>
-      </c>
-      <c r="AW32" s="7" t="s">
-        <v>2709</v>
-      </c>
-    </row>
-    <row r="33" spans="1:49">
+    </row>
+    <row r="33" spans="1:43">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -27271,20 +27289,20 @@
       <c r="AM33" s="4" t="s">
         <v>1378</v>
       </c>
+      <c r="AN33" s="2">
+        <v>30</v>
+      </c>
+      <c r="AO33" s="10" t="s">
+        <v>2706</v>
+      </c>
       <c r="AP33" s="2">
         <v>30</v>
       </c>
       <c r="AQ33" s="4" t="s">
         <v>1729</v>
       </c>
-      <c r="AV33" s="2">
-        <v>30</v>
-      </c>
-      <c r="AW33" s="7" t="s">
-        <v>2706</v>
-      </c>
-    </row>
-    <row r="34" spans="1:49">
+    </row>
+    <row r="34" spans="1:43">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -27329,20 +27347,20 @@
       <c r="AM34" s="4" t="s">
         <v>1379</v>
       </c>
+      <c r="AN34" s="2">
+        <v>31</v>
+      </c>
+      <c r="AO34" s="10" t="s">
+        <v>2704</v>
+      </c>
       <c r="AP34" s="2">
         <v>31</v>
       </c>
       <c r="AQ34" s="4" t="s">
         <v>1730</v>
       </c>
-      <c r="AV34" s="2">
-        <v>31</v>
-      </c>
-      <c r="AW34" s="7" t="s">
-        <v>2704</v>
-      </c>
-    </row>
-    <row r="35" spans="1:49">
+    </row>
+    <row r="35" spans="1:43">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -27387,20 +27405,20 @@
       <c r="AM35" s="4" t="s">
         <v>1380</v>
       </c>
+      <c r="AN35" s="2">
+        <v>32</v>
+      </c>
+      <c r="AO35" s="10" t="s">
+        <v>2701</v>
+      </c>
       <c r="AP35" s="2">
         <v>32</v>
       </c>
       <c r="AQ35" s="4" t="s">
         <v>1731</v>
       </c>
-      <c r="AV35" s="2">
-        <v>32</v>
-      </c>
-      <c r="AW35" s="7" t="s">
-        <v>2701</v>
-      </c>
-    </row>
-    <row r="36" spans="1:49">
+    </row>
+    <row r="36" spans="1:43">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -27443,7 +27461,13 @@
         <v>33</v>
       </c>
       <c r="AM36" s="4" t="s">
-        <v>1381</v>
+        <v>847</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>33</v>
+      </c>
+      <c r="AO36" s="10" t="s">
+        <v>2698</v>
       </c>
       <c r="AP36" s="2">
         <v>33</v>
@@ -27451,14 +27475,8 @@
       <c r="AQ36" s="4" t="s">
         <v>1732</v>
       </c>
-      <c r="AV36" s="2">
-        <v>33</v>
-      </c>
-      <c r="AW36" s="7" t="s">
-        <v>2698</v>
-      </c>
-    </row>
-    <row r="37" spans="1:49">
+    </row>
+    <row r="37" spans="1:43">
       <c r="G37" s="2">
         <v>34</v>
       </c>
@@ -27494,7 +27512,13 @@
         <v>34</v>
       </c>
       <c r="AM37" s="4" t="s">
-        <v>1382</v>
+        <v>1355</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>34</v>
+      </c>
+      <c r="AO37" s="10" t="s">
+        <v>2695</v>
       </c>
       <c r="AP37" s="2">
         <v>34</v>
@@ -27502,14 +27526,8 @@
       <c r="AQ37" s="4" t="s">
         <v>1733</v>
       </c>
-      <c r="AV37" s="2">
-        <v>34</v>
-      </c>
-      <c r="AW37" s="7" t="s">
-        <v>2695</v>
-      </c>
-    </row>
-    <row r="38" spans="1:49">
+    </row>
+    <row r="38" spans="1:43">
       <c r="G38" s="2">
         <v>35</v>
       </c>
@@ -27533,7 +27551,7 @@
         <v>35</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>877</v>
+        <v>854</v>
       </c>
       <c r="AJ38" s="9">
         <v>35</v>
@@ -27545,7 +27563,13 @@
         <v>35</v>
       </c>
       <c r="AM38" s="4" t="s">
-        <v>1383</v>
+        <v>1356</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO38" s="10" t="s">
+        <v>2692</v>
       </c>
       <c r="AP38" s="2">
         <v>35</v>
@@ -27553,14 +27577,8 @@
       <c r="AQ38" s="4" t="s">
         <v>1734</v>
       </c>
-      <c r="AV38" s="2">
-        <v>35</v>
-      </c>
-      <c r="AW38" s="7" t="s">
-        <v>2692</v>
-      </c>
-    </row>
-    <row r="39" spans="1:49">
+    </row>
+    <row r="39" spans="1:43">
       <c r="G39" s="2">
         <v>36</v>
       </c>
@@ -27583,8 +27601,8 @@
       <c r="Z39" s="9">
         <v>36</v>
       </c>
-      <c r="AA39" s="24" t="s">
-        <v>878</v>
+      <c r="AA39" s="4" t="s">
+        <v>847</v>
       </c>
       <c r="AJ39" s="9">
         <v>36</v>
@@ -27598,20 +27616,20 @@
       <c r="AM39" s="4" t="s">
         <v>1384</v>
       </c>
+      <c r="AN39" s="2">
+        <v>36</v>
+      </c>
+      <c r="AO39" s="10" t="s">
+        <v>2689</v>
+      </c>
       <c r="AP39" s="2">
         <v>36</v>
       </c>
       <c r="AQ39" s="4" t="s">
         <v>1735</v>
       </c>
-      <c r="AV39" s="2">
-        <v>36</v>
-      </c>
-      <c r="AW39" s="7" t="s">
-        <v>2689</v>
-      </c>
-    </row>
-    <row r="40" spans="1:49">
+    </row>
+    <row r="40" spans="1:43">
       <c r="G40" s="2">
         <v>37</v>
       </c>
@@ -27649,20 +27667,20 @@
       <c r="AM40" s="4" t="s">
         <v>1385</v>
       </c>
+      <c r="AN40" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO40" s="10" t="s">
+        <v>2687</v>
+      </c>
       <c r="AP40" s="2">
         <v>37</v>
       </c>
       <c r="AQ40" s="4" t="s">
         <v>1736</v>
       </c>
-      <c r="AV40" s="2">
-        <v>37</v>
-      </c>
-      <c r="AW40" s="7" t="s">
-        <v>2687</v>
-      </c>
-    </row>
-    <row r="41" spans="1:49">
+    </row>
+    <row r="41" spans="1:43">
       <c r="G41" s="2">
         <v>38</v>
       </c>
@@ -27700,20 +27718,20 @@
       <c r="AM41" s="4" t="s">
         <v>1386</v>
       </c>
+      <c r="AN41" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO41" s="10" t="s">
+        <v>2685</v>
+      </c>
       <c r="AP41" s="2">
         <v>38</v>
       </c>
       <c r="AQ41" s="4" t="s">
         <v>1737</v>
       </c>
-      <c r="AV41" s="2">
-        <v>38</v>
-      </c>
-      <c r="AW41" s="7" t="s">
-        <v>2685</v>
-      </c>
-    </row>
-    <row r="42" spans="1:49">
+    </row>
+    <row r="42" spans="1:43">
       <c r="G42" s="2">
         <v>39</v>
       </c>
@@ -27751,20 +27769,20 @@
       <c r="AM42" s="4" t="s">
         <v>1387</v>
       </c>
+      <c r="AN42" s="2">
+        <v>39</v>
+      </c>
+      <c r="AO42" s="10" t="s">
+        <v>2682</v>
+      </c>
       <c r="AP42" s="2">
         <v>39</v>
       </c>
       <c r="AQ42" s="4" t="s">
         <v>1738</v>
       </c>
-      <c r="AV42" s="2">
-        <v>39</v>
-      </c>
-      <c r="AW42" s="7" t="s">
-        <v>2682</v>
-      </c>
-    </row>
-    <row r="43" spans="1:49">
+    </row>
+    <row r="43" spans="1:43">
       <c r="G43" s="2">
         <v>40</v>
       </c>
@@ -27802,20 +27820,20 @@
       <c r="AM43" s="4" t="s">
         <v>1388</v>
       </c>
+      <c r="AN43" s="2">
+        <v>40</v>
+      </c>
+      <c r="AO43" s="10" t="s">
+        <v>2679</v>
+      </c>
       <c r="AP43" s="2">
         <v>40</v>
       </c>
       <c r="AQ43" s="4" t="s">
         <v>1739</v>
       </c>
-      <c r="AV43" s="2">
-        <v>40</v>
-      </c>
-      <c r="AW43" s="7" t="s">
-        <v>2679</v>
-      </c>
-    </row>
-    <row r="44" spans="1:49">
+    </row>
+    <row r="44" spans="1:43">
       <c r="G44" s="2">
         <v>41</v>
       </c>
@@ -27853,20 +27871,20 @@
       <c r="AM44" s="4" t="s">
         <v>1389</v>
       </c>
+      <c r="AN44" s="2">
+        <v>41</v>
+      </c>
+      <c r="AO44" s="10" t="s">
+        <v>2676</v>
+      </c>
       <c r="AP44" s="2">
         <v>41</v>
       </c>
       <c r="AQ44" s="4" t="s">
         <v>1740</v>
       </c>
-      <c r="AV44" s="2">
-        <v>41</v>
-      </c>
-      <c r="AW44" s="7" t="s">
-        <v>2676</v>
-      </c>
-    </row>
-    <row r="45" spans="1:49">
+    </row>
+    <row r="45" spans="1:43">
       <c r="I45" s="2">
         <v>42</v>
       </c>
@@ -27898,20 +27916,20 @@
       <c r="AM45" s="4" t="s">
         <v>1390</v>
       </c>
+      <c r="AN45" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO45" s="10" t="s">
+        <v>2675</v>
+      </c>
       <c r="AP45" s="2">
         <v>42</v>
       </c>
       <c r="AQ45" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="AV45" s="2">
-        <v>42</v>
-      </c>
-      <c r="AW45" s="7" t="s">
-        <v>2675</v>
-      </c>
-    </row>
-    <row r="46" spans="1:49">
+    </row>
+    <row r="46" spans="1:43">
       <c r="I46" s="2">
         <v>43</v>
       </c>
@@ -27935,7 +27953,7 @@
         <v>43</v>
       </c>
       <c r="AK46" s="4" t="s">
-        <v>870</v>
+        <v>1157</v>
       </c>
       <c r="AL46" s="2">
         <v>43</v>
@@ -27943,20 +27961,20 @@
       <c r="AM46" s="4" t="s">
         <v>1391</v>
       </c>
+      <c r="AN46" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO46" s="10" t="s">
+        <v>2674</v>
+      </c>
       <c r="AP46" s="2">
         <v>43</v>
       </c>
       <c r="AQ46" s="4" t="s">
         <v>1741</v>
       </c>
-      <c r="AV46" s="2">
-        <v>43</v>
-      </c>
-      <c r="AW46" s="7" t="s">
-        <v>2674</v>
-      </c>
-    </row>
-    <row r="47" spans="1:49">
+    </row>
+    <row r="47" spans="1:43">
       <c r="I47" s="2">
         <v>44</v>
       </c>
@@ -27988,20 +28006,20 @@
       <c r="AM47" s="4" t="s">
         <v>1392</v>
       </c>
+      <c r="AN47" s="2">
+        <v>44</v>
+      </c>
+      <c r="AO47" s="10" t="s">
+        <v>2673</v>
+      </c>
       <c r="AP47" s="2">
         <v>44</v>
       </c>
       <c r="AQ47" s="4" t="s">
         <v>1742</v>
       </c>
-      <c r="AV47" s="2">
-        <v>44</v>
-      </c>
-      <c r="AW47" s="7" t="s">
-        <v>2673</v>
-      </c>
-    </row>
-    <row r="48" spans="1:49">
+    </row>
+    <row r="48" spans="1:43">
       <c r="I48" s="2">
         <v>45</v>
       </c>
@@ -28033,20 +28051,20 @@
       <c r="AM48" s="4" t="s">
         <v>1393</v>
       </c>
+      <c r="AN48" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO48" s="10" t="s">
+        <v>2672</v>
+      </c>
       <c r="AP48" s="2">
         <v>45</v>
       </c>
       <c r="AQ48" s="4" t="s">
         <v>1743</v>
       </c>
-      <c r="AV48" s="2">
-        <v>45</v>
-      </c>
-      <c r="AW48" s="7" t="s">
-        <v>2672</v>
-      </c>
-    </row>
-    <row r="49" spans="9:49">
+    </row>
+    <row r="49" spans="9:43">
       <c r="I49" s="2">
         <v>46</v>
       </c>
@@ -28078,20 +28096,20 @@
       <c r="AM49" s="4" t="s">
         <v>1394</v>
       </c>
+      <c r="AN49" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO49" s="10" t="s">
+        <v>2671</v>
+      </c>
       <c r="AP49" s="2">
         <v>46</v>
       </c>
       <c r="AQ49" s="4" t="s">
         <v>1744</v>
       </c>
-      <c r="AV49" s="2">
-        <v>46</v>
-      </c>
-      <c r="AW49" s="7" t="s">
-        <v>2671</v>
-      </c>
-    </row>
-    <row r="50" spans="9:49">
+    </row>
+    <row r="50" spans="9:43">
       <c r="I50" s="2">
         <v>47</v>
       </c>
@@ -28123,20 +28141,20 @@
       <c r="AM50" s="4" t="s">
         <v>1395</v>
       </c>
+      <c r="AN50" s="2">
+        <v>47</v>
+      </c>
+      <c r="AO50" s="10" t="s">
+        <v>2670</v>
+      </c>
       <c r="AP50" s="2">
         <v>47</v>
       </c>
       <c r="AQ50" s="4" t="s">
         <v>1745</v>
       </c>
-      <c r="AV50" s="2">
-        <v>47</v>
-      </c>
-      <c r="AW50" s="7" t="s">
-        <v>2670</v>
-      </c>
-    </row>
-    <row r="51" spans="9:49">
+    </row>
+    <row r="51" spans="9:43">
       <c r="I51" s="2">
         <v>48</v>
       </c>
@@ -28168,20 +28186,20 @@
       <c r="AM51" s="4" t="s">
         <v>1396</v>
       </c>
+      <c r="AN51" s="2">
+        <v>48</v>
+      </c>
+      <c r="AO51" s="10" t="s">
+        <v>2668</v>
+      </c>
       <c r="AP51" s="2">
         <v>48</v>
       </c>
       <c r="AQ51" s="4" t="s">
         <v>1746</v>
       </c>
-      <c r="AV51" s="2">
-        <v>48</v>
-      </c>
-      <c r="AW51" s="7" t="s">
-        <v>2668</v>
-      </c>
-    </row>
-    <row r="52" spans="9:49">
+    </row>
+    <row r="52" spans="9:43">
       <c r="M52" s="2">
         <v>49</v>
       </c>
@@ -28207,20 +28225,20 @@
       <c r="AM52" s="4" t="s">
         <v>1397</v>
       </c>
+      <c r="AN52" s="2">
+        <v>49</v>
+      </c>
+      <c r="AO52" s="10" t="s">
+        <v>2667</v>
+      </c>
       <c r="AP52" s="2">
         <v>49</v>
       </c>
       <c r="AQ52" s="4" t="s">
         <v>1747</v>
       </c>
-      <c r="AV52" s="2">
-        <v>49</v>
-      </c>
-      <c r="AW52" s="7" t="s">
-        <v>2667</v>
-      </c>
-    </row>
-    <row r="53" spans="9:49">
+    </row>
+    <row r="53" spans="9:43">
       <c r="M53" s="2">
         <v>50</v>
       </c>
@@ -28246,20 +28264,20 @@
       <c r="AM53" s="4" t="s">
         <v>1398</v>
       </c>
+      <c r="AN53" s="2">
+        <v>50</v>
+      </c>
+      <c r="AO53" s="10" t="s">
+        <v>2666</v>
+      </c>
       <c r="AP53" s="2">
         <v>50</v>
       </c>
       <c r="AQ53" s="4" t="s">
         <v>1748</v>
       </c>
-      <c r="AV53" s="2">
-        <v>50</v>
-      </c>
-      <c r="AW53" s="7" t="s">
-        <v>2666</v>
-      </c>
-    </row>
-    <row r="54" spans="9:49">
+    </row>
+    <row r="54" spans="9:43">
       <c r="M54" s="2">
         <v>51</v>
       </c>
@@ -28285,20 +28303,20 @@
       <c r="AM54" s="4" t="s">
         <v>1399</v>
       </c>
+      <c r="AN54" s="2">
+        <v>51</v>
+      </c>
+      <c r="AO54" s="10" t="s">
+        <v>2665</v>
+      </c>
       <c r="AP54" s="2">
         <v>51</v>
       </c>
       <c r="AQ54" s="4" t="s">
         <v>1749</v>
       </c>
-      <c r="AV54" s="2">
-        <v>51</v>
-      </c>
-      <c r="AW54" s="7" t="s">
-        <v>2665</v>
-      </c>
-    </row>
-    <row r="55" spans="9:49">
+    </row>
+    <row r="55" spans="9:43">
       <c r="M55" s="2">
         <v>52</v>
       </c>
@@ -28324,20 +28342,20 @@
       <c r="AM55" s="4" t="s">
         <v>1400</v>
       </c>
+      <c r="AN55" s="2">
+        <v>52</v>
+      </c>
+      <c r="AO55" s="10" t="s">
+        <v>2664</v>
+      </c>
       <c r="AP55" s="2">
         <v>52</v>
       </c>
       <c r="AQ55" s="4" t="s">
         <v>1750</v>
       </c>
-      <c r="AV55" s="2">
-        <v>52</v>
-      </c>
-      <c r="AW55" s="7" t="s">
-        <v>2664</v>
-      </c>
-    </row>
-    <row r="56" spans="9:49">
+    </row>
+    <row r="56" spans="9:43">
       <c r="Z56" s="9">
         <v>53</v>
       </c>
@@ -28356,20 +28374,20 @@
       <c r="AM56" s="4" t="s">
         <v>1401</v>
       </c>
+      <c r="AN56" s="2">
+        <v>53</v>
+      </c>
+      <c r="AO56" s="10" t="s">
+        <v>2663</v>
+      </c>
       <c r="AP56" s="2">
         <v>53</v>
       </c>
       <c r="AQ56" s="4" t="s">
         <v>1751</v>
       </c>
-      <c r="AV56" s="2">
-        <v>53</v>
-      </c>
-      <c r="AW56" s="7" t="s">
-        <v>2663</v>
-      </c>
-    </row>
-    <row r="57" spans="9:49">
+    </row>
+    <row r="57" spans="9:43">
       <c r="Z57" s="9">
         <v>54</v>
       </c>
@@ -28380,7 +28398,7 @@
         <v>54</v>
       </c>
       <c r="AK57" s="4" t="s">
-        <v>1205</v>
+        <v>1154</v>
       </c>
       <c r="AL57" s="2">
         <v>54</v>
@@ -28388,20 +28406,20 @@
       <c r="AM57" s="4" t="s">
         <v>1402</v>
       </c>
+      <c r="AN57" s="2">
+        <v>54</v>
+      </c>
+      <c r="AO57" s="10" t="s">
+        <v>2662</v>
+      </c>
       <c r="AP57" s="2">
         <v>54</v>
       </c>
       <c r="AQ57" s="4" t="s">
         <v>1752</v>
       </c>
-      <c r="AV57" s="2">
-        <v>54</v>
-      </c>
-      <c r="AW57" s="7" t="s">
-        <v>2662</v>
-      </c>
-    </row>
-    <row r="58" spans="9:49">
+    </row>
+    <row r="58" spans="9:43">
       <c r="Z58" s="9">
         <v>55</v>
       </c>
@@ -28412,7 +28430,7 @@
         <v>55</v>
       </c>
       <c r="AK58" s="4" t="s">
-        <v>1206</v>
+        <v>1155</v>
       </c>
       <c r="AL58" s="2">
         <v>55</v>
@@ -28420,20 +28438,20 @@
       <c r="AM58" s="4" t="s">
         <v>1193</v>
       </c>
+      <c r="AN58" s="2">
+        <v>55</v>
+      </c>
+      <c r="AO58" s="10" t="s">
+        <v>2661</v>
+      </c>
       <c r="AP58" s="2">
         <v>55</v>
       </c>
       <c r="AQ58" s="4" t="s">
         <v>1753</v>
       </c>
-      <c r="AV58" s="2">
-        <v>55</v>
-      </c>
-      <c r="AW58" s="7" t="s">
-        <v>2661</v>
-      </c>
-    </row>
-    <row r="59" spans="9:49">
+    </row>
+    <row r="59" spans="9:43">
       <c r="Z59" s="9">
         <v>56</v>
       </c>
@@ -28446,20 +28464,20 @@
       <c r="AM59" s="4" t="s">
         <v>1403</v>
       </c>
+      <c r="AN59" s="2">
+        <v>56</v>
+      </c>
+      <c r="AO59" s="10" t="s">
+        <v>2660</v>
+      </c>
       <c r="AP59" s="2">
         <v>56</v>
       </c>
       <c r="AQ59" s="4" t="s">
         <v>1754</v>
       </c>
-      <c r="AV59" s="2">
-        <v>56</v>
-      </c>
-      <c r="AW59" s="7" t="s">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="60" spans="9:49">
+    </row>
+    <row r="60" spans="9:43">
       <c r="Z60" s="9">
         <v>57</v>
       </c>
@@ -28472,1612 +28490,1627 @@
       <c r="AM60" s="4" t="s">
         <v>1404</v>
       </c>
+      <c r="AN60" s="2">
+        <v>57</v>
+      </c>
+      <c r="AO60" s="10" t="s">
+        <v>2659</v>
+      </c>
       <c r="AP60" s="2">
         <v>57</v>
       </c>
       <c r="AQ60" s="4" t="s">
         <v>1755</v>
       </c>
-      <c r="AV60" s="2">
-        <v>57</v>
-      </c>
-      <c r="AW60" s="7" t="s">
-        <v>2659</v>
-      </c>
-    </row>
-    <row r="61" spans="9:49">
+    </row>
+    <row r="61" spans="9:43">
       <c r="AL61" s="2">
         <v>58</v>
       </c>
       <c r="AM61" s="4" t="s">
         <v>1405</v>
       </c>
+      <c r="AN61" s="2">
+        <v>58</v>
+      </c>
+      <c r="AO61" s="10" t="s">
+        <v>2658</v>
+      </c>
       <c r="AP61" s="2">
         <v>58</v>
       </c>
       <c r="AQ61" s="4" t="s">
         <v>1756</v>
       </c>
-      <c r="AV61" s="2">
-        <v>58</v>
-      </c>
-      <c r="AW61" s="7" t="s">
-        <v>2658</v>
-      </c>
-    </row>
-    <row r="62" spans="9:49">
+    </row>
+    <row r="62" spans="9:43">
       <c r="AL62" s="2">
         <v>59</v>
       </c>
       <c r="AM62" s="4" t="s">
         <v>1406</v>
       </c>
+      <c r="AN62" s="2">
+        <v>59</v>
+      </c>
+      <c r="AO62" s="10" t="s">
+        <v>2657</v>
+      </c>
       <c r="AP62" s="2">
         <v>59</v>
       </c>
       <c r="AQ62" s="4" t="s">
         <v>1757</v>
       </c>
-      <c r="AV62" s="2">
-        <v>59</v>
-      </c>
-      <c r="AW62" s="7" t="s">
-        <v>2657</v>
-      </c>
-    </row>
-    <row r="63" spans="9:49">
+    </row>
+    <row r="63" spans="9:43">
       <c r="AL63" s="2">
         <v>60</v>
       </c>
       <c r="AM63" s="4" t="s">
         <v>1407</v>
       </c>
+      <c r="AN63" s="2">
+        <v>60</v>
+      </c>
+      <c r="AO63" s="10" t="s">
+        <v>2656</v>
+      </c>
       <c r="AP63" s="2">
         <v>60</v>
       </c>
       <c r="AQ63" s="4" t="s">
         <v>1758</v>
       </c>
-      <c r="AV63" s="2">
-        <v>60</v>
-      </c>
-      <c r="AW63" s="7" t="s">
-        <v>2656</v>
-      </c>
-    </row>
-    <row r="64" spans="9:49">
+    </row>
+    <row r="64" spans="9:43">
       <c r="AL64" s="2">
         <v>61</v>
       </c>
       <c r="AM64" s="4" t="s">
         <v>1408</v>
       </c>
+      <c r="AN64" s="2">
+        <v>61</v>
+      </c>
+      <c r="AO64" s="10" t="s">
+        <v>2655</v>
+      </c>
       <c r="AP64" s="2">
         <v>61</v>
       </c>
       <c r="AQ64" s="4" t="s">
         <v>1759</v>
       </c>
-      <c r="AV64" s="2">
-        <v>61</v>
-      </c>
-      <c r="AW64" s="7" t="s">
-        <v>2655</v>
-      </c>
-    </row>
-    <row r="65" spans="38:49">
+    </row>
+    <row r="65" spans="38:43">
       <c r="AL65" s="2">
         <v>62</v>
       </c>
       <c r="AM65" s="4" t="s">
         <v>1409</v>
       </c>
+      <c r="AN65" s="2">
+        <v>62</v>
+      </c>
+      <c r="AO65" s="10" t="s">
+        <v>2654</v>
+      </c>
       <c r="AP65" s="2">
         <v>62</v>
       </c>
       <c r="AQ65" s="4" t="s">
         <v>1760</v>
       </c>
-      <c r="AV65" s="2">
-        <v>62</v>
-      </c>
-      <c r="AW65" s="7" t="s">
-        <v>2654</v>
-      </c>
-    </row>
-    <row r="66" spans="38:49">
+    </row>
+    <row r="66" spans="38:43">
       <c r="AL66" s="2">
         <v>63</v>
       </c>
       <c r="AM66" s="4" t="s">
         <v>1410</v>
       </c>
+      <c r="AN66" s="2">
+        <v>63</v>
+      </c>
+      <c r="AO66" s="10" t="s">
+        <v>2653</v>
+      </c>
       <c r="AP66" s="2">
         <v>63</v>
       </c>
       <c r="AQ66" s="4" t="s">
         <v>1761</v>
       </c>
-      <c r="AV66" s="2">
-        <v>63</v>
-      </c>
-      <c r="AW66" s="7" t="s">
-        <v>2653</v>
-      </c>
-    </row>
-    <row r="67" spans="38:49">
+    </row>
+    <row r="67" spans="38:43">
       <c r="AL67" s="2">
         <v>64</v>
       </c>
       <c r="AM67" s="4" t="s">
         <v>1411</v>
       </c>
+      <c r="AN67" s="2">
+        <v>64</v>
+      </c>
+      <c r="AO67" s="10" t="s">
+        <v>2652</v>
+      </c>
       <c r="AP67" s="2">
         <v>64</v>
       </c>
       <c r="AQ67" s="4" t="s">
         <v>1039</v>
       </c>
-      <c r="AV67" s="2">
-        <v>64</v>
-      </c>
-      <c r="AW67" s="7" t="s">
-        <v>2652</v>
-      </c>
-    </row>
-    <row r="68" spans="38:49">
+    </row>
+    <row r="68" spans="38:43">
       <c r="AL68" s="2">
         <v>65</v>
       </c>
       <c r="AM68" s="4" t="s">
         <v>1412</v>
       </c>
+      <c r="AN68" s="2">
+        <v>65</v>
+      </c>
+      <c r="AO68" s="10" t="s">
+        <v>2651</v>
+      </c>
       <c r="AP68" s="2">
         <v>65</v>
       </c>
       <c r="AQ68" s="4" t="s">
         <v>1762</v>
       </c>
-      <c r="AV68" s="2">
-        <v>65</v>
-      </c>
-      <c r="AW68" s="7" t="s">
-        <v>2651</v>
-      </c>
-    </row>
-    <row r="69" spans="38:49">
+    </row>
+    <row r="69" spans="38:43">
       <c r="AL69" s="2">
         <v>66</v>
       </c>
       <c r="AM69" s="4" t="s">
         <v>1413</v>
       </c>
+      <c r="AN69" s="2">
+        <v>66</v>
+      </c>
+      <c r="AO69" s="10" t="s">
+        <v>2650</v>
+      </c>
       <c r="AP69" s="2">
         <v>66</v>
       </c>
       <c r="AQ69" s="4" t="s">
         <v>1763</v>
       </c>
-      <c r="AV69" s="2">
-        <v>66</v>
-      </c>
-      <c r="AW69" s="7" t="s">
-        <v>2650</v>
-      </c>
-    </row>
-    <row r="70" spans="38:49">
+    </row>
+    <row r="70" spans="38:43">
       <c r="AL70" s="2">
         <v>67</v>
       </c>
       <c r="AM70" s="4" t="s">
         <v>1414</v>
       </c>
+      <c r="AN70" s="2">
+        <v>67</v>
+      </c>
+      <c r="AO70" s="10" t="s">
+        <v>2649</v>
+      </c>
       <c r="AP70" s="2">
         <v>67</v>
       </c>
       <c r="AQ70" s="4" t="s">
         <v>1764</v>
       </c>
-      <c r="AV70" s="2">
-        <v>67</v>
-      </c>
-      <c r="AW70" s="7" t="s">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="71" spans="38:49">
+    </row>
+    <row r="71" spans="38:43">
       <c r="AL71" s="2">
         <v>68</v>
       </c>
       <c r="AM71" s="4" t="s">
         <v>1195</v>
       </c>
+      <c r="AN71" s="2">
+        <v>68</v>
+      </c>
+      <c r="AO71" s="10" t="s">
+        <v>2648</v>
+      </c>
       <c r="AP71" s="2">
         <v>68</v>
       </c>
       <c r="AQ71" s="4" t="s">
         <v>1765</v>
       </c>
-      <c r="AV71" s="2">
-        <v>68</v>
-      </c>
-      <c r="AW71" s="7" t="s">
-        <v>2648</v>
-      </c>
-    </row>
-    <row r="72" spans="38:49">
+    </row>
+    <row r="72" spans="38:43">
       <c r="AL72" s="2">
         <v>69</v>
       </c>
       <c r="AM72" s="4" t="s">
         <v>1196</v>
       </c>
+      <c r="AN72" s="2">
+        <v>69</v>
+      </c>
+      <c r="AO72" s="10" t="s">
+        <v>2647</v>
+      </c>
       <c r="AP72" s="2">
         <v>69</v>
       </c>
       <c r="AQ72" s="4" t="s">
         <v>1766</v>
       </c>
-      <c r="AV72" s="2">
-        <v>69</v>
-      </c>
-      <c r="AW72" s="7" t="s">
-        <v>2647</v>
-      </c>
-    </row>
-    <row r="73" spans="38:49">
+    </row>
+    <row r="73" spans="38:43">
       <c r="AL73" s="2">
         <v>70</v>
       </c>
       <c r="AM73" s="4" t="s">
         <v>1415</v>
       </c>
-      <c r="AP73" s="2">
+      <c r="AN73" s="2">
+        <v>70</v>
+      </c>
+      <c r="AO73" s="10" t="s">
+        <v>2646</v>
+      </c>
+      <c r="AP73" s="9">
         <v>70</v>
       </c>
       <c r="AQ73" s="4" t="s">
         <v>1767</v>
       </c>
-      <c r="AV73" s="2">
-        <v>70</v>
-      </c>
-      <c r="AW73" s="7" t="s">
-        <v>2646</v>
-      </c>
-    </row>
-    <row r="74" spans="38:49">
+    </row>
+    <row r="74" spans="38:43">
       <c r="AL74" s="2">
         <v>71</v>
       </c>
       <c r="AM74" s="4" t="s">
         <v>1416</v>
       </c>
-      <c r="AP74" s="2">
+      <c r="AN74" s="2">
+        <v>71</v>
+      </c>
+      <c r="AO74" s="10" t="s">
+        <v>2645</v>
+      </c>
+      <c r="AP74" s="9">
         <v>71</v>
       </c>
       <c r="AQ74" s="4" t="s">
         <v>1768</v>
       </c>
-      <c r="AV74" s="2">
-        <v>71</v>
-      </c>
-      <c r="AW74" s="7" t="s">
-        <v>2645</v>
-      </c>
-    </row>
-    <row r="75" spans="38:49">
+    </row>
+    <row r="75" spans="38:43">
       <c r="AL75" s="2">
         <v>72</v>
       </c>
       <c r="AM75" s="4" t="s">
         <v>1417</v>
       </c>
-      <c r="AP75" s="2">
+      <c r="AN75" s="2">
+        <v>72</v>
+      </c>
+      <c r="AO75" s="10" t="s">
+        <v>2644</v>
+      </c>
+      <c r="AP75" s="9">
         <v>72</v>
       </c>
       <c r="AQ75" s="4" t="s">
         <v>1769</v>
       </c>
-      <c r="AV75" s="2">
-        <v>72</v>
-      </c>
-      <c r="AW75" s="7" t="s">
-        <v>2644</v>
-      </c>
-    </row>
-    <row r="76" spans="38:49">
+    </row>
+    <row r="76" spans="38:43">
       <c r="AL76" s="2">
         <v>73</v>
       </c>
       <c r="AM76" s="4" t="s">
         <v>1418</v>
       </c>
-      <c r="AP76" s="2">
+      <c r="AN76" s="2">
+        <v>73</v>
+      </c>
+      <c r="AO76" s="10" t="s">
+        <v>2643</v>
+      </c>
+      <c r="AP76" s="9">
         <v>73</v>
       </c>
       <c r="AQ76" s="4" t="s">
         <v>1770</v>
       </c>
-      <c r="AV76" s="2">
-        <v>73</v>
-      </c>
-      <c r="AW76" s="7" t="s">
-        <v>2643</v>
-      </c>
-    </row>
-    <row r="77" spans="38:49">
+    </row>
+    <row r="77" spans="38:43">
       <c r="AL77" s="2">
         <v>74</v>
       </c>
       <c r="AM77" s="4" t="s">
         <v>1199</v>
       </c>
-      <c r="AP77" s="2">
+      <c r="AN77" s="2">
+        <v>74</v>
+      </c>
+      <c r="AO77" s="10" t="s">
+        <v>2642</v>
+      </c>
+      <c r="AP77" s="9">
         <v>74</v>
       </c>
       <c r="AQ77" s="4" t="s">
         <v>1771</v>
       </c>
-      <c r="AV77" s="2">
-        <v>74</v>
-      </c>
-      <c r="AW77" s="7" t="s">
-        <v>2642</v>
-      </c>
-    </row>
-    <row r="78" spans="38:49">
+    </row>
+    <row r="78" spans="38:43">
       <c r="AL78" s="2">
         <v>75</v>
       </c>
       <c r="AM78" s="4" t="s">
         <v>1419</v>
       </c>
-      <c r="AP78" s="2">
+      <c r="AN78" s="2">
+        <v>75</v>
+      </c>
+      <c r="AO78" s="10" t="s">
+        <v>2641</v>
+      </c>
+      <c r="AP78" s="9">
         <v>75</v>
       </c>
       <c r="AQ78" s="4" t="s">
         <v>1772</v>
       </c>
-      <c r="AV78" s="2">
-        <v>75</v>
-      </c>
-      <c r="AW78" s="7" t="s">
-        <v>2641</v>
-      </c>
-    </row>
-    <row r="79" spans="38:49">
+    </row>
+    <row r="79" spans="38:43">
       <c r="AL79" s="2">
         <v>76</v>
       </c>
       <c r="AM79" s="4" t="s">
         <v>1420</v>
       </c>
-      <c r="AP79" s="2">
+      <c r="AN79" s="2">
+        <v>76</v>
+      </c>
+      <c r="AO79" s="10" t="s">
+        <v>2640</v>
+      </c>
+      <c r="AP79" s="9">
         <v>76</v>
       </c>
       <c r="AQ79" s="4" t="s">
         <v>1773</v>
       </c>
-      <c r="AV79" s="2">
-        <v>76</v>
-      </c>
-      <c r="AW79" s="7" t="s">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="80" spans="38:49">
+    </row>
+    <row r="80" spans="38:43">
       <c r="AL80" s="2">
         <v>77</v>
       </c>
       <c r="AM80" s="4" t="s">
         <v>1421</v>
       </c>
-      <c r="AP80" s="2">
+      <c r="AN80" s="2">
+        <v>77</v>
+      </c>
+      <c r="AO80" s="10" t="s">
+        <v>2639</v>
+      </c>
+      <c r="AP80" s="9">
         <v>77</v>
       </c>
       <c r="AQ80" s="4" t="s">
         <v>1774</v>
       </c>
-      <c r="AV80" s="2">
-        <v>77</v>
-      </c>
-      <c r="AW80" s="7" t="s">
-        <v>2639</v>
-      </c>
-    </row>
-    <row r="81" spans="38:49">
+    </row>
+    <row r="81" spans="38:43">
       <c r="AL81" s="2">
         <v>78</v>
       </c>
       <c r="AM81" s="4" t="s">
         <v>1422</v>
       </c>
-      <c r="AP81" s="2">
+      <c r="AN81" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO81" s="10" t="s">
+        <v>2638</v>
+      </c>
+      <c r="AP81" s="9">
         <v>78</v>
       </c>
       <c r="AQ81" s="4" t="s">
         <v>1775</v>
       </c>
-      <c r="AV81" s="2">
-        <v>78</v>
-      </c>
-      <c r="AW81" s="7" t="s">
-        <v>2638</v>
-      </c>
-    </row>
-    <row r="82" spans="38:49">
+    </row>
+    <row r="82" spans="38:43">
       <c r="AL82" s="2">
         <v>79</v>
       </c>
       <c r="AM82" s="4" t="s">
         <v>1423</v>
       </c>
-      <c r="AP82" s="2">
+      <c r="AN82" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO82" s="10" t="s">
+        <v>2637</v>
+      </c>
+      <c r="AP82" s="9">
         <v>79</v>
       </c>
       <c r="AQ82" s="4" t="s">
         <v>1776</v>
       </c>
-      <c r="AV82" s="2">
-        <v>79</v>
-      </c>
-      <c r="AW82" s="7" t="s">
-        <v>2637</v>
-      </c>
-    </row>
-    <row r="83" spans="38:49">
+    </row>
+    <row r="83" spans="38:43">
       <c r="AL83" s="2">
         <v>80</v>
       </c>
       <c r="AM83" s="4" t="s">
         <v>1424</v>
       </c>
-      <c r="AP83" s="2">
+      <c r="AN83" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO83" s="10" t="s">
+        <v>2636</v>
+      </c>
+      <c r="AP83" s="9">
         <v>80</v>
       </c>
       <c r="AQ83" s="4" t="s">
         <v>1777</v>
       </c>
-      <c r="AV83" s="2">
-        <v>80</v>
-      </c>
-      <c r="AW83" s="7" t="s">
-        <v>2636</v>
-      </c>
-    </row>
-    <row r="84" spans="38:49">
+    </row>
+    <row r="84" spans="38:43">
       <c r="AL84" s="2">
         <v>81</v>
       </c>
       <c r="AM84" s="4" t="s">
         <v>1425</v>
       </c>
-      <c r="AP84" s="2">
+      <c r="AN84" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO84" s="10" t="s">
+        <v>2635</v>
+      </c>
+      <c r="AP84" s="9">
         <v>81</v>
       </c>
       <c r="AQ84" s="4" t="s">
         <v>1778</v>
       </c>
-      <c r="AV84" s="2">
-        <v>81</v>
-      </c>
-      <c r="AW84" s="7" t="s">
-        <v>2635</v>
-      </c>
-    </row>
-    <row r="85" spans="38:49">
+    </row>
+    <row r="85" spans="38:43">
       <c r="AL85" s="2">
         <v>82</v>
       </c>
       <c r="AM85" s="4" t="s">
         <v>1426</v>
       </c>
-      <c r="AP85" s="2">
+      <c r="AN85" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO85" s="10" t="s">
+        <v>2634</v>
+      </c>
+      <c r="AP85" s="9">
         <v>82</v>
       </c>
       <c r="AQ85" s="4" t="s">
         <v>1779</v>
       </c>
-      <c r="AV85" s="2">
-        <v>82</v>
-      </c>
-      <c r="AW85" s="7" t="s">
-        <v>2634</v>
-      </c>
-    </row>
-    <row r="86" spans="38:49">
+    </row>
+    <row r="86" spans="38:43">
       <c r="AL86" s="2">
         <v>83</v>
       </c>
       <c r="AM86" s="4" t="s">
         <v>1427</v>
       </c>
-      <c r="AP86" s="2">
+      <c r="AN86" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO86" s="10" t="s">
+        <v>2633</v>
+      </c>
+      <c r="AP86" s="9">
         <v>83</v>
       </c>
       <c r="AQ86" s="4" t="s">
         <v>1780</v>
       </c>
-      <c r="AV86" s="2">
-        <v>83</v>
-      </c>
-      <c r="AW86" s="7" t="s">
-        <v>2633</v>
-      </c>
-    </row>
-    <row r="87" spans="38:49">
+    </row>
+    <row r="87" spans="38:43">
       <c r="AL87" s="2">
         <v>84</v>
       </c>
       <c r="AM87" s="4" t="s">
         <v>1428</v>
       </c>
-      <c r="AP87" s="2">
+      <c r="AN87" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO87" s="10" t="s">
+        <v>2632</v>
+      </c>
+      <c r="AP87" s="9">
         <v>84</v>
       </c>
       <c r="AQ87" s="4" t="s">
         <v>1780</v>
       </c>
-      <c r="AV87" s="2">
-        <v>84</v>
-      </c>
-      <c r="AW87" s="7" t="s">
-        <v>2632</v>
-      </c>
-    </row>
-    <row r="88" spans="38:49">
+    </row>
+    <row r="88" spans="38:43">
       <c r="AL88" s="2">
         <v>85</v>
       </c>
       <c r="AM88" s="4" t="s">
         <v>1429</v>
       </c>
-      <c r="AP88" s="2">
+      <c r="AN88" s="2">
+        <v>85</v>
+      </c>
+      <c r="AO88" s="10" t="s">
+        <v>2631</v>
+      </c>
+      <c r="AP88" s="9">
         <v>85</v>
       </c>
       <c r="AQ88" s="4" t="s">
         <v>1781</v>
       </c>
-      <c r="AV88" s="2">
-        <v>85</v>
-      </c>
-      <c r="AW88" s="7" t="s">
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="89" spans="38:49">
+    </row>
+    <row r="89" spans="38:43">
       <c r="AL89" s="2">
         <v>86</v>
       </c>
       <c r="AM89" s="4" t="s">
         <v>1430</v>
       </c>
-      <c r="AP89" s="2">
+      <c r="AN89" s="2">
+        <v>86</v>
+      </c>
+      <c r="AO89" s="10" t="s">
+        <v>2630</v>
+      </c>
+      <c r="AP89" s="9">
         <v>86</v>
       </c>
       <c r="AQ89" s="4" t="s">
         <v>1782</v>
       </c>
-      <c r="AV89" s="2">
-        <v>86</v>
-      </c>
-      <c r="AW89" s="7" t="s">
-        <v>2630</v>
-      </c>
-    </row>
-    <row r="90" spans="38:49">
+    </row>
+    <row r="90" spans="38:43">
       <c r="AL90" s="2">
         <v>87</v>
       </c>
       <c r="AM90" s="4" t="s">
         <v>1203</v>
       </c>
-      <c r="AP90" s="2">
+      <c r="AN90" s="2">
+        <v>87</v>
+      </c>
+      <c r="AO90" s="10" t="s">
+        <v>2629</v>
+      </c>
+      <c r="AP90" s="9">
         <v>87</v>
       </c>
       <c r="AQ90" s="4" t="s">
         <v>1783</v>
       </c>
-      <c r="AV90" s="2">
-        <v>87</v>
-      </c>
-      <c r="AW90" s="7" t="s">
-        <v>2629</v>
-      </c>
-    </row>
-    <row r="91" spans="38:49">
+    </row>
+    <row r="91" spans="38:43">
       <c r="AL91" s="2">
         <v>88</v>
       </c>
       <c r="AM91" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AP91" s="2">
+      <c r="AN91" s="2">
+        <v>88</v>
+      </c>
+      <c r="AO91" s="10" t="s">
+        <v>2628</v>
+      </c>
+      <c r="AP91" s="9">
         <v>88</v>
       </c>
       <c r="AQ91" s="4" t="s">
         <v>1784</v>
       </c>
-      <c r="AV91" s="2">
-        <v>88</v>
-      </c>
-      <c r="AW91" s="7" t="s">
-        <v>2628</v>
-      </c>
-    </row>
-    <row r="92" spans="38:49">
-      <c r="AP92" s="2">
+    </row>
+    <row r="92" spans="38:43">
+      <c r="AN92" s="2">
+        <v>89</v>
+      </c>
+      <c r="AO92" s="10" t="s">
+        <v>2627</v>
+      </c>
+      <c r="AP92" s="9">
         <v>89</v>
       </c>
       <c r="AQ92" s="4" t="s">
         <v>1785</v>
       </c>
-      <c r="AV92" s="2">
-        <v>89</v>
-      </c>
-      <c r="AW92" s="7" t="s">
-        <v>2627</v>
-      </c>
-    </row>
-    <row r="93" spans="38:49">
-      <c r="AP93" s="2">
+    </row>
+    <row r="93" spans="38:43">
+      <c r="AN93" s="2">
+        <v>90</v>
+      </c>
+      <c r="AO93" s="10" t="s">
+        <v>2626</v>
+      </c>
+      <c r="AP93" s="9">
         <v>90</v>
       </c>
       <c r="AQ93" s="4" t="s">
         <v>1786</v>
       </c>
-      <c r="AV93" s="2">
-        <v>90</v>
-      </c>
-      <c r="AW93" s="7" t="s">
-        <v>2626</v>
-      </c>
-    </row>
-    <row r="94" spans="38:49">
-      <c r="AP94" s="2">
+    </row>
+    <row r="94" spans="38:43">
+      <c r="AN94" s="2">
+        <v>91</v>
+      </c>
+      <c r="AO94" s="10" t="s">
+        <v>2625</v>
+      </c>
+      <c r="AP94" s="9">
         <v>91</v>
       </c>
       <c r="AQ94" s="4" t="s">
         <v>1787</v>
       </c>
-      <c r="AV94" s="2">
-        <v>91</v>
-      </c>
-      <c r="AW94" s="7" t="s">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="95" spans="38:49">
+    </row>
+    <row r="95" spans="38:43">
+      <c r="AN95" s="2">
+        <v>92</v>
+      </c>
+      <c r="AO95" s="10" t="s">
+        <v>2624</v>
+      </c>
       <c r="AP95" s="2">
         <v>92</v>
       </c>
       <c r="AQ95" s="4" t="s">
         <v>1788</v>
       </c>
-      <c r="AV95" s="2">
-        <v>92</v>
-      </c>
-      <c r="AW95" s="7" t="s">
-        <v>2624</v>
-      </c>
-    </row>
-    <row r="96" spans="38:49">
+    </row>
+    <row r="96" spans="38:43">
+      <c r="AN96" s="2">
+        <v>93</v>
+      </c>
+      <c r="AO96" s="10" t="s">
+        <v>2623</v>
+      </c>
       <c r="AP96" s="2">
         <v>93</v>
       </c>
       <c r="AQ96" s="4" t="s">
         <v>1789</v>
       </c>
-      <c r="AV96" s="2">
-        <v>93</v>
-      </c>
-      <c r="AW96" s="7" t="s">
-        <v>2623</v>
-      </c>
-    </row>
-    <row r="97" spans="42:49">
+    </row>
+    <row r="97" spans="40:43">
+      <c r="AN97" s="2">
+        <v>94</v>
+      </c>
+      <c r="AO97" s="10" t="s">
+        <v>2622</v>
+      </c>
       <c r="AP97" s="2">
         <v>94</v>
       </c>
       <c r="AQ97" s="4" t="s">
         <v>1790</v>
       </c>
-      <c r="AV97" s="2">
-        <v>94</v>
-      </c>
-      <c r="AW97" s="7" t="s">
-        <v>2622</v>
-      </c>
-    </row>
-    <row r="98" spans="42:49">
+    </row>
+    <row r="98" spans="40:43">
+      <c r="AN98" s="2">
+        <v>95</v>
+      </c>
+      <c r="AO98" s="10" t="s">
+        <v>2621</v>
+      </c>
       <c r="AP98" s="2">
         <v>95</v>
       </c>
       <c r="AQ98" s="4" t="s">
         <v>1790</v>
       </c>
-      <c r="AV98" s="2">
-        <v>95</v>
-      </c>
-      <c r="AW98" s="7" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="99" spans="42:49">
+    </row>
+    <row r="99" spans="40:43">
+      <c r="AN99" s="2">
+        <v>96</v>
+      </c>
+      <c r="AO99" s="10" t="s">
+        <v>1129</v>
+      </c>
       <c r="AP99" s="2">
         <v>96</v>
       </c>
       <c r="AQ99" s="4" t="s">
         <v>1791</v>
       </c>
-      <c r="AV99" s="2">
-        <v>96</v>
-      </c>
-      <c r="AW99" s="7" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="100" spans="42:49">
+    </row>
+    <row r="100" spans="40:43">
+      <c r="AN100" s="2">
+        <v>97</v>
+      </c>
+      <c r="AO100" s="10" t="s">
+        <v>2620</v>
+      </c>
       <c r="AP100" s="2">
         <v>97</v>
       </c>
       <c r="AQ100" s="4" t="s">
         <v>1792</v>
       </c>
-      <c r="AV100" s="2">
-        <v>97</v>
-      </c>
-      <c r="AW100" s="7" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="101" spans="42:49">
+    </row>
+    <row r="101" spans="40:43">
+      <c r="AN101" s="2">
+        <v>98</v>
+      </c>
+      <c r="AO101" s="10" t="s">
+        <v>2619</v>
+      </c>
       <c r="AP101" s="2">
         <v>98</v>
       </c>
       <c r="AQ101" s="4" t="s">
         <v>1793</v>
       </c>
-      <c r="AV101" s="2">
-        <v>98</v>
-      </c>
-      <c r="AW101" s="7" t="s">
-        <v>2619</v>
-      </c>
-    </row>
-    <row r="102" spans="42:49">
+    </row>
+    <row r="102" spans="40:43">
+      <c r="AN102" s="2">
+        <v>99</v>
+      </c>
+      <c r="AO102" s="10" t="s">
+        <v>2618</v>
+      </c>
       <c r="AP102" s="2">
         <v>99</v>
       </c>
       <c r="AQ102" s="4" t="s">
         <v>1794</v>
       </c>
-      <c r="AV102" s="2">
-        <v>99</v>
-      </c>
-      <c r="AW102" s="7" t="s">
-        <v>2618</v>
-      </c>
-    </row>
-    <row r="103" spans="42:49">
+    </row>
+    <row r="103" spans="40:43">
+      <c r="AN103" s="2">
+        <v>100</v>
+      </c>
+      <c r="AO103" s="10" t="s">
+        <v>2617</v>
+      </c>
       <c r="AP103" s="2">
         <v>100</v>
       </c>
       <c r="AQ103" s="4" t="s">
         <v>1795</v>
       </c>
-      <c r="AV103" s="2">
-        <v>100</v>
-      </c>
-      <c r="AW103" s="7" t="s">
-        <v>2617</v>
-      </c>
-    </row>
-    <row r="104" spans="42:49">
+    </row>
+    <row r="104" spans="40:43">
+      <c r="AN104" s="2">
+        <v>101</v>
+      </c>
+      <c r="AO104" s="10" t="s">
+        <v>2616</v>
+      </c>
       <c r="AP104" s="2">
         <v>101</v>
       </c>
       <c r="AQ104" s="4" t="s">
         <v>1796</v>
       </c>
-      <c r="AV104" s="2">
-        <v>101</v>
-      </c>
-      <c r="AW104" s="7" t="s">
-        <v>2616</v>
-      </c>
-    </row>
-    <row r="105" spans="42:49">
+    </row>
+    <row r="105" spans="40:43">
+      <c r="AN105" s="2">
+        <v>102</v>
+      </c>
+      <c r="AO105" s="10" t="s">
+        <v>2615</v>
+      </c>
       <c r="AP105" s="2">
         <v>102</v>
       </c>
       <c r="AQ105" s="4" t="s">
         <v>1797</v>
       </c>
-      <c r="AV105" s="2">
-        <v>102</v>
-      </c>
-      <c r="AW105" s="7" t="s">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="106" spans="42:49">
+    </row>
+    <row r="106" spans="40:43">
+      <c r="AN106" s="2">
+        <v>103</v>
+      </c>
+      <c r="AO106" s="10" t="s">
+        <v>2614</v>
+      </c>
       <c r="AP106" s="2">
         <v>103</v>
       </c>
       <c r="AQ106" s="4" t="s">
         <v>1798</v>
       </c>
-      <c r="AV106" s="2">
-        <v>103</v>
-      </c>
-      <c r="AW106" s="7" t="s">
-        <v>2614</v>
-      </c>
-    </row>
-    <row r="107" spans="42:49">
+    </row>
+    <row r="107" spans="40:43">
+      <c r="AN107" s="2">
+        <v>104</v>
+      </c>
+      <c r="AO107" s="10" t="s">
+        <v>2613</v>
+      </c>
       <c r="AP107" s="2">
         <v>104</v>
       </c>
       <c r="AQ107" s="4" t="s">
         <v>1799</v>
       </c>
-      <c r="AV107" s="2">
-        <v>104</v>
-      </c>
-      <c r="AW107" s="7" t="s">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="108" spans="42:49">
+    </row>
+    <row r="108" spans="40:43">
+      <c r="AN108" s="2">
+        <v>105</v>
+      </c>
+      <c r="AO108" s="10" t="s">
+        <v>2612</v>
+      </c>
       <c r="AP108" s="2">
         <v>105</v>
       </c>
       <c r="AQ108" s="4" t="s">
         <v>1799</v>
       </c>
-      <c r="AV108" s="2">
-        <v>105</v>
-      </c>
-      <c r="AW108" s="7" t="s">
-        <v>2612</v>
-      </c>
-    </row>
-    <row r="109" spans="42:49">
+    </row>
+    <row r="109" spans="40:43">
+      <c r="AN109" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO109" s="10" t="s">
+        <v>2611</v>
+      </c>
       <c r="AP109" s="2">
         <v>106</v>
       </c>
       <c r="AQ109" s="4" t="s">
         <v>1800</v>
       </c>
-      <c r="AV109" s="2">
-        <v>106</v>
-      </c>
-      <c r="AW109" s="7" t="s">
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="110" spans="42:49">
+    </row>
+    <row r="110" spans="40:43">
+      <c r="AN110" s="2">
+        <v>107</v>
+      </c>
+      <c r="AO110" s="10" t="s">
+        <v>2610</v>
+      </c>
       <c r="AP110" s="2">
         <v>107</v>
       </c>
       <c r="AQ110" s="4" t="s">
         <v>1801</v>
       </c>
-      <c r="AV110" s="2">
-        <v>107</v>
-      </c>
-      <c r="AW110" s="7" t="s">
-        <v>2610</v>
-      </c>
-    </row>
-    <row r="111" spans="42:49">
+    </row>
+    <row r="111" spans="40:43">
+      <c r="AN111" s="2">
+        <v>108</v>
+      </c>
+      <c r="AO111" s="10" t="s">
+        <v>2609</v>
+      </c>
       <c r="AP111" s="2">
         <v>108</v>
       </c>
       <c r="AQ111" s="4" t="s">
         <v>1802</v>
       </c>
-      <c r="AV111" s="2">
-        <v>108</v>
-      </c>
-      <c r="AW111" s="7" t="s">
-        <v>2609</v>
-      </c>
-    </row>
-    <row r="112" spans="42:49">
+    </row>
+    <row r="112" spans="40:43">
+      <c r="AN112" s="2">
+        <v>109</v>
+      </c>
+      <c r="AO112" s="10" t="s">
+        <v>2608</v>
+      </c>
       <c r="AP112" s="2">
         <v>109</v>
       </c>
       <c r="AQ112" s="4" t="s">
         <v>1803</v>
       </c>
-      <c r="AV112" s="2">
-        <v>109</v>
-      </c>
-      <c r="AW112" s="7" t="s">
-        <v>2608</v>
-      </c>
-    </row>
-    <row r="113" spans="42:49">
+    </row>
+    <row r="113" spans="40:43">
+      <c r="AN113" s="2">
+        <v>110</v>
+      </c>
+      <c r="AO113" s="10" t="s">
+        <v>2607</v>
+      </c>
       <c r="AP113" s="2">
         <v>110</v>
       </c>
       <c r="AQ113" s="4" t="s">
         <v>1804</v>
       </c>
-      <c r="AV113" s="2">
-        <v>110</v>
-      </c>
-      <c r="AW113" s="7" t="s">
-        <v>2607</v>
-      </c>
-    </row>
-    <row r="114" spans="42:49">
+    </row>
+    <row r="114" spans="40:43">
+      <c r="AN114" s="2">
+        <v>111</v>
+      </c>
+      <c r="AO114" s="10" t="s">
+        <v>2606</v>
+      </c>
       <c r="AP114" s="2">
         <v>111</v>
       </c>
       <c r="AQ114" s="4" t="s">
         <v>1805</v>
       </c>
-      <c r="AV114" s="2">
-        <v>111</v>
-      </c>
-      <c r="AW114" s="7" t="s">
-        <v>2606</v>
-      </c>
-    </row>
-    <row r="115" spans="42:49">
+    </row>
+    <row r="115" spans="40:43">
+      <c r="AN115" s="2">
+        <v>112</v>
+      </c>
+      <c r="AO115" s="10" t="s">
+        <v>2605</v>
+      </c>
       <c r="AP115" s="2">
         <v>112</v>
       </c>
       <c r="AQ115" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="AV115" s="2">
-        <v>112</v>
-      </c>
-      <c r="AW115" s="7" t="s">
-        <v>2605</v>
-      </c>
-    </row>
-    <row r="116" spans="42:49">
+    </row>
+    <row r="116" spans="40:43">
+      <c r="AN116" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO116" s="10" t="s">
+        <v>2604</v>
+      </c>
       <c r="AP116" s="2">
         <v>113</v>
       </c>
       <c r="AQ116" s="4" t="s">
         <v>1806</v>
       </c>
-      <c r="AV116" s="2">
-        <v>113</v>
-      </c>
-      <c r="AW116" s="7" t="s">
-        <v>2604</v>
-      </c>
-    </row>
-    <row r="117" spans="42:49">
+    </row>
+    <row r="117" spans="40:43">
+      <c r="AN117" s="2">
+        <v>114</v>
+      </c>
+      <c r="AO117" s="10" t="s">
+        <v>2603</v>
+      </c>
       <c r="AP117" s="2">
         <v>114</v>
       </c>
       <c r="AQ117" s="4" t="s">
         <v>1806</v>
       </c>
-      <c r="AV117" s="2">
-        <v>114</v>
-      </c>
-      <c r="AW117" s="7" t="s">
-        <v>2603</v>
-      </c>
-    </row>
-    <row r="118" spans="42:49">
+    </row>
+    <row r="118" spans="40:43">
+      <c r="AN118" s="2">
+        <v>115</v>
+      </c>
+      <c r="AO118" s="10" t="s">
+        <v>2602</v>
+      </c>
       <c r="AP118" s="2">
         <v>115</v>
       </c>
       <c r="AQ118" s="4" t="s">
         <v>1807</v>
       </c>
-      <c r="AV118" s="2">
-        <v>115</v>
-      </c>
-      <c r="AW118" s="7" t="s">
-        <v>2602</v>
-      </c>
-    </row>
-    <row r="119" spans="42:49">
+    </row>
+    <row r="119" spans="40:43">
+      <c r="AN119" s="2">
+        <v>116</v>
+      </c>
+      <c r="AO119" s="10" t="s">
+        <v>2601</v>
+      </c>
       <c r="AP119" s="2">
         <v>116</v>
       </c>
       <c r="AQ119" s="4" t="s">
         <v>1808</v>
       </c>
-      <c r="AV119" s="2">
-        <v>116</v>
-      </c>
-      <c r="AW119" s="7" t="s">
-        <v>2601</v>
-      </c>
-    </row>
-    <row r="120" spans="42:49">
-      <c r="AP120" s="2">
+    </row>
+    <row r="120" spans="40:43">
+      <c r="AN120" s="2">
+        <v>117</v>
+      </c>
+      <c r="AO120" s="10" t="s">
+        <v>2600</v>
+      </c>
+      <c r="AP120" s="9">
         <v>117</v>
       </c>
       <c r="AQ120" s="4" t="s">
         <v>1809</v>
       </c>
-      <c r="AV120" s="2">
-        <v>117</v>
-      </c>
-      <c r="AW120" s="7" t="s">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="121" spans="42:49">
-      <c r="AP121" s="2">
+    </row>
+    <row r="121" spans="40:43">
+      <c r="AN121" s="2">
+        <v>118</v>
+      </c>
+      <c r="AO121" s="10" t="s">
+        <v>2599</v>
+      </c>
+      <c r="AP121" s="9">
         <v>118</v>
       </c>
       <c r="AQ121" s="4" t="s">
         <v>1810</v>
       </c>
-      <c r="AV121" s="2">
-        <v>118</v>
-      </c>
-      <c r="AW121" s="7" t="s">
-        <v>2599</v>
-      </c>
-    </row>
-    <row r="122" spans="42:49">
-      <c r="AP122" s="2">
+    </row>
+    <row r="122" spans="40:43">
+      <c r="AN122" s="2">
+        <v>119</v>
+      </c>
+      <c r="AO122" s="10" t="s">
+        <v>2598</v>
+      </c>
+      <c r="AP122" s="9">
         <v>119</v>
       </c>
       <c r="AQ122" s="4" t="s">
         <v>1811</v>
       </c>
-      <c r="AV122" s="2">
-        <v>119</v>
-      </c>
-      <c r="AW122" s="7" t="s">
-        <v>2598</v>
-      </c>
-    </row>
-    <row r="123" spans="42:49">
-      <c r="AP123" s="2">
+    </row>
+    <row r="123" spans="40:43">
+      <c r="AN123" s="2">
+        <v>120</v>
+      </c>
+      <c r="AO123" s="10" t="s">
+        <v>2597</v>
+      </c>
+      <c r="AP123" s="9">
         <v>120</v>
       </c>
       <c r="AQ123" s="4" t="s">
         <v>1812</v>
       </c>
-      <c r="AV123" s="2">
-        <v>120</v>
-      </c>
-      <c r="AW123" s="7" t="s">
-        <v>2597</v>
-      </c>
-    </row>
-    <row r="124" spans="42:49">
-      <c r="AP124" s="2">
+    </row>
+    <row r="124" spans="40:43">
+      <c r="AN124" s="2">
+        <v>121</v>
+      </c>
+      <c r="AO124" s="10" t="s">
+        <v>2596</v>
+      </c>
+      <c r="AP124" s="9">
         <v>121</v>
       </c>
       <c r="AQ124" s="4" t="s">
         <v>1813</v>
       </c>
-      <c r="AV124" s="2">
-        <v>121</v>
-      </c>
-      <c r="AW124" s="7" t="s">
-        <v>2596</v>
-      </c>
-    </row>
-    <row r="125" spans="42:49">
-      <c r="AP125" s="2">
+    </row>
+    <row r="125" spans="40:43">
+      <c r="AN125" s="2">
+        <v>122</v>
+      </c>
+      <c r="AO125" s="10" t="s">
+        <v>2595</v>
+      </c>
+      <c r="AP125" s="9">
         <v>122</v>
       </c>
       <c r="AQ125" s="4" t="s">
         <v>1814</v>
       </c>
-      <c r="AV125" s="2">
-        <v>122</v>
-      </c>
-      <c r="AW125" s="7" t="s">
-        <v>2595</v>
-      </c>
-    </row>
-    <row r="126" spans="42:49">
-      <c r="AP126" s="2">
+    </row>
+    <row r="126" spans="40:43">
+      <c r="AN126" s="2">
+        <v>123</v>
+      </c>
+      <c r="AO126" s="10" t="s">
+        <v>2594</v>
+      </c>
+      <c r="AP126" s="9">
         <v>123</v>
       </c>
       <c r="AQ126" s="4" t="s">
         <v>1814</v>
       </c>
-      <c r="AV126" s="2">
-        <v>123</v>
-      </c>
-      <c r="AW126" s="7" t="s">
-        <v>2594</v>
-      </c>
-    </row>
-    <row r="127" spans="42:49">
-      <c r="AP127" s="2">
+    </row>
+    <row r="127" spans="40:43">
+      <c r="AN127" s="2">
+        <v>124</v>
+      </c>
+      <c r="AO127" s="10" t="s">
+        <v>2593</v>
+      </c>
+      <c r="AP127" s="9">
         <v>124</v>
       </c>
       <c r="AQ127" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="AV127" s="2">
-        <v>124</v>
-      </c>
-      <c r="AW127" s="7" t="s">
-        <v>2593</v>
-      </c>
-    </row>
-    <row r="128" spans="42:49">
-      <c r="AP128" s="2">
+    </row>
+    <row r="128" spans="40:43">
+      <c r="AN128" s="2">
+        <v>125</v>
+      </c>
+      <c r="AO128" s="10" t="s">
+        <v>2592</v>
+      </c>
+      <c r="AP128" s="9">
         <v>125</v>
       </c>
       <c r="AQ128" s="4" t="s">
         <v>885</v>
       </c>
-      <c r="AV128" s="2">
-        <v>125</v>
-      </c>
-      <c r="AW128" s="7" t="s">
-        <v>2592</v>
-      </c>
-    </row>
-    <row r="129" spans="42:49">
-      <c r="AP129" s="2">
+    </row>
+    <row r="129" spans="40:43">
+      <c r="AN129" s="2">
+        <v>126</v>
+      </c>
+      <c r="AO129" s="10" t="s">
+        <v>2591</v>
+      </c>
+      <c r="AP129" s="9">
         <v>126</v>
       </c>
       <c r="AQ129" s="4" t="s">
         <v>1815</v>
       </c>
-      <c r="AV129" s="2">
-        <v>126</v>
-      </c>
-      <c r="AW129" s="7" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="130" spans="42:49">
-      <c r="AP130" s="2">
+    </row>
+    <row r="130" spans="40:43">
+      <c r="AN130" s="2">
+        <v>127</v>
+      </c>
+      <c r="AO130" s="10" t="s">
+        <v>2590</v>
+      </c>
+      <c r="AP130" s="9">
         <v>127</v>
       </c>
       <c r="AQ130" s="4" t="s">
         <v>1815</v>
       </c>
-      <c r="AV130" s="2">
-        <v>127</v>
-      </c>
-      <c r="AW130" s="7" t="s">
-        <v>2590</v>
-      </c>
-    </row>
-    <row r="131" spans="42:49">
-      <c r="AP131" s="2">
+    </row>
+    <row r="131" spans="40:43">
+      <c r="AN131" s="2">
+        <v>128</v>
+      </c>
+      <c r="AO131" s="10" t="s">
+        <v>2589</v>
+      </c>
+      <c r="AP131" s="9">
         <v>128</v>
       </c>
       <c r="AQ131" s="4" t="s">
         <v>1816</v>
       </c>
-      <c r="AV131" s="2">
-        <v>128</v>
-      </c>
-      <c r="AW131" s="7" t="s">
-        <v>2589</v>
-      </c>
-    </row>
-    <row r="132" spans="42:49">
-      <c r="AP132" s="2">
+    </row>
+    <row r="132" spans="40:43">
+      <c r="AN132" s="2">
+        <v>129</v>
+      </c>
+      <c r="AO132" s="10" t="s">
+        <v>2588</v>
+      </c>
+      <c r="AP132" s="9">
         <v>129</v>
       </c>
       <c r="AQ132" s="4" t="s">
         <v>1817</v>
       </c>
-      <c r="AV132" s="2">
-        <v>129</v>
-      </c>
-      <c r="AW132" s="7" t="s">
-        <v>2588</v>
-      </c>
-    </row>
-    <row r="133" spans="42:49">
-      <c r="AP133" s="2">
+    </row>
+    <row r="133" spans="40:43">
+      <c r="AN133" s="2">
+        <v>130</v>
+      </c>
+      <c r="AO133" s="10" t="s">
+        <v>2587</v>
+      </c>
+      <c r="AP133" s="9">
         <v>130</v>
       </c>
       <c r="AQ133" s="4" t="s">
         <v>1818</v>
       </c>
-      <c r="AV133" s="2">
-        <v>130</v>
-      </c>
-      <c r="AW133" s="7" t="s">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="134" spans="42:49">
-      <c r="AP134" s="2">
+    </row>
+    <row r="134" spans="40:43">
+      <c r="AN134" s="2">
+        <v>131</v>
+      </c>
+      <c r="AO134" s="10" t="s">
+        <v>2586</v>
+      </c>
+      <c r="AP134" s="9">
         <v>131</v>
       </c>
       <c r="AQ134" s="4" t="s">
         <v>1819</v>
       </c>
-      <c r="AV134" s="2">
-        <v>131</v>
-      </c>
-      <c r="AW134" s="7" t="s">
-        <v>2586</v>
-      </c>
-    </row>
-    <row r="135" spans="42:49">
-      <c r="AP135" s="2">
+    </row>
+    <row r="135" spans="40:43">
+      <c r="AN135" s="2">
+        <v>132</v>
+      </c>
+      <c r="AO135" s="10" t="s">
+        <v>2585</v>
+      </c>
+      <c r="AP135" s="9">
         <v>132</v>
       </c>
       <c r="AQ135" s="4" t="s">
         <v>1820</v>
       </c>
-      <c r="AV135" s="2">
-        <v>132</v>
-      </c>
-      <c r="AW135" s="7" t="s">
-        <v>2585</v>
-      </c>
-    </row>
-    <row r="136" spans="42:49">
-      <c r="AP136" s="2">
+    </row>
+    <row r="136" spans="40:43">
+      <c r="AN136" s="2">
+        <v>133</v>
+      </c>
+      <c r="AO136" s="10" t="s">
+        <v>2584</v>
+      </c>
+      <c r="AP136" s="9">
         <v>133</v>
       </c>
       <c r="AQ136" s="4" t="s">
         <v>1821</v>
       </c>
-      <c r="AV136" s="2">
-        <v>133</v>
-      </c>
-      <c r="AW136" s="7" t="s">
-        <v>2584</v>
-      </c>
-    </row>
-    <row r="137" spans="42:49">
-      <c r="AP137" s="2">
+    </row>
+    <row r="137" spans="40:43">
+      <c r="AN137" s="2">
+        <v>134</v>
+      </c>
+      <c r="AO137" s="10" t="s">
+        <v>2583</v>
+      </c>
+      <c r="AP137" s="9">
         <v>134</v>
       </c>
       <c r="AQ137" s="4" t="s">
         <v>1822</v>
       </c>
-      <c r="AV137" s="2">
-        <v>134</v>
-      </c>
-      <c r="AW137" s="7" t="s">
-        <v>2583</v>
-      </c>
-    </row>
-    <row r="138" spans="42:49">
-      <c r="AP138" s="2">
+    </row>
+    <row r="138" spans="40:43">
+      <c r="AN138" s="2">
+        <v>135</v>
+      </c>
+      <c r="AO138" s="10" t="s">
+        <v>2582</v>
+      </c>
+      <c r="AP138" s="9">
         <v>135</v>
       </c>
       <c r="AQ138" s="4" t="s">
         <v>1823</v>
       </c>
-      <c r="AV138" s="2">
-        <v>135</v>
-      </c>
-      <c r="AW138" s="7" t="s">
-        <v>2582</v>
-      </c>
-    </row>
-    <row r="139" spans="42:49">
-      <c r="AP139" s="2">
+    </row>
+    <row r="139" spans="40:43">
+      <c r="AN139" s="2">
+        <v>136</v>
+      </c>
+      <c r="AO139" s="10" t="s">
+        <v>2581</v>
+      </c>
+      <c r="AP139" s="9">
         <v>136</v>
       </c>
       <c r="AQ139" s="4" t="s">
         <v>1823</v>
       </c>
-      <c r="AV139" s="2">
-        <v>136</v>
-      </c>
-      <c r="AW139" s="7" t="s">
-        <v>2581</v>
-      </c>
-    </row>
-    <row r="140" spans="42:49">
-      <c r="AP140" s="2">
+    </row>
+    <row r="140" spans="40:43">
+      <c r="AN140" s="2">
+        <v>137</v>
+      </c>
+      <c r="AO140" s="10" t="s">
+        <v>2580</v>
+      </c>
+      <c r="AP140" s="9">
         <v>137</v>
       </c>
       <c r="AQ140" s="4" t="s">
         <v>1824</v>
       </c>
-      <c r="AV140" s="2">
-        <v>137</v>
-      </c>
-      <c r="AW140" s="7" t="s">
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="141" spans="42:49">
-      <c r="AV141" s="2">
+    </row>
+    <row r="141" spans="40:43">
+      <c r="AN141" s="2">
         <v>138</v>
       </c>
-      <c r="AW141" s="7" t="s">
+      <c r="AO141" s="10" t="s">
         <v>2499</v>
       </c>
     </row>
-    <row r="142" spans="42:49">
-      <c r="AV142" s="2">
+    <row r="142" spans="40:43">
+      <c r="AN142" s="2">
         <v>139</v>
       </c>
-      <c r="AW142" s="7" t="s">
+      <c r="AO142" s="10" t="s">
         <v>2579</v>
       </c>
     </row>
-    <row r="143" spans="42:49">
-      <c r="AV143" s="2">
+    <row r="143" spans="40:43">
+      <c r="AN143" s="2">
         <v>140</v>
       </c>
-      <c r="AW143" s="7" t="s">
+      <c r="AO143" s="10" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="144" spans="42:49">
-      <c r="AV144" s="2">
+    <row r="144" spans="40:43">
+      <c r="AN144" s="2">
         <v>141</v>
       </c>
-      <c r="AW144" s="7" t="s">
+      <c r="AO144" s="10" t="s">
         <v>2578</v>
       </c>
     </row>
-    <row r="145" spans="48:49">
-      <c r="AV145" s="2">
+    <row r="145" spans="40:41">
+      <c r="AN145" s="2">
         <v>142</v>
       </c>
-      <c r="AW145" s="7" t="s">
+      <c r="AO145" s="10" t="s">
         <v>2577</v>
       </c>
     </row>
-    <row r="146" spans="48:49">
-      <c r="AV146" s="2">
+    <row r="146" spans="40:41">
+      <c r="AN146" s="2">
         <v>143</v>
       </c>
-      <c r="AW146" s="7" t="s">
+      <c r="AO146" s="10" t="s">
         <v>2576</v>
       </c>
     </row>
-    <row r="147" spans="48:49">
-      <c r="AV147" s="2">
+    <row r="147" spans="40:41">
+      <c r="AN147" s="2">
         <v>144</v>
       </c>
-      <c r="AW147" s="7" t="s">
+      <c r="AO147" s="10" t="s">
         <v>2575</v>
       </c>
     </row>
-    <row r="148" spans="48:49">
-      <c r="AV148" s="2">
+    <row r="148" spans="40:41">
+      <c r="AN148" s="2">
         <v>145</v>
       </c>
-      <c r="AW148" s="7" t="s">
+      <c r="AO148" s="10" t="s">
         <v>2574</v>
       </c>
     </row>
-    <row r="149" spans="48:49">
-      <c r="AV149" s="2">
+    <row r="149" spans="40:41">
+      <c r="AN149" s="2">
         <v>146</v>
       </c>
-      <c r="AW149" s="7" t="s">
+      <c r="AO149" s="10" t="s">
         <v>2573</v>
       </c>
     </row>
-    <row r="150" spans="48:49">
-      <c r="AV150" s="2">
+    <row r="150" spans="40:41">
+      <c r="AN150" s="2">
         <v>147</v>
       </c>
-      <c r="AW150" s="7" t="s">
+      <c r="AO150" s="10" t="s">
         <v>2572</v>
       </c>
     </row>
-    <row r="151" spans="48:49">
-      <c r="AV151" s="2">
+    <row r="151" spans="40:41">
+      <c r="AN151" s="2">
         <v>148</v>
       </c>
-      <c r="AW151" s="7" t="s">
+      <c r="AO151" s="10" t="s">
         <v>2571</v>
       </c>
     </row>
-    <row r="152" spans="48:49">
-      <c r="AV152" s="2">
+    <row r="152" spans="40:41">
+      <c r="AN152" s="2">
         <v>149</v>
       </c>
-      <c r="AW152" s="7" t="s">
+      <c r="AO152" s="10" t="s">
         <v>2570</v>
       </c>
     </row>
-    <row r="153" spans="48:49">
-      <c r="AV153" s="2">
+    <row r="153" spans="40:41">
+      <c r="AN153" s="2">
         <v>150</v>
       </c>
-      <c r="AW153" s="7" t="s">
+      <c r="AO153" s="10" t="s">
         <v>2569</v>
       </c>
     </row>
-    <row r="154" spans="48:49">
-      <c r="AV154" s="2">
+    <row r="154" spans="40:41">
+      <c r="AN154" s="2">
         <v>151</v>
       </c>
-      <c r="AW154" s="7" t="s">
+      <c r="AO154" s="10" t="s">
         <v>2568</v>
       </c>
     </row>
-    <row r="155" spans="48:49">
-      <c r="AV155" s="2">
+    <row r="155" spans="40:41">
+      <c r="AN155" s="2">
         <v>152</v>
       </c>
-      <c r="AW155" s="7" t="s">
+      <c r="AO155" s="10" t="s">
         <v>2567</v>
       </c>
     </row>
-    <row r="156" spans="48:49">
-      <c r="AV156" s="2">
+    <row r="156" spans="40:41">
+      <c r="AN156" s="2">
         <v>153</v>
       </c>
-      <c r="AW156" s="7" t="s">
+      <c r="AO156" s="10" t="s">
         <v>2566</v>
       </c>
     </row>
-    <row r="157" spans="48:49">
-      <c r="AV157" s="2">
+    <row r="157" spans="40:41">
+      <c r="AN157" s="2">
         <v>154</v>
       </c>
-      <c r="AW157" s="7" t="s">
+      <c r="AO157" s="10" t="s">
         <v>2565</v>
       </c>
     </row>
-    <row r="158" spans="48:49">
-      <c r="AV158" s="2">
+    <row r="158" spans="40:41">
+      <c r="AN158" s="2">
         <v>155</v>
       </c>
-      <c r="AW158" s="7" t="s">
+      <c r="AO158" s="10" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="159" spans="48:49">
-      <c r="AV159" s="2">
+    <row r="159" spans="40:41">
+      <c r="AN159" s="2">
         <v>156</v>
       </c>
-      <c r="AW159" s="7" t="s">
+      <c r="AO159" s="10" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="160" spans="48:49">
-      <c r="AV160" s="2">
+    <row r="160" spans="40:41">
+      <c r="AN160" s="2">
         <v>157</v>
       </c>
-      <c r="AW160" s="7" t="s">
+      <c r="AO160" s="10" t="s">
         <v>2563</v>
       </c>
     </row>
-    <row r="161" spans="48:49">
-      <c r="AV161" s="2">
+    <row r="161" spans="40:42">
+      <c r="AN161" s="2">
         <v>158</v>
       </c>
-      <c r="AW161" s="7" t="s">
+      <c r="AO161" s="10" t="s">
         <v>2562</v>
       </c>
     </row>
-    <row r="162" spans="48:49">
-      <c r="AV162" s="2">
+    <row r="162" spans="40:42">
+      <c r="AN162" s="2">
         <v>159</v>
       </c>
-      <c r="AW162" s="7" t="s">
+      <c r="AO162" s="10" t="s">
         <v>2561</v>
       </c>
-    </row>
-    <row r="163" spans="48:49">
-      <c r="AV163" s="2">
+      <c r="AP162" s="9"/>
+    </row>
+    <row r="163" spans="40:42">
+      <c r="AN163" s="2">
         <v>160</v>
       </c>
-      <c r="AW163" s="7" t="s">
+      <c r="AO163" s="10" t="s">
         <v>2560</v>
       </c>
-    </row>
-    <row r="164" spans="48:49">
-      <c r="AV164" s="2">
+      <c r="AP163" s="9"/>
+    </row>
+    <row r="164" spans="40:42">
+      <c r="AN164" s="2">
         <v>161</v>
       </c>
-      <c r="AW164" s="7" t="s">
+      <c r="AO164" s="10" t="s">
         <v>2559</v>
       </c>
-    </row>
-    <row r="165" spans="48:49">
-      <c r="AV165" s="2">
+      <c r="AP164" s="9"/>
+    </row>
+    <row r="165" spans="40:42">
+      <c r="AN165" s="2">
         <v>162</v>
       </c>
-      <c r="AW165" s="7" t="s">
+      <c r="AO165" s="10" t="s">
         <v>2558</v>
       </c>
-    </row>
-    <row r="166" spans="48:49">
-      <c r="AV166" s="2">
+      <c r="AP165" s="9"/>
+    </row>
+    <row r="166" spans="40:42">
+      <c r="AN166" s="2">
         <v>163</v>
       </c>
-      <c r="AW166" s="7" t="s">
+      <c r="AO166" s="10" t="s">
         <v>2557</v>
       </c>
-    </row>
-    <row r="167" spans="48:49">
-      <c r="AV167" s="2">
+      <c r="AP166" s="9"/>
+    </row>
+    <row r="167" spans="40:42">
+      <c r="AN167" s="2">
         <v>164</v>
       </c>
-      <c r="AW167" s="7" t="s">
+      <c r="AO167" s="10" t="s">
         <v>2556</v>
       </c>
-    </row>
-    <row r="168" spans="48:49">
-      <c r="AV168" s="2">
+      <c r="AP167" s="9"/>
+    </row>
+    <row r="168" spans="40:42">
+      <c r="AN168" s="2">
         <v>165</v>
       </c>
-      <c r="AW168" s="7" t="s">
+      <c r="AO168" s="10" t="s">
         <v>2555</v>
       </c>
-    </row>
-    <row r="169" spans="48:49">
-      <c r="AV169" s="2">
+      <c r="AP168" s="9"/>
+    </row>
+    <row r="169" spans="40:42">
+      <c r="AN169" s="2">
         <v>166</v>
       </c>
-      <c r="AW169" s="7" t="s">
+      <c r="AO169" s="10" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="170" spans="48:49">
-      <c r="AV170" s="2">
+      <c r="AP169" s="9"/>
+    </row>
+    <row r="170" spans="40:42">
+      <c r="AN170" s="2">
         <v>167</v>
       </c>
-      <c r="AW170" s="7" t="s">
+      <c r="AO170" s="10" t="s">
         <v>2553</v>
       </c>
-    </row>
-    <row r="171" spans="48:49">
-      <c r="AV171" s="2">
+      <c r="AP170" s="9"/>
+    </row>
+    <row r="171" spans="40:42">
+      <c r="AN171" s="2">
         <v>168</v>
       </c>
-      <c r="AW171" s="7" t="s">
+      <c r="AO171" s="10" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="172" spans="48:49">
-      <c r="AV172" s="2">
+      <c r="AP171" s="9"/>
+    </row>
+    <row r="172" spans="40:42">
+      <c r="AN172" s="2">
         <v>169</v>
       </c>
-      <c r="AW172" s="7" t="s">
+      <c r="AO172" s="10" t="s">
         <v>2552</v>
       </c>
-    </row>
-    <row r="173" spans="48:49">
-      <c r="AV173" s="2">
+      <c r="AP172" s="9"/>
+    </row>
+    <row r="173" spans="40:42">
+      <c r="AN173" s="2">
         <v>170</v>
       </c>
-      <c r="AW173" s="7" t="s">
+      <c r="AO173" s="10" t="s">
         <v>2551</v>
       </c>
-    </row>
-    <row r="174" spans="48:49">
-      <c r="AV174" s="2">
+      <c r="AP173" s="9"/>
+    </row>
+    <row r="174" spans="40:42">
+      <c r="AN174" s="2">
         <v>171</v>
       </c>
-      <c r="AW174" s="7" t="s">
+      <c r="AO174" s="10" t="s">
         <v>2550</v>
       </c>
-    </row>
-    <row r="175" spans="48:49">
-      <c r="AV175" s="2">
+      <c r="AP174" s="9"/>
+    </row>
+    <row r="175" spans="40:42">
+      <c r="AN175" s="2">
         <v>172</v>
       </c>
-      <c r="AW175" s="7" t="s">
+      <c r="AO175" s="10" t="s">
         <v>2549</v>
       </c>
-    </row>
-    <row r="176" spans="48:49">
-      <c r="AV176" s="2">
+      <c r="AP175" s="9"/>
+    </row>
+    <row r="176" spans="40:42">
+      <c r="AN176" s="2">
         <v>173</v>
       </c>
-      <c r="AW176" s="7" t="s">
+      <c r="AO176" s="10" t="s">
         <v>2548</v>
       </c>
+      <c r="AP176" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/3-JavaScript/Dars/JS_KORIN.xlsx
+++ b/3-JavaScript/Dars/JS_KORIN.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5227" uniqueCount="3070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5228" uniqueCount="3071">
   <si>
     <t>№</t>
   </si>
@@ -9316,6 +9316,9 @@
   </si>
   <si>
     <t>yopiq()</t>
+  </si>
+  <si>
+    <t>src</t>
   </si>
 </sst>
 </file>
@@ -9511,6 +9514,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9538,9 +9544,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -24303,7 +24306,7 @@
   <dimension ref="A1:BB176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM6" sqref="AM6"/>
+      <selection activeCell="AM21" sqref="AM21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
@@ -24365,67 +24368,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="26.25">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>2776</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="20"/>
       <c r="Z1" s="8"/>
-      <c r="AA1" s="18" t="s">
+      <c r="AA1" s="21" t="s">
         <v>2775</v>
       </c>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="18"/>
-      <c r="AI1" s="19"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="22"/>
       <c r="AJ1" s="13"/>
-      <c r="AK1" s="20" t="s">
+      <c r="AK1" s="23" t="s">
         <v>2774</v>
       </c>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="22" t="s">
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="25" t="s">
         <v>2773</v>
       </c>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
+      <c r="AY1" s="26"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="27"/>
+      <c r="BB1" s="27"/>
     </row>
     <row r="3" spans="1:54" s="3" customFormat="1" ht="26.25">
       <c r="A3" s="3" t="s">
@@ -24572,7 +24575,7 @@
       <c r="AV3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AW3" s="25" t="s">
+      <c r="AW3" s="16" t="s">
         <v>1665</v>
       </c>
       <c r="AX3" s="3" t="s">
@@ -24733,7 +24736,7 @@
       <c r="AV4" s="2">
         <v>1</v>
       </c>
-      <c r="AW4" s="26" t="s">
+      <c r="AW4" s="17" t="s">
         <v>1666</v>
       </c>
       <c r="AY4" s="2">
@@ -24891,7 +24894,7 @@
       <c r="AV5" s="2">
         <v>2</v>
       </c>
-      <c r="AW5" s="26" t="s">
+      <c r="AW5" s="17" t="s">
         <v>1667</v>
       </c>
       <c r="AY5" s="2">
@@ -25002,13 +25005,13 @@
       <c r="AJ6" s="9">
         <v>3</v>
       </c>
-      <c r="AK6" s="27" t="s">
+      <c r="AK6" s="18" t="s">
         <v>870</v>
       </c>
       <c r="AL6" s="2">
         <v>3</v>
       </c>
-      <c r="AM6" s="4" t="s">
+      <c r="AM6" s="15" t="s">
         <v>1381</v>
       </c>
       <c r="AN6" s="2">
@@ -25038,7 +25041,7 @@
       <c r="AV6" s="2">
         <v>3</v>
       </c>
-      <c r="AW6" s="26" t="s">
+      <c r="AW6" s="17" t="s">
         <v>1668</v>
       </c>
       <c r="AY6" s="2">
@@ -25149,14 +25152,14 @@
       <c r="AJ7" s="9">
         <v>4</v>
       </c>
-      <c r="AK7" s="27" t="s">
+      <c r="AK7" s="18" t="s">
         <v>851</v>
       </c>
       <c r="AL7" s="2">
         <v>4</v>
       </c>
-      <c r="AM7" s="4" t="s">
-        <v>1354</v>
+      <c r="AM7" s="15" t="s">
+        <v>3070</v>
       </c>
       <c r="AN7" s="2">
         <v>4</v>
@@ -25179,7 +25182,7 @@
       <c r="AV7" s="2">
         <v>4</v>
       </c>
-      <c r="AW7" s="26" t="s">
+      <c r="AW7" s="17" t="s">
         <v>19</v>
       </c>
       <c r="BA7" s="2">
@@ -25273,7 +25276,7 @@
         <v>5</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>1155</v>
+        <v>1354</v>
       </c>
       <c r="AN8" s="2">
         <v>5</v>
@@ -25296,7 +25299,7 @@
       <c r="AV8" s="2">
         <v>5</v>
       </c>
-      <c r="AW8" s="26" t="s">
+      <c r="AW8" s="17" t="s">
         <v>728</v>
       </c>
       <c r="BA8" s="2">
@@ -25390,7 +25393,7 @@
         <v>6</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>1357</v>
+        <v>1155</v>
       </c>
       <c r="AN9" s="2">
         <v>6</v>
@@ -25413,7 +25416,7 @@
       <c r="AV9" s="2">
         <v>6</v>
       </c>
-      <c r="AW9" s="26" t="s">
+      <c r="AW9" s="17" t="s">
         <v>1669</v>
       </c>
       <c r="BA9" s="2">
@@ -25525,7 +25528,7 @@
       <c r="AV10" s="2">
         <v>7</v>
       </c>
-      <c r="AW10" s="26" t="s">
+      <c r="AW10" s="17" t="s">
         <v>1670</v>
       </c>
     </row>
@@ -25631,7 +25634,7 @@
       <c r="AV11" s="2">
         <v>8</v>
       </c>
-      <c r="AW11" s="26" t="s">
+      <c r="AW11" s="17" t="s">
         <v>1671</v>
       </c>
     </row>
@@ -25737,7 +25740,7 @@
       <c r="AV12" s="2">
         <v>9</v>
       </c>
-      <c r="AW12" s="26" t="s">
+      <c r="AW12" s="17" t="s">
         <v>1672</v>
       </c>
     </row>
@@ -29124,6 +29127,12 @@
       </c>
     </row>
     <row r="92" spans="38:43">
+      <c r="AL92" s="2">
+        <v>89</v>
+      </c>
+      <c r="AM92" s="4" t="s">
+        <v>1357</v>
+      </c>
       <c r="AN92" s="2">
         <v>89</v>
       </c>

--- a/3-JavaScript/Dars/JS_KORIN.xlsx
+++ b/3-JavaScript/Dars/JS_KORIN.xlsx
@@ -24305,8 +24305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BB176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AM21" sqref="AM21"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
@@ -24658,8 +24658,8 @@
       <c r="V4" s="2">
         <v>1</v>
       </c>
-      <c r="W4" s="4" t="s">
-        <v>786</v>
+      <c r="W4" s="15" t="s">
+        <v>797</v>
       </c>
       <c r="X4" s="2">
         <v>1</v>
@@ -24816,8 +24816,8 @@
       <c r="V5" s="2">
         <v>2</v>
       </c>
-      <c r="W5" s="4" t="s">
-        <v>787</v>
+      <c r="W5" s="15" t="s">
+        <v>793</v>
       </c>
       <c r="X5" s="2">
         <v>2</v>
@@ -24969,7 +24969,7 @@
       <c r="V6" s="2">
         <v>3</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="W6" s="15" t="s">
         <v>788</v>
       </c>
       <c r="Z6" s="9">
@@ -25992,7 +25992,7 @@
         <v>12</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="Z15" s="9">
         <v>12</v>
@@ -26434,7 +26434,7 @@
         <v>17</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="Z20" s="9">
         <v>17</v>
@@ -27225,7 +27225,7 @@
       <c r="AJ32" s="9">
         <v>29</v>
       </c>
-      <c r="AK32" s="4" t="s">
+      <c r="AK32" s="15" t="s">
         <v>1181</v>
       </c>
       <c r="AL32" s="2">

--- a/3-JavaScript/Dars/JS_KORIN.xlsx
+++ b/3-JavaScript/Dars/JS_KORIN.xlsx
@@ -9594,7 +9594,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9636,7 +9636,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9678,7 +9678,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9720,7 +9720,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9762,7 +9762,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9804,7 +9804,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9846,7 +9846,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -24306,7 +24306,7 @@
   <dimension ref="A1:BB176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>

--- a/3-JavaScript/Dars/JS_KORIN.xlsx
+++ b/3-JavaScript/Dars/JS_KORIN.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5228" uniqueCount="3071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5246" uniqueCount="3071">
   <si>
     <t>№</t>
   </si>
@@ -8360,23 +8360,6 @@
   </si>
   <si>
     <t>Operators</t>
-  </si>
-  <si>
-    <r>
-      <t>Umumiy veb-APIlar,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Общие веб-API с примерами:)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -9319,6 +9302,23 @@
   </si>
   <si>
     <t>src</t>
+  </si>
+  <si>
+    <r>
+      <t>Umumiy veb-APIlar,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="2" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Общие веб-API :)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -9489,7 +9489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9517,6 +9517,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9535,13 +9538,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10192,10 +10189,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -10212,7 +10209,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -10232,10 +10229,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
@@ -10252,10 +10249,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="C7" s="2">
         <v>5</v>
@@ -10272,10 +10269,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
@@ -10295,7 +10292,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="C9" s="2">
         <v>7</v>
@@ -10312,10 +10309,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="C10" s="2">
         <v>8</v>
@@ -10372,10 +10369,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="C13" s="2">
         <v>11</v>
@@ -10392,10 +10389,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="C14" s="2">
         <v>12</v>
@@ -10452,10 +10449,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="C17" s="2">
         <v>15</v>
@@ -10472,10 +10469,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="C18" s="2">
         <v>16</v>
@@ -10532,7 +10529,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
@@ -10572,7 +10569,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
@@ -10592,7 +10589,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
@@ -10612,10 +10609,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="C25" s="2">
         <v>23</v>
@@ -10652,10 +10649,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="C27" s="2">
         <v>25</v>
@@ -10675,7 +10672,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="C28" s="2">
         <v>26</v>
@@ -10692,10 +10689,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="C29" s="2">
         <v>27</v>
@@ -10712,10 +10709,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="C30" s="2">
         <v>28</v>
@@ -10732,10 +10729,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="C31" s="2">
         <v>29</v>
@@ -10755,7 +10752,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="C32" s="2">
         <v>30</v>
@@ -10795,7 +10792,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="C34" s="2">
         <v>32</v>
@@ -10815,7 +10812,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="C35" s="2">
         <v>33</v>
@@ -10863,10 +10860,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -10883,10 +10880,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -10994,10 +10991,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -11014,10 +11011,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -11054,10 +11051,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -11077,7 +11074,7 @@
         <v>790</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="C8" s="2">
         <v>5</v>
@@ -11094,10 +11091,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="C9" s="2">
         <v>6</v>
@@ -11114,10 +11111,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="C10" s="2">
         <v>7</v>
@@ -11134,10 +11131,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="C11" s="2">
         <v>8</v>
@@ -11154,10 +11151,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="C12" s="2">
         <v>9</v>
@@ -11174,10 +11171,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
@@ -11194,10 +11191,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="C14" s="2">
         <v>11</v>
@@ -11214,10 +11211,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="C15" s="2">
         <v>12</v>
@@ -11234,10 +11231,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="C16" s="2">
         <v>13</v>
@@ -11254,7 +11251,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>2248</v>
@@ -11274,10 +11271,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="C18" s="2">
         <v>15</v>
@@ -11294,10 +11291,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="C19" s="2">
         <v>16</v>
@@ -11334,10 +11331,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="C21" s="2">
         <v>18</v>
@@ -11389,10 +11386,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -11465,10 +11462,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
@@ -11485,10 +11482,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="C5" s="9">
         <v>2</v>
@@ -11505,10 +11502,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="C6" s="9">
         <v>3</v>
@@ -11522,7 +11519,7 @@
         <v>855</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
@@ -11539,10 +11536,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="C8" s="9">
         <v>5</v>
@@ -11559,10 +11556,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="C9" s="9">
         <v>6</v>
@@ -11576,7 +11573,7 @@
         <v>858</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="C10" s="9">
         <v>7</v>
@@ -11593,10 +11590,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="C11" s="9">
         <v>8</v>
@@ -11613,10 +11610,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="C12" s="9">
         <v>9</v>
@@ -11633,10 +11630,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C13" s="9">
         <v>10</v>
@@ -11650,7 +11647,7 @@
         <v>862</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="C14" s="9">
         <v>11</v>
@@ -11667,10 +11664,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="C15" s="9">
         <v>12</v>
@@ -11710,7 +11707,7 @@
         <v>864</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C17" s="9">
         <v>14</v>
@@ -11747,10 +11744,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="C19" s="9">
         <v>16</v>
@@ -11784,7 +11781,7 @@
         <v>869</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="C21" s="9">
         <v>18</v>
@@ -11801,10 +11798,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="C22" s="9">
         <v>19</v>
@@ -11815,10 +11812,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="C23" s="9">
         <v>20</v>
@@ -11838,7 +11835,7 @@
         <v>872</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="C24" s="9">
         <v>21</v>
@@ -11855,10 +11852,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="C25" s="9">
         <v>22</v>
@@ -11915,10 +11912,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="C28" s="9">
         <v>25</v>
@@ -11935,10 +11932,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="C29" s="9">
         <v>26</v>
@@ -11955,10 +11952,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="C30" s="9">
         <v>27</v>
@@ -11972,7 +11969,7 @@
         <v>882</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="C31" s="9">
         <v>28</v>
@@ -11992,7 +11989,7 @@
         <v>883</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="C32" s="9">
         <v>29</v>
@@ -12052,7 +12049,7 @@
         <v>890</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="C35" s="9">
         <v>32</v>
@@ -12109,10 +12106,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="C38" s="9">
         <v>35</v>
@@ -12129,10 +12126,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="C39" s="9">
         <v>36</v>
@@ -12149,10 +12146,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="C40" s="9">
         <v>37</v>
@@ -12172,7 +12169,7 @@
         <v>845</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="C42" s="9">
         <v>1</v>
@@ -12212,7 +12209,7 @@
         <v>847</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="C44" s="9">
         <v>3</v>
@@ -12309,10 +12306,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="C49" s="9">
         <v>8</v>
@@ -12369,10 +12366,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="C52" s="9">
         <v>11</v>
@@ -12392,7 +12389,7 @@
         <v>866</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="C53" s="9">
         <v>12</v>
@@ -12412,7 +12409,7 @@
         <v>867</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="C54" s="9">
         <v>13</v>
@@ -12429,7 +12426,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>868</v>
@@ -12469,10 +12466,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="C57" s="9">
         <v>16</v>
@@ -12492,7 +12489,7 @@
         <v>878</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="C58" s="9">
         <v>17</v>
@@ -12532,7 +12529,7 @@
         <v>879</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="C60" s="9">
         <v>19</v>
@@ -12552,7 +12549,7 @@
         <v>880</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="C61" s="9">
         <v>20</v>
@@ -12569,10 +12566,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="C62" s="9">
         <v>21</v>
@@ -12592,7 +12589,7 @@
         <v>886</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="C63" s="9">
         <v>22</v>
@@ -12669,10 +12666,10 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="C67" s="9">
         <v>26</v>
@@ -12726,10 +12723,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -12746,10 +12743,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -12766,10 +12763,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -12839,7 +12836,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1052</v>
@@ -12859,7 +12856,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1054</v>
@@ -12879,7 +12876,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1056</v>
@@ -12919,7 +12916,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1059</v>
@@ -12939,7 +12936,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1061</v>
@@ -12979,7 +12976,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1065</v>
@@ -13019,7 +13016,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1069</v>
@@ -13039,7 +13036,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1071</v>
@@ -13059,7 +13056,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1073</v>
@@ -14243,7 +14240,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1289</v>
@@ -15197,7 +15194,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>102</v>
@@ -15257,10 +15254,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
@@ -15297,10 +15294,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
@@ -15377,10 +15374,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="C12" s="2">
         <v>10</v>
@@ -15397,10 +15394,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="C13" s="2">
         <v>11</v>
@@ -15417,7 +15414,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1073</v>
@@ -15437,10 +15434,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="C15" s="2">
         <v>13</v>
@@ -15457,10 +15454,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="C16" s="2">
         <v>14</v>
@@ -15477,10 +15474,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="C17" s="2">
         <v>15</v>
@@ -15497,10 +15494,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="C18" s="2">
         <v>16</v>
@@ -15537,10 +15534,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="C20" s="2">
         <v>18</v>
@@ -15557,7 +15554,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>116</v>
@@ -15597,7 +15594,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>118</v>
@@ -15640,7 +15637,7 @@
         <v>119</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="C25" s="2">
         <v>23</v>
@@ -15657,10 +15654,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="C26" s="2">
         <v>24</v>
@@ -15708,10 +15705,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -15748,10 +15745,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="C32" s="2">
         <v>3</v>
@@ -15771,10 +15768,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -15791,7 +15788,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>196</v>
@@ -15814,7 +15811,7 @@
         <v>151</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -15831,10 +15828,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="C38" s="2">
         <v>4</v>
@@ -15851,10 +15848,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="C39" s="2">
         <v>5</v>
@@ -15894,7 +15891,7 @@
         <v>157</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="C41" s="2">
         <v>7</v>
@@ -15911,10 +15908,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="C42" s="2">
         <v>8</v>
@@ -15931,10 +15928,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="C43" s="2">
         <v>9</v>
@@ -15951,7 +15948,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>205</v>
@@ -15971,7 +15968,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>207</v>
@@ -15994,7 +15991,7 @@
         <v>163</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="C46" s="2">
         <v>12</v>
@@ -24303,10 +24300,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB176"/>
+  <dimension ref="A1:BC176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AY10" sqref="AY10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
@@ -24359,78 +24356,80 @@
     <col min="47" max="47" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="40" style="5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="32.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="9.140625" style="2"/>
+    <col min="50" max="50" width="5.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.7109375" style="2" customWidth="1"/>
+    <col min="52" max="52" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="32.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="26.25">
-      <c r="B1" s="19" t="s">
-        <v>2776</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="20"/>
+    <row r="1" spans="1:55" ht="26.25">
+      <c r="B1" s="20" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="21"/>
       <c r="Z1" s="8"/>
-      <c r="AA1" s="21" t="s">
-        <v>2775</v>
-      </c>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="22"/>
+      <c r="AA1" s="22" t="s">
+        <v>2774</v>
+      </c>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="23"/>
       <c r="AJ1" s="13"/>
-      <c r="AK1" s="23" t="s">
-        <v>2774</v>
-      </c>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="23"/>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="25" t="s">
+      <c r="AK1" s="24" t="s">
         <v>2773</v>
       </c>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="27"/>
-      <c r="BB1" s="27"/>
-    </row>
-    <row r="3" spans="1:54" s="3" customFormat="1" ht="26.25">
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="19"/>
+      <c r="AY1" s="26" t="s">
+        <v>3070</v>
+      </c>
+      <c r="AZ1" s="26"/>
+      <c r="BA1" s="26"/>
+      <c r="BB1" s="26"/>
+      <c r="BC1" s="26"/>
+    </row>
+    <row r="3" spans="1:55" s="3" customFormat="1" ht="26.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -24579,22 +24578,25 @@
         <v>1665</v>
       </c>
       <c r="AX3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="3" t="s">
         <v>2430</v>
       </c>
-      <c r="AY3" s="3" t="s">
+      <c r="AZ3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AZ3" s="3" t="s">
+      <c r="BA3" s="3" t="s">
         <v>2496</v>
       </c>
-      <c r="BA3" s="3" t="s">
+      <c r="BB3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BB3" s="3" t="s">
+      <c r="BC3" s="3" t="s">
         <v>2526</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:55">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -24739,20 +24741,26 @@
       <c r="AW4" s="17" t="s">
         <v>1666</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="AX4" s="2">
         <v>1</v>
       </c>
-      <c r="AZ4" s="4" t="s">
+      <c r="AY4" s="4" t="s">
+        <v>2439</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="4" t="s">
         <v>2497</v>
       </c>
-      <c r="BA4" s="2">
+      <c r="BB4" s="2">
         <v>1</v>
       </c>
-      <c r="BB4" s="4" t="s">
+      <c r="BC4" s="4" t="s">
         <v>2432</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:55">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -24897,20 +24905,26 @@
       <c r="AW5" s="17" t="s">
         <v>1667</v>
       </c>
-      <c r="AY5" s="2">
+      <c r="AX5" s="2">
         <v>2</v>
       </c>
-      <c r="AZ5" s="4" t="s">
+      <c r="AY5" s="4" t="s">
+        <v>2432</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA5" s="4" t="s">
         <v>2498</v>
       </c>
-      <c r="BA5" s="2">
+      <c r="BB5" s="2">
         <v>2</v>
       </c>
-      <c r="BB5" s="4" t="s">
+      <c r="BC5" s="4" t="s">
         <v>2527</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:55">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -25044,20 +25058,26 @@
       <c r="AW6" s="17" t="s">
         <v>1668</v>
       </c>
-      <c r="AY6" s="2">
+      <c r="AX6" s="2">
         <v>3</v>
       </c>
-      <c r="AZ6" s="4" t="s">
+      <c r="AY6" s="4" t="s">
+        <v>2433</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>3</v>
+      </c>
+      <c r="BA6" s="4" t="s">
         <v>2499</v>
       </c>
-      <c r="BA6" s="2">
+      <c r="BB6" s="2">
         <v>3</v>
       </c>
-      <c r="BB6" s="4" t="s">
+      <c r="BC6" s="4" t="s">
         <v>2528</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:55">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -25116,8 +25136,8 @@
       <c r="V7" s="2">
         <v>4</v>
       </c>
-      <c r="W7" s="4" t="s">
-        <v>789</v>
+      <c r="W7" s="15" t="s">
+        <v>792</v>
       </c>
       <c r="Z7" s="9">
         <v>4</v>
@@ -25159,7 +25179,7 @@
         <v>4</v>
       </c>
       <c r="AM7" s="15" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="AN7" s="2">
         <v>4</v>
@@ -25185,14 +25205,20 @@
       <c r="AW7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="BA7" s="2">
+      <c r="AX7" s="2">
         <v>4</v>
       </c>
-      <c r="BB7" s="4" t="s">
+      <c r="AY7" s="4" t="s">
+        <v>2431</v>
+      </c>
+      <c r="BB7" s="2">
+        <v>4</v>
+      </c>
+      <c r="BC7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:55">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -25302,14 +25328,20 @@
       <c r="AW8" s="17" t="s">
         <v>728</v>
       </c>
-      <c r="BA8" s="2">
+      <c r="AX8" s="2">
         <v>5</v>
       </c>
-      <c r="BB8" s="4" t="s">
+      <c r="AY8" s="4" t="s">
+        <v>2432</v>
+      </c>
+      <c r="BB8" s="2">
+        <v>5</v>
+      </c>
+      <c r="BC8" s="4" t="s">
         <v>2529</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:55">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -25419,14 +25451,20 @@
       <c r="AW9" s="17" t="s">
         <v>1669</v>
       </c>
-      <c r="BA9" s="2">
+      <c r="AX9" s="2">
         <v>6</v>
       </c>
-      <c r="BB9" s="4" t="s">
+      <c r="AY9" s="4" t="s">
+        <v>2433</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>6</v>
+      </c>
+      <c r="BC9" s="4" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:55">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -25531,8 +25569,14 @@
       <c r="AW10" s="17" t="s">
         <v>1670</v>
       </c>
-    </row>
-    <row r="11" spans="1:54">
+      <c r="AX10" s="2">
+        <v>7</v>
+      </c>
+      <c r="AY10" s="4" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -25637,8 +25681,14 @@
       <c r="AW11" s="17" t="s">
         <v>1671</v>
       </c>
-    </row>
-    <row r="12" spans="1:54">
+      <c r="AX11" s="2">
+        <v>8</v>
+      </c>
+      <c r="AY11" s="4" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -25743,8 +25793,14 @@
       <c r="AW12" s="17" t="s">
         <v>1672</v>
       </c>
-    </row>
-    <row r="13" spans="1:54">
+      <c r="AX12" s="2">
+        <v>9</v>
+      </c>
+      <c r="AY12" s="4" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -25792,7 +25848,7 @@
         <v>10</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="Z13" s="9">
         <v>10</v>
@@ -25843,8 +25899,14 @@
       <c r="AS13" s="4" t="s">
         <v>1839</v>
       </c>
-    </row>
-    <row r="14" spans="1:54">
+      <c r="AX13" s="2">
+        <v>10</v>
+      </c>
+      <c r="AY13" s="4" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -25943,8 +26005,14 @@
       <c r="AS14" s="4" t="s">
         <v>1841</v>
       </c>
-    </row>
-    <row r="15" spans="1:54">
+      <c r="AX14" s="2">
+        <v>11</v>
+      </c>
+      <c r="AY14" s="4" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -26043,8 +26111,14 @@
       <c r="AS15" s="4" t="s">
         <v>1836</v>
       </c>
-    </row>
-    <row r="16" spans="1:54">
+      <c r="AX15" s="2">
+        <v>12</v>
+      </c>
+      <c r="AY15" s="4" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -26130,8 +26204,14 @@
       <c r="AS16" s="4" t="s">
         <v>1843</v>
       </c>
-    </row>
-    <row r="17" spans="1:45">
+      <c r="AX16" s="2">
+        <v>13</v>
+      </c>
+      <c r="AY16" s="4" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -26217,8 +26297,14 @@
       <c r="AS17" s="4" t="s">
         <v>1844</v>
       </c>
-    </row>
-    <row r="18" spans="1:45">
+      <c r="AX17" s="2">
+        <v>14</v>
+      </c>
+      <c r="AY17" s="4" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -26304,8 +26390,14 @@
       <c r="AS18" s="4" t="s">
         <v>1845</v>
       </c>
-    </row>
-    <row r="19" spans="1:45">
+      <c r="AX18" s="2">
+        <v>15</v>
+      </c>
+      <c r="AY18" s="4" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -26391,8 +26483,14 @@
       <c r="AS19" s="4" t="s">
         <v>1855</v>
       </c>
-    </row>
-    <row r="20" spans="1:45">
+      <c r="AX19" s="2">
+        <v>16</v>
+      </c>
+      <c r="AY19" s="4" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -26472,8 +26570,14 @@
       <c r="AS20" s="4" t="s">
         <v>1838</v>
       </c>
-    </row>
-    <row r="21" spans="1:45">
+      <c r="AX20" s="2">
+        <v>17</v>
+      </c>
+      <c r="AY20" s="4" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -26543,7 +26647,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:51">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -26607,7 +26711,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:51">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -26671,7 +26775,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:51">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -26735,7 +26839,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:51">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -26799,7 +26903,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="26" spans="1:45">
+    <row r="26" spans="1:51">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -26863,7 +26967,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="27" spans="1:45">
+    <row r="27" spans="1:51">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -26927,7 +27031,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="28" spans="1:45">
+    <row r="28" spans="1:51">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -26991,7 +27095,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="29" spans="1:45">
+    <row r="29" spans="1:51">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -27055,7 +27159,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="30" spans="1:45">
+    <row r="30" spans="1:51">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -27119,7 +27223,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="31" spans="1:45">
+    <row r="31" spans="1:51">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -27183,7 +27287,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="32" spans="1:45">
+    <row r="32" spans="1:51">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -30126,7 +30230,7 @@
     <mergeCell ref="B1:Y1"/>
     <mergeCell ref="AA1:AI1"/>
     <mergeCell ref="AK1:AW1"/>
-    <mergeCell ref="AX1:BB1"/>
+    <mergeCell ref="AY1:BC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30264,7 +30368,7 @@
         <v>228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="C9" s="2">
         <v>6</v>
@@ -30281,7 +30385,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>226</v>
@@ -30304,7 +30408,7 @@
         <v>229</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="C11" s="2">
         <v>8</v>
@@ -30361,10 +30465,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -30381,7 +30485,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>221</v>
@@ -30481,10 +30585,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="C23" s="2">
         <v>7</v>
@@ -30533,7 +30637,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>272</v>
@@ -30593,7 +30697,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>275</v>
@@ -30633,7 +30737,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>277</v>
@@ -30653,7 +30757,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>278</v>
@@ -30673,7 +30777,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>279</v>
@@ -30693,7 +30797,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>280</v>
@@ -30813,7 +30917,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>285</v>
@@ -30833,7 +30937,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>286</v>
@@ -30853,10 +30957,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="C19" s="2">
         <v>17</v>
@@ -30876,7 +30980,7 @@
         <v>288</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="C20" s="2">
         <v>18</v>
@@ -30893,7 +30997,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>264</v>
@@ -30913,7 +31017,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>265</v>
@@ -30933,7 +31037,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>289</v>
@@ -30953,7 +31057,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>290</v>
@@ -30993,7 +31097,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>291</v>
@@ -31013,7 +31117,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>292</v>
@@ -31053,7 +31157,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>293</v>
@@ -31113,7 +31217,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>295</v>
@@ -31133,10 +31237,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="C33" s="2">
         <v>31</v>
@@ -31153,10 +31257,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="C34" s="2">
         <v>32</v>
@@ -31173,10 +31277,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="C35" s="2">
         <v>33</v>
@@ -31193,7 +31297,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>298</v>
@@ -31213,7 +31317,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>299</v>
@@ -31273,7 +31377,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>271</v>
@@ -31293,7 +31397,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>301</v>
@@ -31385,10 +31489,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -31425,7 +31529,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>388</v>
@@ -31445,7 +31549,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>389</v>
@@ -31485,7 +31589,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>391</v>
@@ -31505,7 +31609,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>392</v>
@@ -31545,7 +31649,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>394</v>
@@ -31565,7 +31669,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>395</v>
@@ -31585,7 +31689,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>396</v>
@@ -31625,7 +31729,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>398</v>
@@ -31685,7 +31789,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>401</v>
@@ -31765,7 +31869,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>430</v>
@@ -31785,10 +31889,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="C23" s="2">
         <v>21</v>
@@ -31805,10 +31909,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="C24" s="2">
         <v>22</v>
@@ -31825,10 +31929,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="C25" s="2">
         <v>23</v>
@@ -31988,7 +32092,7 @@
         <v>414</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="C33" s="2">
         <v>31</v>
@@ -32285,7 +32389,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>226</v>
@@ -32436,7 +32540,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>532</v>
@@ -32456,7 +32560,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>545</v>
@@ -32470,10 +32574,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
@@ -32524,10 +32628,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="C9" s="2">
         <v>11</v>
@@ -32544,7 +32648,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>536</v>
@@ -32564,7 +32668,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>534</v>
@@ -32592,7 +32696,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>537</v>
@@ -32652,10 +32756,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="C16" s="2">
         <v>25</v>
@@ -32715,7 +32819,7 @@
         <v>542</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="C19" s="2">
         <v>31</v>
@@ -32752,7 +32856,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>532</v>
@@ -32780,10 +32884,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -32820,10 +32924,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="C28" s="2">
         <v>3</v>
@@ -32892,7 +32996,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>579</v>
@@ -33332,7 +33436,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>601</v>
@@ -33452,7 +33556,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>615</v>
@@ -33472,7 +33576,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>616</v>
@@ -33515,7 +33619,7 @@
         <v>618</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="C40" s="2">
         <v>37</v>
@@ -33592,10 +33696,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="C45" s="2">
         <v>42</v>
@@ -33615,7 +33719,7 @@
         <v>603</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="C46" s="2">
         <v>43</v>
@@ -33635,7 +33739,7 @@
         <v>604</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="C47" s="2">
         <v>44</v>
@@ -33675,7 +33779,7 @@
         <v>606</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="C49" s="2">
         <v>46</v>
@@ -33692,10 +33796,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="C50" s="2">
         <v>47</v>
@@ -33712,10 +33816,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="C52" s="2">
         <v>49</v>
@@ -33755,7 +33859,7 @@
         <v>610</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="C54" s="2">
         <v>51</v>
@@ -33824,10 +33928,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -33844,10 +33948,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -33864,10 +33968,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -33887,7 +33991,7 @@
         <v>718</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -34127,7 +34231,7 @@
         <v>730</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -34153,7 +34257,7 @@
         <v>731</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -34173,7 +34277,7 @@
         <v>732</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
@@ -34193,7 +34297,7 @@
         <v>733</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
@@ -34213,7 +34317,7 @@
         <v>734</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="C11" s="2">
         <v>5</v>
@@ -34233,7 +34337,7 @@
         <v>735</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -34253,10 +34357,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -34273,10 +34377,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
@@ -34296,7 +34400,7 @@
         <v>739</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
@@ -34313,7 +34417,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>773</v>
@@ -34333,10 +34437,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="C18" s="2">
         <v>5</v>
@@ -34353,10 +34457,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="C19" s="2">
         <v>6</v>
@@ -34376,7 +34480,7 @@
         <v>743</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="C20" s="2">
         <v>7</v>
@@ -34393,10 +34497,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="C21" s="2">
         <v>8</v>
@@ -34413,10 +34517,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="C22" s="2">
         <v>9</v>
@@ -34433,10 +34537,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="C23" s="2">
         <v>10</v>
@@ -34456,7 +34560,7 @@
         <v>747</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="C24" s="2">
         <v>11</v>
@@ -34476,7 +34580,7 @@
         <v>748</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="C25" s="2">
         <v>12</v>

--- a/3-JavaScript/Dars/JS_KORIN.xlsx
+++ b/3-JavaScript/Dars/JS_KORIN.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5246" uniqueCount="3071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5253" uniqueCount="3073">
   <si>
     <t>№</t>
   </si>
@@ -8354,9 +8354,6 @@
   </si>
   <si>
     <t>abs()</t>
-  </si>
-  <si>
-    <t>Style</t>
   </si>
   <si>
     <t>Operators</t>
@@ -9319,6 +9316,15 @@
       </rPr>
       <t>(Общие веб-API :)</t>
     </r>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>add()</t>
+  </si>
+  <si>
+    <t>toggle()</t>
   </si>
 </sst>
 </file>
@@ -9489,7 +9495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9541,6 +9547,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -9591,7 +9598,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9633,7 +9640,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9675,7 +9682,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9717,7 +9724,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9759,7 +9766,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9801,7 +9808,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9843,7 +9850,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -10189,10 +10196,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -10209,7 +10216,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -10229,10 +10236,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
@@ -10249,10 +10256,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="C7" s="2">
         <v>5</v>
@@ -10269,10 +10276,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
@@ -10292,7 +10299,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="C9" s="2">
         <v>7</v>
@@ -10309,10 +10316,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="C10" s="2">
         <v>8</v>
@@ -10369,10 +10376,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="C13" s="2">
         <v>11</v>
@@ -10389,10 +10396,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="C14" s="2">
         <v>12</v>
@@ -10449,10 +10456,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="C17" s="2">
         <v>15</v>
@@ -10469,10 +10476,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="C18" s="2">
         <v>16</v>
@@ -10529,7 +10536,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
@@ -10569,7 +10576,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>22</v>
@@ -10589,7 +10596,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>23</v>
@@ -10609,10 +10616,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="C25" s="2">
         <v>23</v>
@@ -10649,10 +10656,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="C27" s="2">
         <v>25</v>
@@ -10672,7 +10679,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="C28" s="2">
         <v>26</v>
@@ -10689,10 +10696,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="C29" s="2">
         <v>27</v>
@@ -10709,10 +10716,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="C30" s="2">
         <v>28</v>
@@ -10729,10 +10736,10 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="C31" s="2">
         <v>29</v>
@@ -10752,7 +10759,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="C32" s="2">
         <v>30</v>
@@ -10792,7 +10799,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="C34" s="2">
         <v>32</v>
@@ -10812,7 +10819,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="C35" s="2">
         <v>33</v>
@@ -10860,10 +10867,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -10880,10 +10887,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -10991,10 +10998,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -11011,10 +11018,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -11051,10 +11058,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -11074,7 +11081,7 @@
         <v>790</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="C8" s="2">
         <v>5</v>
@@ -11091,10 +11098,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="C9" s="2">
         <v>6</v>
@@ -11111,10 +11118,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="C10" s="2">
         <v>7</v>
@@ -11131,10 +11138,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="C11" s="2">
         <v>8</v>
@@ -11151,10 +11158,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="C12" s="2">
         <v>9</v>
@@ -11171,10 +11178,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
@@ -11191,10 +11198,10 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="C14" s="2">
         <v>11</v>
@@ -11211,10 +11218,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="C15" s="2">
         <v>12</v>
@@ -11231,10 +11238,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="C16" s="2">
         <v>13</v>
@@ -11251,7 +11258,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>2248</v>
@@ -11271,10 +11278,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="C18" s="2">
         <v>15</v>
@@ -11291,10 +11298,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="C19" s="2">
         <v>16</v>
@@ -11331,10 +11338,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="C21" s="2">
         <v>18</v>
@@ -11386,10 +11393,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -11462,10 +11469,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="C4" s="9">
         <v>1</v>
@@ -11482,10 +11489,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="C5" s="9">
         <v>2</v>
@@ -11502,10 +11509,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="C6" s="9">
         <v>3</v>
@@ -11519,7 +11526,7 @@
         <v>855</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
@@ -11536,10 +11543,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="C8" s="9">
         <v>5</v>
@@ -11556,10 +11563,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="C9" s="9">
         <v>6</v>
@@ -11573,7 +11580,7 @@
         <v>858</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="C10" s="9">
         <v>7</v>
@@ -11590,10 +11597,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="C11" s="9">
         <v>8</v>
@@ -11610,10 +11617,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="C12" s="9">
         <v>9</v>
@@ -11630,10 +11637,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="C13" s="9">
         <v>10</v>
@@ -11647,7 +11654,7 @@
         <v>862</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="C14" s="9">
         <v>11</v>
@@ -11664,10 +11671,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="C15" s="9">
         <v>12</v>
@@ -11707,7 +11714,7 @@
         <v>864</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="C17" s="9">
         <v>14</v>
@@ -11744,10 +11751,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C19" s="9">
         <v>16</v>
@@ -11781,7 +11788,7 @@
         <v>869</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="C21" s="9">
         <v>18</v>
@@ -11798,10 +11805,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="C22" s="9">
         <v>19</v>
@@ -11812,10 +11819,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="C23" s="9">
         <v>20</v>
@@ -11835,7 +11842,7 @@
         <v>872</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="C24" s="9">
         <v>21</v>
@@ -11852,10 +11859,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="C25" s="9">
         <v>22</v>
@@ -11912,10 +11919,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="C28" s="9">
         <v>25</v>
@@ -11932,10 +11939,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="C29" s="9">
         <v>26</v>
@@ -11952,10 +11959,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="C30" s="9">
         <v>27</v>
@@ -11969,7 +11976,7 @@
         <v>882</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="C31" s="9">
         <v>28</v>
@@ -11989,7 +11996,7 @@
         <v>883</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="C32" s="9">
         <v>29</v>
@@ -12049,7 +12056,7 @@
         <v>890</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="C35" s="9">
         <v>32</v>
@@ -12106,10 +12113,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="C38" s="9">
         <v>35</v>
@@ -12126,10 +12133,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="C39" s="9">
         <v>36</v>
@@ -12146,10 +12153,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="C40" s="9">
         <v>37</v>
@@ -12169,7 +12176,7 @@
         <v>845</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="C42" s="9">
         <v>1</v>
@@ -12209,7 +12216,7 @@
         <v>847</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="C44" s="9">
         <v>3</v>
@@ -12306,10 +12313,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="C49" s="9">
         <v>8</v>
@@ -12366,10 +12373,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="C52" s="9">
         <v>11</v>
@@ -12389,7 +12396,7 @@
         <v>866</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="C53" s="9">
         <v>12</v>
@@ -12409,7 +12416,7 @@
         <v>867</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="C54" s="9">
         <v>13</v>
@@ -12426,7 +12433,7 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>868</v>
@@ -12466,10 +12473,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="C57" s="9">
         <v>16</v>
@@ -12489,7 +12496,7 @@
         <v>878</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="C58" s="9">
         <v>17</v>
@@ -12529,7 +12536,7 @@
         <v>879</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="C60" s="9">
         <v>19</v>
@@ -12549,7 +12556,7 @@
         <v>880</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="C61" s="9">
         <v>20</v>
@@ -12566,10 +12573,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="C62" s="9">
         <v>21</v>
@@ -12589,7 +12596,7 @@
         <v>886</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="C63" s="9">
         <v>22</v>
@@ -12666,10 +12673,10 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="C67" s="9">
         <v>26</v>
@@ -12723,10 +12730,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -12743,10 +12750,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -12763,10 +12770,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -12836,7 +12843,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1052</v>
@@ -12856,7 +12863,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1054</v>
@@ -12876,7 +12883,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1056</v>
@@ -12916,7 +12923,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1059</v>
@@ -12936,7 +12943,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>1061</v>
@@ -12976,7 +12983,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1065</v>
@@ -13016,7 +13023,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1069</v>
@@ -13036,7 +13043,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1071</v>
@@ -13056,7 +13063,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>1073</v>
@@ -14240,7 +14247,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1289</v>
@@ -15194,7 +15201,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>102</v>
@@ -15254,10 +15261,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
@@ -15294,10 +15301,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="C8" s="2">
         <v>6</v>
@@ -15374,10 +15381,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="C12" s="2">
         <v>10</v>
@@ -15394,10 +15401,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="C13" s="2">
         <v>11</v>
@@ -15414,7 +15421,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1073</v>
@@ -15434,10 +15441,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="C15" s="2">
         <v>13</v>
@@ -15454,10 +15461,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="C16" s="2">
         <v>14</v>
@@ -15474,10 +15481,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="C17" s="2">
         <v>15</v>
@@ -15494,10 +15501,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="C18" s="2">
         <v>16</v>
@@ -15534,10 +15541,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="C20" s="2">
         <v>18</v>
@@ -15554,7 +15561,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>116</v>
@@ -15594,7 +15601,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>118</v>
@@ -15637,7 +15644,7 @@
         <v>119</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="C25" s="2">
         <v>23</v>
@@ -15654,10 +15661,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="C26" s="2">
         <v>24</v>
@@ -15705,10 +15712,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -15745,10 +15752,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="C32" s="2">
         <v>3</v>
@@ -15768,10 +15775,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
@@ -15788,7 +15795,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>196</v>
@@ -15811,7 +15818,7 @@
         <v>151</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -15828,10 +15835,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="C38" s="2">
         <v>4</v>
@@ -15848,10 +15855,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="C39" s="2">
         <v>5</v>
@@ -15891,7 +15898,7 @@
         <v>157</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="C41" s="2">
         <v>7</v>
@@ -15908,10 +15915,10 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="C42" s="2">
         <v>8</v>
@@ -15928,10 +15935,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="C43" s="2">
         <v>9</v>
@@ -15948,7 +15955,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>205</v>
@@ -15968,7 +15975,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>207</v>
@@ -15991,7 +15998,7 @@
         <v>163</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="C46" s="2">
         <v>12</v>
@@ -24300,10 +24307,10 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC176"/>
+  <dimension ref="A1:BE176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AY10" sqref="AY10"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AQ9" sqref="AQ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
@@ -24348,26 +24355,28 @@
     <col min="39" max="39" width="44.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="41.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="45" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="33.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="40" style="5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="5.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="20.7109375" style="2" customWidth="1"/>
-    <col min="52" max="52" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="32.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.7109375" style="2" customWidth="1"/>
+    <col min="43" max="43" width="41.140625" style="2" customWidth="1"/>
+    <col min="44" max="44" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="45" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="33.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="40" style="5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="5.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="20.7109375" style="2" customWidth="1"/>
     <col min="54" max="54" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.140625" style="2"/>
+    <col min="55" max="55" width="32.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="26.25">
+    <row r="1" spans="1:57" ht="26.25">
       <c r="B1" s="20" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
@@ -24394,7 +24403,7 @@
       <c r="Y1" s="21"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="22" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="AB1" s="22"/>
       <c r="AC1" s="22"/>
@@ -24406,7 +24415,7 @@
       <c r="AI1" s="23"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="24" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="AL1" s="24"/>
       <c r="AM1" s="24"/>
@@ -24419,17 +24428,19 @@
       <c r="AT1" s="24"/>
       <c r="AU1" s="24"/>
       <c r="AV1" s="24"/>
-      <c r="AW1" s="25"/>
-      <c r="AX1" s="19"/>
-      <c r="AY1" s="26" t="s">
-        <v>3070</v>
-      </c>
-      <c r="AZ1" s="26"/>
-      <c r="BA1" s="26"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="19"/>
+      <c r="BA1" s="26" t="s">
+        <v>3069</v>
+      </c>
       <c r="BB1" s="26"/>
       <c r="BC1" s="26"/>
-    </row>
-    <row r="3" spans="1:55" s="3" customFormat="1" ht="26.25">
+      <c r="BD1" s="26"/>
+      <c r="BE1" s="26"/>
+    </row>
+    <row r="3" spans="1:57" s="3" customFormat="1" ht="26.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -24491,7 +24502,7 @@
         <v>776</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="V3" s="3" t="s">
         <v>0</v>
@@ -24539,64 +24550,70 @@
         <v>0</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>1153</v>
+        <v>856</v>
       </c>
       <c r="AL3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>1353</v>
+        <v>3070</v>
       </c>
       <c r="AN3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AO3" s="11" t="s">
-        <v>2771</v>
-      </c>
-      <c r="AP3" s="11" t="s">
+        <v>1427</v>
+      </c>
+      <c r="AP3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AQ3" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AR3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="3" t="s">
         <v>1699</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>2386</v>
       </c>
       <c r="AT3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>2422</v>
+        <v>2386</v>
       </c>
       <c r="AV3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AW3" s="16" t="s">
-        <v>1665</v>
+      <c r="AW3" s="3" t="s">
+        <v>2422</v>
       </c>
       <c r="AX3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AY3" s="3" t="s">
-        <v>2430</v>
+      <c r="AY3" s="16" t="s">
+        <v>1665</v>
       </c>
       <c r="AZ3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BA3" s="3" t="s">
-        <v>2496</v>
+        <v>2430</v>
       </c>
       <c r="BB3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BC3" s="3" t="s">
+        <v>2496</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="3" t="s">
         <v>2526</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:57">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -24717,50 +24734,56 @@
       <c r="AO4" s="10" t="s">
         <v>2768</v>
       </c>
-      <c r="AP4" s="9">
+      <c r="AP4" s="2">
         <v>1</v>
       </c>
-      <c r="AQ4" s="4" t="s">
+      <c r="AQ4" s="27" t="s">
+        <v>3071</v>
+      </c>
+      <c r="AR4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="4" t="s">
         <v>1700</v>
-      </c>
-      <c r="AR4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>1827</v>
       </c>
       <c r="AT4" s="2">
         <v>1</v>
       </c>
       <c r="AU4" s="4" t="s">
-        <v>1668</v>
+        <v>1827</v>
       </c>
       <c r="AV4" s="2">
         <v>1</v>
       </c>
-      <c r="AW4" s="17" t="s">
-        <v>1666</v>
+      <c r="AW4" s="4" t="s">
+        <v>1668</v>
       </c>
       <c r="AX4" s="2">
         <v>1</v>
       </c>
-      <c r="AY4" s="4" t="s">
-        <v>2439</v>
+      <c r="AY4" s="17" t="s">
+        <v>1666</v>
       </c>
       <c r="AZ4" s="2">
         <v>1</v>
       </c>
       <c r="BA4" s="4" t="s">
-        <v>2497</v>
+        <v>2439</v>
       </c>
       <c r="BB4" s="2">
         <v>1</v>
       </c>
       <c r="BC4" s="4" t="s">
+        <v>2497</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="4" t="s">
         <v>2432</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:57">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -24881,50 +24904,56 @@
       <c r="AO5" s="10" t="s">
         <v>2766</v>
       </c>
-      <c r="AP5" s="9">
+      <c r="AP5" s="2">
         <v>2</v>
       </c>
-      <c r="AQ5" s="4" t="s">
+      <c r="AQ5" s="10" t="s">
+        <v>1415</v>
+      </c>
+      <c r="AR5" s="9">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="4" t="s">
         <v>1701</v>
-      </c>
-      <c r="AR5" s="2">
-        <v>2</v>
-      </c>
-      <c r="AS5" s="4" t="s">
-        <v>1830</v>
       </c>
       <c r="AT5" s="2">
         <v>2</v>
       </c>
       <c r="AU5" s="4" t="s">
-        <v>19</v>
+        <v>1830</v>
       </c>
       <c r="AV5" s="2">
         <v>2</v>
       </c>
-      <c r="AW5" s="17" t="s">
-        <v>1667</v>
+      <c r="AW5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AX5" s="2">
         <v>2</v>
       </c>
-      <c r="AY5" s="4" t="s">
-        <v>2432</v>
+      <c r="AY5" s="17" t="s">
+        <v>1667</v>
       </c>
       <c r="AZ5" s="2">
         <v>2</v>
       </c>
       <c r="BA5" s="4" t="s">
-        <v>2498</v>
+        <v>2432</v>
       </c>
       <c r="BB5" s="2">
         <v>2</v>
       </c>
       <c r="BC5" s="4" t="s">
+        <v>2498</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE5" s="4" t="s">
         <v>2527</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:57">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -25034,50 +25063,56 @@
       <c r="AO6" s="10" t="s">
         <v>2764</v>
       </c>
-      <c r="AP6" s="9">
+      <c r="AP6" s="2">
         <v>3</v>
       </c>
-      <c r="AQ6" s="4" t="s">
+      <c r="AQ6" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR6" s="9">
+        <v>3</v>
+      </c>
+      <c r="AS6" s="4" t="s">
         <v>1702</v>
-      </c>
-      <c r="AR6" s="2">
-        <v>3</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>1831</v>
       </c>
       <c r="AT6" s="2">
         <v>3</v>
       </c>
       <c r="AU6" s="4" t="s">
-        <v>2423</v>
+        <v>1831</v>
       </c>
       <c r="AV6" s="2">
         <v>3</v>
       </c>
-      <c r="AW6" s="17" t="s">
-        <v>1668</v>
+      <c r="AW6" s="4" t="s">
+        <v>2423</v>
       </c>
       <c r="AX6" s="2">
         <v>3</v>
       </c>
-      <c r="AY6" s="4" t="s">
-        <v>2433</v>
+      <c r="AY6" s="17" t="s">
+        <v>1668</v>
       </c>
       <c r="AZ6" s="2">
         <v>3</v>
       </c>
       <c r="BA6" s="4" t="s">
-        <v>2499</v>
+        <v>2433</v>
       </c>
       <c r="BB6" s="2">
         <v>3</v>
       </c>
       <c r="BC6" s="4" t="s">
+        <v>2499</v>
+      </c>
+      <c r="BD6" s="2">
+        <v>3</v>
+      </c>
+      <c r="BE6" s="4" t="s">
         <v>2528</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:57">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -25179,7 +25214,7 @@
         <v>4</v>
       </c>
       <c r="AM7" s="15" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="AN7" s="2">
         <v>4</v>
@@ -25187,38 +25222,44 @@
       <c r="AO7" s="10" t="s">
         <v>2762</v>
       </c>
-      <c r="AP7" s="9">
+      <c r="AP7" s="2">
         <v>4</v>
       </c>
-      <c r="AQ7" s="4" t="s">
+      <c r="AQ7" s="10" t="s">
+        <v>1370</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>4</v>
+      </c>
+      <c r="AS7" s="4" t="s">
         <v>1703</v>
       </c>
-      <c r="AR7" s="2">
+      <c r="AT7" s="2">
         <v>4</v>
       </c>
-      <c r="AS7" s="4" t="s">
+      <c r="AU7" s="4" t="s">
         <v>1826</v>
-      </c>
-      <c r="AV7" s="2">
-        <v>4</v>
-      </c>
-      <c r="AW7" s="17" t="s">
-        <v>19</v>
       </c>
       <c r="AX7" s="2">
         <v>4</v>
       </c>
-      <c r="AY7" s="4" t="s">
+      <c r="AY7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>4</v>
+      </c>
+      <c r="BA7" s="4" t="s">
         <v>2431</v>
       </c>
-      <c r="BB7" s="2">
+      <c r="BD7" s="2">
         <v>4</v>
       </c>
-      <c r="BC7" s="4" t="s">
+      <c r="BE7" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:57">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -25295,14 +25336,14 @@
       <c r="AJ8" s="9">
         <v>5</v>
       </c>
-      <c r="AK8" s="4" t="s">
-        <v>1158</v>
+      <c r="AK8" s="15" t="s">
+        <v>1181</v>
       </c>
       <c r="AL8" s="2">
         <v>5</v>
       </c>
-      <c r="AM8" s="4" t="s">
-        <v>1354</v>
+      <c r="AM8" s="15" t="s">
+        <v>1360</v>
       </c>
       <c r="AN8" s="2">
         <v>5</v>
@@ -25310,38 +25351,44 @@
       <c r="AO8" s="10" t="s">
         <v>2759</v>
       </c>
-      <c r="AP8" s="9">
+      <c r="AP8" s="2">
         <v>5</v>
       </c>
-      <c r="AQ8" s="4" t="s">
+      <c r="AQ8" s="10" t="s">
+        <v>3072</v>
+      </c>
+      <c r="AR8" s="9">
+        <v>5</v>
+      </c>
+      <c r="AS8" s="4" t="s">
         <v>1704</v>
       </c>
-      <c r="AR8" s="2">
+      <c r="AT8" s="2">
         <v>5</v>
       </c>
-      <c r="AS8" s="4" t="s">
+      <c r="AU8" s="4" t="s">
         <v>1828</v>
-      </c>
-      <c r="AV8" s="2">
-        <v>5</v>
-      </c>
-      <c r="AW8" s="17" t="s">
-        <v>728</v>
       </c>
       <c r="AX8" s="2">
         <v>5</v>
       </c>
-      <c r="AY8" s="4" t="s">
+      <c r="AY8" s="17" t="s">
+        <v>728</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>5</v>
+      </c>
+      <c r="BA8" s="4" t="s">
         <v>2432</v>
       </c>
-      <c r="BB8" s="2">
+      <c r="BD8" s="2">
         <v>5</v>
       </c>
-      <c r="BC8" s="4" t="s">
+      <c r="BE8" s="4" t="s">
         <v>2529</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:57">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -25433,38 +25480,39 @@
       <c r="AO9" s="10" t="s">
         <v>2756</v>
       </c>
-      <c r="AP9" s="9">
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="9">
         <v>6</v>
       </c>
-      <c r="AQ9" s="4" t="s">
+      <c r="AS9" s="4" t="s">
         <v>1705</v>
       </c>
-      <c r="AR9" s="2">
+      <c r="AT9" s="2">
         <v>6</v>
       </c>
-      <c r="AS9" s="4" t="s">
+      <c r="AU9" s="4" t="s">
         <v>1833</v>
-      </c>
-      <c r="AV9" s="2">
-        <v>6</v>
-      </c>
-      <c r="AW9" s="17" t="s">
-        <v>1669</v>
       </c>
       <c r="AX9" s="2">
         <v>6</v>
       </c>
-      <c r="AY9" s="4" t="s">
+      <c r="AY9" s="17" t="s">
+        <v>1669</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>6</v>
+      </c>
+      <c r="BA9" s="4" t="s">
         <v>2433</v>
       </c>
-      <c r="BB9" s="2">
+      <c r="BD9" s="2">
         <v>6</v>
       </c>
-      <c r="BC9" s="4" t="s">
+      <c r="BE9" s="4" t="s">
         <v>2530</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:57">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -25551,32 +25599,33 @@
       <c r="AO10" s="10" t="s">
         <v>2754</v>
       </c>
-      <c r="AP10" s="9">
+      <c r="AP10" s="10"/>
+      <c r="AR10" s="9">
         <v>7</v>
       </c>
-      <c r="AQ10" s="4" t="s">
+      <c r="AS10" s="4" t="s">
         <v>1706</v>
       </c>
-      <c r="AR10" s="2">
+      <c r="AT10" s="2">
         <v>7</v>
       </c>
-      <c r="AS10" s="4" t="s">
+      <c r="AU10" s="4" t="s">
         <v>1852</v>
-      </c>
-      <c r="AV10" s="2">
-        <v>7</v>
-      </c>
-      <c r="AW10" s="17" t="s">
-        <v>1670</v>
       </c>
       <c r="AX10" s="2">
         <v>7</v>
       </c>
-      <c r="AY10" s="4" t="s">
+      <c r="AY10" s="17" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>7</v>
+      </c>
+      <c r="BA10" s="4" t="s">
         <v>2434</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:57">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -25663,32 +25712,33 @@
       <c r="AO11" s="10" t="s">
         <v>2751</v>
       </c>
-      <c r="AP11" s="9">
+      <c r="AP11" s="10"/>
+      <c r="AR11" s="9">
         <v>8</v>
       </c>
-      <c r="AQ11" s="4" t="s">
+      <c r="AS11" s="4" t="s">
         <v>1707</v>
       </c>
-      <c r="AR11" s="2">
+      <c r="AT11" s="2">
         <v>8</v>
       </c>
-      <c r="AS11" s="4" t="s">
+      <c r="AU11" s="4" t="s">
         <v>1835</v>
-      </c>
-      <c r="AV11" s="2">
-        <v>8</v>
-      </c>
-      <c r="AW11" s="17" t="s">
-        <v>1671</v>
       </c>
       <c r="AX11" s="2">
         <v>8</v>
       </c>
-      <c r="AY11" s="4" t="s">
+      <c r="AY11" s="17" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AZ11" s="2">
+        <v>8</v>
+      </c>
+      <c r="BA11" s="4" t="s">
         <v>2435</v>
       </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:57">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -25767,7 +25817,7 @@
         <v>9</v>
       </c>
       <c r="AM12" s="4" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="AN12" s="2">
         <v>9</v>
@@ -25775,32 +25825,34 @@
       <c r="AO12" s="10" t="s">
         <v>2748</v>
       </c>
-      <c r="AP12" s="9">
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="9">
         <v>9</v>
       </c>
-      <c r="AQ12" s="4" t="s">
+      <c r="AS12" s="4" t="s">
         <v>1708</v>
       </c>
-      <c r="AR12" s="2">
+      <c r="AT12" s="2">
         <v>9</v>
       </c>
-      <c r="AS12" s="4" t="s">
+      <c r="AU12" s="4" t="s">
         <v>1829</v>
-      </c>
-      <c r="AV12" s="2">
-        <v>9</v>
-      </c>
-      <c r="AW12" s="17" t="s">
-        <v>1672</v>
       </c>
       <c r="AX12" s="2">
         <v>9</v>
       </c>
-      <c r="AY12" s="4" t="s">
+      <c r="AY12" s="17" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AZ12" s="2">
+        <v>9</v>
+      </c>
+      <c r="BA12" s="4" t="s">
         <v>2436</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:57">
       <c r="A13" s="2">
         <v>10</v>
       </c>
@@ -25887,26 +25939,28 @@
       <c r="AO13" s="10" t="s">
         <v>1781</v>
       </c>
-      <c r="AP13" s="9">
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="9">
         <v>10</v>
       </c>
-      <c r="AQ13" s="4" t="s">
+      <c r="AS13" s="4" t="s">
         <v>1709</v>
       </c>
-      <c r="AR13" s="2">
+      <c r="AT13" s="2">
         <v>10</v>
       </c>
-      <c r="AS13" s="4" t="s">
+      <c r="AU13" s="4" t="s">
         <v>1839</v>
       </c>
-      <c r="AX13" s="2">
+      <c r="AZ13" s="2">
         <v>10</v>
       </c>
-      <c r="AY13" s="4" t="s">
+      <c r="BA13" s="4" t="s">
         <v>2437</v>
       </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:57">
       <c r="A14" s="2">
         <v>11</v>
       </c>
@@ -25993,26 +26047,28 @@
       <c r="AO14" s="10" t="s">
         <v>2743</v>
       </c>
-      <c r="AP14" s="9">
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="9">
         <v>11</v>
       </c>
-      <c r="AQ14" s="4" t="s">
+      <c r="AS14" s="4" t="s">
         <v>1710</v>
       </c>
-      <c r="AR14" s="2">
+      <c r="AT14" s="2">
         <v>11</v>
       </c>
-      <c r="AS14" s="4" t="s">
+      <c r="AU14" s="4" t="s">
         <v>1841</v>
       </c>
-      <c r="AX14" s="2">
+      <c r="AZ14" s="2">
         <v>11</v>
       </c>
-      <c r="AY14" s="4" t="s">
+      <c r="BA14" s="4" t="s">
         <v>2438</v>
       </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:57">
       <c r="A15" s="2">
         <v>12</v>
       </c>
@@ -26099,26 +26155,28 @@
       <c r="AO15" s="10" t="s">
         <v>2740</v>
       </c>
-      <c r="AP15" s="9">
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="9">
         <v>12</v>
       </c>
-      <c r="AQ15" s="4" t="s">
+      <c r="AS15" s="4" t="s">
         <v>1711</v>
       </c>
-      <c r="AR15" s="2">
+      <c r="AT15" s="2">
         <v>12</v>
       </c>
-      <c r="AS15" s="4" t="s">
+      <c r="AU15" s="4" t="s">
         <v>1836</v>
       </c>
-      <c r="AX15" s="2">
+      <c r="AZ15" s="2">
         <v>12</v>
       </c>
-      <c r="AY15" s="4" t="s">
+      <c r="BA15" s="4" t="s">
         <v>2431</v>
       </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:57">
       <c r="A16" s="2">
         <v>13</v>
       </c>
@@ -26192,26 +26250,28 @@
       <c r="AO16" s="10" t="s">
         <v>2737</v>
       </c>
-      <c r="AP16" s="9">
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="9">
         <v>13</v>
       </c>
-      <c r="AQ16" s="4" t="s">
+      <c r="AS16" s="4" t="s">
         <v>1712</v>
       </c>
-      <c r="AR16" s="2">
+      <c r="AT16" s="2">
         <v>13</v>
       </c>
-      <c r="AS16" s="4" t="s">
+      <c r="AU16" s="4" t="s">
         <v>1843</v>
       </c>
-      <c r="AX16" s="2">
+      <c r="AZ16" s="2">
         <v>13</v>
       </c>
-      <c r="AY16" s="4" t="s">
+      <c r="BA16" s="4" t="s">
         <v>2440</v>
       </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:53">
       <c r="A17" s="2">
         <v>14</v>
       </c>
@@ -26285,26 +26345,28 @@
       <c r="AO17" s="10" t="s">
         <v>2736</v>
       </c>
-      <c r="AP17" s="9">
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="9">
         <v>14</v>
       </c>
-      <c r="AQ17" s="4" t="s">
+      <c r="AS17" s="4" t="s">
         <v>1713</v>
       </c>
-      <c r="AR17" s="2">
+      <c r="AT17" s="2">
         <v>14</v>
       </c>
-      <c r="AS17" s="4" t="s">
+      <c r="AU17" s="4" t="s">
         <v>1844</v>
       </c>
-      <c r="AX17" s="2">
+      <c r="AZ17" s="2">
         <v>14</v>
       </c>
-      <c r="AY17" s="4" t="s">
+      <c r="BA17" s="4" t="s">
         <v>2441</v>
       </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:53">
       <c r="A18" s="2">
         <v>15</v>
       </c>
@@ -26378,26 +26440,28 @@
       <c r="AO18" s="10" t="s">
         <v>2733</v>
       </c>
-      <c r="AP18" s="9">
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="9">
         <v>15</v>
       </c>
-      <c r="AQ18" s="4" t="s">
+      <c r="AS18" s="4" t="s">
         <v>1714</v>
       </c>
-      <c r="AR18" s="2">
+      <c r="AT18" s="2">
         <v>15</v>
       </c>
-      <c r="AS18" s="4" t="s">
+      <c r="AU18" s="4" t="s">
         <v>1845</v>
       </c>
-      <c r="AX18" s="2">
+      <c r="AZ18" s="2">
         <v>15</v>
       </c>
-      <c r="AY18" s="4" t="s">
+      <c r="BA18" s="4" t="s">
         <v>2442</v>
       </c>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:53">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -26471,26 +26535,28 @@
       <c r="AO19" s="10" t="s">
         <v>2730</v>
       </c>
-      <c r="AP19" s="9">
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="9">
         <v>16</v>
       </c>
-      <c r="AQ19" s="4" t="s">
+      <c r="AS19" s="4" t="s">
         <v>1715</v>
       </c>
-      <c r="AR19" s="2">
+      <c r="AT19" s="2">
         <v>16</v>
       </c>
-      <c r="AS19" s="4" t="s">
+      <c r="AU19" s="4" t="s">
         <v>1855</v>
       </c>
-      <c r="AX19" s="2">
+      <c r="AZ19" s="2">
         <v>16</v>
       </c>
-      <c r="AY19" s="4" t="s">
+      <c r="BA19" s="4" t="s">
         <v>2443</v>
       </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:53">
       <c r="A20" s="2">
         <v>17</v>
       </c>
@@ -26558,26 +26624,28 @@
       <c r="AO20" s="10" t="s">
         <v>2728</v>
       </c>
-      <c r="AP20" s="9">
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="10"/>
+      <c r="AR20" s="9">
         <v>17</v>
       </c>
-      <c r="AQ20" s="4" t="s">
+      <c r="AS20" s="4" t="s">
         <v>1716</v>
       </c>
-      <c r="AR20" s="2">
+      <c r="AT20" s="2">
         <v>17</v>
       </c>
-      <c r="AS20" s="4" t="s">
+      <c r="AU20" s="4" t="s">
         <v>1838</v>
       </c>
-      <c r="AX20" s="2">
+      <c r="AZ20" s="2">
         <v>17</v>
       </c>
-      <c r="AY20" s="4" t="s">
+      <c r="BA20" s="4" t="s">
         <v>2444</v>
       </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:53">
       <c r="A21" s="2">
         <v>18</v>
       </c>
@@ -26640,14 +26708,16 @@
       <c r="AO21" s="10" t="s">
         <v>2726</v>
       </c>
-      <c r="AP21" s="9">
+      <c r="AP21" s="10"/>
+      <c r="AQ21" s="10"/>
+      <c r="AR21" s="9">
         <v>18</v>
       </c>
-      <c r="AQ21" s="4" t="s">
+      <c r="AS21" s="4" t="s">
         <v>1717</v>
       </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:53">
       <c r="A22" s="2">
         <v>19</v>
       </c>
@@ -26704,14 +26774,16 @@
       <c r="AO22" s="10" t="s">
         <v>2725</v>
       </c>
-      <c r="AP22" s="9">
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="10"/>
+      <c r="AR22" s="9">
         <v>19</v>
       </c>
-      <c r="AQ22" s="4" t="s">
+      <c r="AS22" s="4" t="s">
         <v>1718</v>
       </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:53">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -26768,14 +26840,16 @@
       <c r="AO23" s="10" t="s">
         <v>2724</v>
       </c>
-      <c r="AP23" s="9">
+      <c r="AP23" s="10"/>
+      <c r="AQ23" s="10"/>
+      <c r="AR23" s="9">
         <v>20</v>
       </c>
-      <c r="AQ23" s="4" t="s">
+      <c r="AS23" s="4" t="s">
         <v>1719</v>
       </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:53">
       <c r="A24" s="2">
         <v>21</v>
       </c>
@@ -26832,14 +26906,16 @@
       <c r="AO24" s="10" t="s">
         <v>2723</v>
       </c>
-      <c r="AP24" s="9">
+      <c r="AP24" s="10"/>
+      <c r="AQ24" s="10"/>
+      <c r="AR24" s="9">
         <v>21</v>
       </c>
-      <c r="AQ24" s="4" t="s">
+      <c r="AS24" s="4" t="s">
         <v>1720</v>
       </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:53">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -26896,14 +26972,16 @@
       <c r="AO25" s="10" t="s">
         <v>2721</v>
       </c>
-      <c r="AP25" s="9">
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="9">
         <v>22</v>
       </c>
-      <c r="AQ25" s="4" t="s">
+      <c r="AS25" s="4" t="s">
         <v>1721</v>
       </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:53">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -26960,14 +27038,16 @@
       <c r="AO26" s="10" t="s">
         <v>2719</v>
       </c>
-      <c r="AP26" s="9">
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="9">
         <v>23</v>
       </c>
-      <c r="AQ26" s="4" t="s">
+      <c r="AS26" s="4" t="s">
         <v>1722</v>
       </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:53">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -27024,14 +27104,16 @@
       <c r="AO27" s="10" t="s">
         <v>2717</v>
       </c>
-      <c r="AP27" s="9">
+      <c r="AP27" s="10"/>
+      <c r="AQ27" s="10"/>
+      <c r="AR27" s="9">
         <v>24</v>
       </c>
-      <c r="AQ27" s="4" t="s">
+      <c r="AS27" s="4" t="s">
         <v>1723</v>
       </c>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:53">
       <c r="A28" s="2">
         <v>25</v>
       </c>
@@ -27088,14 +27170,16 @@
       <c r="AO28" s="10" t="s">
         <v>2716</v>
       </c>
-      <c r="AP28" s="9">
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="10"/>
+      <c r="AR28" s="9">
         <v>25</v>
       </c>
-      <c r="AQ28" s="4" t="s">
+      <c r="AS28" s="4" t="s">
         <v>1724</v>
       </c>
     </row>
-    <row r="29" spans="1:51">
+    <row r="29" spans="1:53">
       <c r="A29" s="2">
         <v>26</v>
       </c>
@@ -27152,14 +27236,16 @@
       <c r="AO29" s="10" t="s">
         <v>2715</v>
       </c>
-      <c r="AP29" s="9">
+      <c r="AP29" s="10"/>
+      <c r="AQ29" s="10"/>
+      <c r="AR29" s="9">
         <v>26</v>
       </c>
-      <c r="AQ29" s="4" t="s">
+      <c r="AS29" s="4" t="s">
         <v>1725</v>
       </c>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:53">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -27216,14 +27302,16 @@
       <c r="AO30" s="10" t="s">
         <v>2713</v>
       </c>
-      <c r="AP30" s="9">
+      <c r="AP30" s="10"/>
+      <c r="AQ30" s="10"/>
+      <c r="AR30" s="9">
         <v>27</v>
       </c>
-      <c r="AQ30" s="4" t="s">
+      <c r="AS30" s="4" t="s">
         <v>1726</v>
       </c>
     </row>
-    <row r="31" spans="1:51">
+    <row r="31" spans="1:53">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -27280,14 +27368,16 @@
       <c r="AO31" s="10" t="s">
         <v>2711</v>
       </c>
-      <c r="AP31" s="9">
+      <c r="AP31" s="10"/>
+      <c r="AQ31" s="10"/>
+      <c r="AR31" s="9">
         <v>28</v>
       </c>
-      <c r="AQ31" s="4" t="s">
+      <c r="AS31" s="4" t="s">
         <v>1727</v>
       </c>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="1:53">
       <c r="A32" s="2">
         <v>29</v>
       </c>
@@ -27329,8 +27419,8 @@
       <c r="AJ32" s="9">
         <v>29</v>
       </c>
-      <c r="AK32" s="15" t="s">
-        <v>1181</v>
+      <c r="AK32" s="4" t="s">
+        <v>1158</v>
       </c>
       <c r="AL32" s="2">
         <v>29</v>
@@ -27344,14 +27434,16 @@
       <c r="AO32" s="10" t="s">
         <v>2709</v>
       </c>
-      <c r="AP32" s="9">
+      <c r="AP32" s="10"/>
+      <c r="AQ32" s="10"/>
+      <c r="AR32" s="9">
         <v>29</v>
       </c>
-      <c r="AQ32" s="4" t="s">
+      <c r="AS32" s="4" t="s">
         <v>1728</v>
       </c>
     </row>
-    <row r="33" spans="1:43">
+    <row r="33" spans="1:45">
       <c r="A33" s="2">
         <v>30</v>
       </c>
@@ -27402,14 +27494,16 @@
       <c r="AO33" s="10" t="s">
         <v>2706</v>
       </c>
-      <c r="AP33" s="2">
+      <c r="AP33" s="10"/>
+      <c r="AQ33" s="10"/>
+      <c r="AR33" s="2">
         <v>30</v>
       </c>
-      <c r="AQ33" s="4" t="s">
+      <c r="AS33" s="4" t="s">
         <v>1729</v>
       </c>
     </row>
-    <row r="34" spans="1:43">
+    <row r="34" spans="1:45">
       <c r="A34" s="2">
         <v>31</v>
       </c>
@@ -27460,14 +27554,16 @@
       <c r="AO34" s="10" t="s">
         <v>2704</v>
       </c>
-      <c r="AP34" s="2">
+      <c r="AP34" s="10"/>
+      <c r="AQ34" s="10"/>
+      <c r="AR34" s="2">
         <v>31</v>
       </c>
-      <c r="AQ34" s="4" t="s">
+      <c r="AS34" s="4" t="s">
         <v>1730</v>
       </c>
     </row>
-    <row r="35" spans="1:43">
+    <row r="35" spans="1:45">
       <c r="A35" s="2">
         <v>32</v>
       </c>
@@ -27518,14 +27614,16 @@
       <c r="AO35" s="10" t="s">
         <v>2701</v>
       </c>
-      <c r="AP35" s="2">
+      <c r="AP35" s="10"/>
+      <c r="AQ35" s="10"/>
+      <c r="AR35" s="2">
         <v>32</v>
       </c>
-      <c r="AQ35" s="4" t="s">
+      <c r="AS35" s="4" t="s">
         <v>1731</v>
       </c>
     </row>
-    <row r="36" spans="1:43">
+    <row r="36" spans="1:45">
       <c r="A36" s="2">
         <v>33</v>
       </c>
@@ -27576,14 +27674,16 @@
       <c r="AO36" s="10" t="s">
         <v>2698</v>
       </c>
-      <c r="AP36" s="2">
+      <c r="AP36" s="10"/>
+      <c r="AQ36" s="10"/>
+      <c r="AR36" s="2">
         <v>33</v>
       </c>
-      <c r="AQ36" s="4" t="s">
+      <c r="AS36" s="4" t="s">
         <v>1732</v>
       </c>
     </row>
-    <row r="37" spans="1:43">
+    <row r="37" spans="1:45">
       <c r="G37" s="2">
         <v>34</v>
       </c>
@@ -27627,14 +27727,16 @@
       <c r="AO37" s="10" t="s">
         <v>2695</v>
       </c>
-      <c r="AP37" s="2">
+      <c r="AP37" s="10"/>
+      <c r="AQ37" s="10"/>
+      <c r="AR37" s="2">
         <v>34</v>
       </c>
-      <c r="AQ37" s="4" t="s">
+      <c r="AS37" s="4" t="s">
         <v>1733</v>
       </c>
     </row>
-    <row r="38" spans="1:43">
+    <row r="38" spans="1:45">
       <c r="G38" s="2">
         <v>35</v>
       </c>
@@ -27678,14 +27780,16 @@
       <c r="AO38" s="10" t="s">
         <v>2692</v>
       </c>
-      <c r="AP38" s="2">
+      <c r="AP38" s="10"/>
+      <c r="AQ38" s="10"/>
+      <c r="AR38" s="2">
         <v>35</v>
       </c>
-      <c r="AQ38" s="4" t="s">
+      <c r="AS38" s="4" t="s">
         <v>1734</v>
       </c>
     </row>
-    <row r="39" spans="1:43">
+    <row r="39" spans="1:45">
       <c r="G39" s="2">
         <v>36</v>
       </c>
@@ -27729,14 +27833,16 @@
       <c r="AO39" s="10" t="s">
         <v>2689</v>
       </c>
-      <c r="AP39" s="2">
+      <c r="AP39" s="10"/>
+      <c r="AQ39" s="10"/>
+      <c r="AR39" s="2">
         <v>36</v>
       </c>
-      <c r="AQ39" s="4" t="s">
+      <c r="AS39" s="4" t="s">
         <v>1735</v>
       </c>
     </row>
-    <row r="40" spans="1:43">
+    <row r="40" spans="1:45">
       <c r="G40" s="2">
         <v>37</v>
       </c>
@@ -27780,14 +27886,16 @@
       <c r="AO40" s="10" t="s">
         <v>2687</v>
       </c>
-      <c r="AP40" s="2">
+      <c r="AP40" s="10"/>
+      <c r="AQ40" s="10"/>
+      <c r="AR40" s="2">
         <v>37</v>
       </c>
-      <c r="AQ40" s="4" t="s">
+      <c r="AS40" s="4" t="s">
         <v>1736</v>
       </c>
     </row>
-    <row r="41" spans="1:43">
+    <row r="41" spans="1:45">
       <c r="G41" s="2">
         <v>38</v>
       </c>
@@ -27831,14 +27939,16 @@
       <c r="AO41" s="10" t="s">
         <v>2685</v>
       </c>
-      <c r="AP41" s="2">
+      <c r="AP41" s="10"/>
+      <c r="AQ41" s="10"/>
+      <c r="AR41" s="2">
         <v>38</v>
       </c>
-      <c r="AQ41" s="4" t="s">
+      <c r="AS41" s="4" t="s">
         <v>1737</v>
       </c>
     </row>
-    <row r="42" spans="1:43">
+    <row r="42" spans="1:45">
       <c r="G42" s="2">
         <v>39</v>
       </c>
@@ -27882,14 +27992,16 @@
       <c r="AO42" s="10" t="s">
         <v>2682</v>
       </c>
-      <c r="AP42" s="2">
+      <c r="AP42" s="10"/>
+      <c r="AQ42" s="10"/>
+      <c r="AR42" s="2">
         <v>39</v>
       </c>
-      <c r="AQ42" s="4" t="s">
+      <c r="AS42" s="4" t="s">
         <v>1738</v>
       </c>
     </row>
-    <row r="43" spans="1:43">
+    <row r="43" spans="1:45">
       <c r="G43" s="2">
         <v>40</v>
       </c>
@@ -27933,14 +28045,16 @@
       <c r="AO43" s="10" t="s">
         <v>2679</v>
       </c>
-      <c r="AP43" s="2">
+      <c r="AP43" s="10"/>
+      <c r="AQ43" s="10"/>
+      <c r="AR43" s="2">
         <v>40</v>
       </c>
-      <c r="AQ43" s="4" t="s">
+      <c r="AS43" s="4" t="s">
         <v>1739</v>
       </c>
     </row>
-    <row r="44" spans="1:43">
+    <row r="44" spans="1:45">
       <c r="G44" s="2">
         <v>41</v>
       </c>
@@ -27984,14 +28098,16 @@
       <c r="AO44" s="10" t="s">
         <v>2676</v>
       </c>
-      <c r="AP44" s="2">
+      <c r="AP44" s="10"/>
+      <c r="AQ44" s="10"/>
+      <c r="AR44" s="2">
         <v>41</v>
       </c>
-      <c r="AQ44" s="4" t="s">
+      <c r="AS44" s="4" t="s">
         <v>1740</v>
       </c>
     </row>
-    <row r="45" spans="1:43">
+    <row r="45" spans="1:45">
       <c r="I45" s="2">
         <v>42</v>
       </c>
@@ -28029,14 +28145,16 @@
       <c r="AO45" s="10" t="s">
         <v>2675</v>
       </c>
-      <c r="AP45" s="2">
+      <c r="AP45" s="10"/>
+      <c r="AQ45" s="10"/>
+      <c r="AR45" s="2">
         <v>42</v>
       </c>
-      <c r="AQ45" s="4" t="s">
+      <c r="AS45" s="4" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="46" spans="1:43">
+    <row r="46" spans="1:45">
       <c r="I46" s="2">
         <v>43</v>
       </c>
@@ -28074,14 +28192,16 @@
       <c r="AO46" s="10" t="s">
         <v>2674</v>
       </c>
-      <c r="AP46" s="2">
+      <c r="AP46" s="10"/>
+      <c r="AQ46" s="10"/>
+      <c r="AR46" s="2">
         <v>43</v>
       </c>
-      <c r="AQ46" s="4" t="s">
+      <c r="AS46" s="4" t="s">
         <v>1741</v>
       </c>
     </row>
-    <row r="47" spans="1:43">
+    <row r="47" spans="1:45">
       <c r="I47" s="2">
         <v>44</v>
       </c>
@@ -28119,14 +28239,16 @@
       <c r="AO47" s="10" t="s">
         <v>2673</v>
       </c>
-      <c r="AP47" s="2">
+      <c r="AP47" s="10"/>
+      <c r="AQ47" s="10"/>
+      <c r="AR47" s="2">
         <v>44</v>
       </c>
-      <c r="AQ47" s="4" t="s">
+      <c r="AS47" s="4" t="s">
         <v>1742</v>
       </c>
     </row>
-    <row r="48" spans="1:43">
+    <row r="48" spans="1:45">
       <c r="I48" s="2">
         <v>45</v>
       </c>
@@ -28164,14 +28286,16 @@
       <c r="AO48" s="10" t="s">
         <v>2672</v>
       </c>
-      <c r="AP48" s="2">
+      <c r="AP48" s="10"/>
+      <c r="AQ48" s="10"/>
+      <c r="AR48" s="2">
         <v>45</v>
       </c>
-      <c r="AQ48" s="4" t="s">
+      <c r="AS48" s="4" t="s">
         <v>1743</v>
       </c>
     </row>
-    <row r="49" spans="9:43">
+    <row r="49" spans="9:45">
       <c r="I49" s="2">
         <v>46</v>
       </c>
@@ -28209,14 +28333,16 @@
       <c r="AO49" s="10" t="s">
         <v>2671</v>
       </c>
-      <c r="AP49" s="2">
+      <c r="AP49" s="10"/>
+      <c r="AQ49" s="10"/>
+      <c r="AR49" s="2">
         <v>46</v>
       </c>
-      <c r="AQ49" s="4" t="s">
+      <c r="AS49" s="4" t="s">
         <v>1744</v>
       </c>
     </row>
-    <row r="50" spans="9:43">
+    <row r="50" spans="9:45">
       <c r="I50" s="2">
         <v>47</v>
       </c>
@@ -28254,14 +28380,16 @@
       <c r="AO50" s="10" t="s">
         <v>2670</v>
       </c>
-      <c r="AP50" s="2">
+      <c r="AP50" s="10"/>
+      <c r="AQ50" s="10"/>
+      <c r="AR50" s="2">
         <v>47</v>
       </c>
-      <c r="AQ50" s="4" t="s">
+      <c r="AS50" s="4" t="s">
         <v>1745</v>
       </c>
     </row>
-    <row r="51" spans="9:43">
+    <row r="51" spans="9:45">
       <c r="I51" s="2">
         <v>48</v>
       </c>
@@ -28299,14 +28427,16 @@
       <c r="AO51" s="10" t="s">
         <v>2668</v>
       </c>
-      <c r="AP51" s="2">
+      <c r="AP51" s="10"/>
+      <c r="AQ51" s="10"/>
+      <c r="AR51" s="2">
         <v>48</v>
       </c>
-      <c r="AQ51" s="4" t="s">
+      <c r="AS51" s="4" t="s">
         <v>1746</v>
       </c>
     </row>
-    <row r="52" spans="9:43">
+    <row r="52" spans="9:45">
       <c r="M52" s="2">
         <v>49</v>
       </c>
@@ -28338,14 +28468,16 @@
       <c r="AO52" s="10" t="s">
         <v>2667</v>
       </c>
-      <c r="AP52" s="2">
+      <c r="AP52" s="10"/>
+      <c r="AQ52" s="10"/>
+      <c r="AR52" s="2">
         <v>49</v>
       </c>
-      <c r="AQ52" s="4" t="s">
+      <c r="AS52" s="4" t="s">
         <v>1747</v>
       </c>
     </row>
-    <row r="53" spans="9:43">
+    <row r="53" spans="9:45">
       <c r="M53" s="2">
         <v>50</v>
       </c>
@@ -28377,14 +28509,16 @@
       <c r="AO53" s="10" t="s">
         <v>2666</v>
       </c>
-      <c r="AP53" s="2">
+      <c r="AP53" s="10"/>
+      <c r="AQ53" s="10"/>
+      <c r="AR53" s="2">
         <v>50</v>
       </c>
-      <c r="AQ53" s="4" t="s">
+      <c r="AS53" s="4" t="s">
         <v>1748</v>
       </c>
     </row>
-    <row r="54" spans="9:43">
+    <row r="54" spans="9:45">
       <c r="M54" s="2">
         <v>51</v>
       </c>
@@ -28416,14 +28550,16 @@
       <c r="AO54" s="10" t="s">
         <v>2665</v>
       </c>
-      <c r="AP54" s="2">
+      <c r="AP54" s="10"/>
+      <c r="AQ54" s="10"/>
+      <c r="AR54" s="2">
         <v>51</v>
       </c>
-      <c r="AQ54" s="4" t="s">
+      <c r="AS54" s="4" t="s">
         <v>1749</v>
       </c>
     </row>
-    <row r="55" spans="9:43">
+    <row r="55" spans="9:45">
       <c r="M55" s="2">
         <v>52</v>
       </c>
@@ -28455,14 +28591,16 @@
       <c r="AO55" s="10" t="s">
         <v>2664</v>
       </c>
-      <c r="AP55" s="2">
+      <c r="AP55" s="10"/>
+      <c r="AQ55" s="10"/>
+      <c r="AR55" s="2">
         <v>52</v>
       </c>
-      <c r="AQ55" s="4" t="s">
+      <c r="AS55" s="4" t="s">
         <v>1750</v>
       </c>
     </row>
-    <row r="56" spans="9:43">
+    <row r="56" spans="9:45">
       <c r="Z56" s="9">
         <v>53</v>
       </c>
@@ -28487,14 +28625,16 @@
       <c r="AO56" s="10" t="s">
         <v>2663</v>
       </c>
-      <c r="AP56" s="2">
+      <c r="AP56" s="10"/>
+      <c r="AQ56" s="10"/>
+      <c r="AR56" s="2">
         <v>53</v>
       </c>
-      <c r="AQ56" s="4" t="s">
+      <c r="AS56" s="4" t="s">
         <v>1751</v>
       </c>
     </row>
-    <row r="57" spans="9:43">
+    <row r="57" spans="9:45">
       <c r="Z57" s="9">
         <v>54</v>
       </c>
@@ -28519,14 +28659,16 @@
       <c r="AO57" s="10" t="s">
         <v>2662</v>
       </c>
-      <c r="AP57" s="2">
+      <c r="AP57" s="10"/>
+      <c r="AQ57" s="10"/>
+      <c r="AR57" s="2">
         <v>54</v>
       </c>
-      <c r="AQ57" s="4" t="s">
+      <c r="AS57" s="4" t="s">
         <v>1752</v>
       </c>
     </row>
-    <row r="58" spans="9:43">
+    <row r="58" spans="9:45">
       <c r="Z58" s="9">
         <v>55</v>
       </c>
@@ -28551,14 +28693,16 @@
       <c r="AO58" s="10" t="s">
         <v>2661</v>
       </c>
-      <c r="AP58" s="2">
+      <c r="AP58" s="10"/>
+      <c r="AQ58" s="10"/>
+      <c r="AR58" s="2">
         <v>55</v>
       </c>
-      <c r="AQ58" s="4" t="s">
+      <c r="AS58" s="4" t="s">
         <v>1753</v>
       </c>
     </row>
-    <row r="59" spans="9:43">
+    <row r="59" spans="9:45">
       <c r="Z59" s="9">
         <v>56</v>
       </c>
@@ -28577,14 +28721,16 @@
       <c r="AO59" s="10" t="s">
         <v>2660</v>
       </c>
-      <c r="AP59" s="2">
+      <c r="AP59" s="10"/>
+      <c r="AQ59" s="10"/>
+      <c r="AR59" s="2">
         <v>56</v>
       </c>
-      <c r="AQ59" s="4" t="s">
+      <c r="AS59" s="4" t="s">
         <v>1754</v>
       </c>
     </row>
-    <row r="60" spans="9:43">
+    <row r="60" spans="9:45">
       <c r="Z60" s="9">
         <v>57</v>
       </c>
@@ -28603,14 +28749,16 @@
       <c r="AO60" s="10" t="s">
         <v>2659</v>
       </c>
-      <c r="AP60" s="2">
+      <c r="AP60" s="10"/>
+      <c r="AQ60" s="10"/>
+      <c r="AR60" s="2">
         <v>57</v>
       </c>
-      <c r="AQ60" s="4" t="s">
+      <c r="AS60" s="4" t="s">
         <v>1755</v>
       </c>
     </row>
-    <row r="61" spans="9:43">
+    <row r="61" spans="9:45">
       <c r="AL61" s="2">
         <v>58</v>
       </c>
@@ -28623,14 +28771,16 @@
       <c r="AO61" s="10" t="s">
         <v>2658</v>
       </c>
-      <c r="AP61" s="2">
+      <c r="AP61" s="10"/>
+      <c r="AQ61" s="10"/>
+      <c r="AR61" s="2">
         <v>58</v>
       </c>
-      <c r="AQ61" s="4" t="s">
+      <c r="AS61" s="4" t="s">
         <v>1756</v>
       </c>
     </row>
-    <row r="62" spans="9:43">
+    <row r="62" spans="9:45">
       <c r="AL62" s="2">
         <v>59</v>
       </c>
@@ -28643,14 +28793,16 @@
       <c r="AO62" s="10" t="s">
         <v>2657</v>
       </c>
-      <c r="AP62" s="2">
+      <c r="AP62" s="10"/>
+      <c r="AQ62" s="10"/>
+      <c r="AR62" s="2">
         <v>59</v>
       </c>
-      <c r="AQ62" s="4" t="s">
+      <c r="AS62" s="4" t="s">
         <v>1757</v>
       </c>
     </row>
-    <row r="63" spans="9:43">
+    <row r="63" spans="9:45">
       <c r="AL63" s="2">
         <v>60</v>
       </c>
@@ -28663,14 +28815,16 @@
       <c r="AO63" s="10" t="s">
         <v>2656</v>
       </c>
-      <c r="AP63" s="2">
+      <c r="AP63" s="10"/>
+      <c r="AQ63" s="10"/>
+      <c r="AR63" s="2">
         <v>60</v>
       </c>
-      <c r="AQ63" s="4" t="s">
+      <c r="AS63" s="4" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="64" spans="9:43">
+    <row r="64" spans="9:45">
       <c r="AL64" s="2">
         <v>61</v>
       </c>
@@ -28683,14 +28837,16 @@
       <c r="AO64" s="10" t="s">
         <v>2655</v>
       </c>
-      <c r="AP64" s="2">
+      <c r="AP64" s="10"/>
+      <c r="AQ64" s="10"/>
+      <c r="AR64" s="2">
         <v>61</v>
       </c>
-      <c r="AQ64" s="4" t="s">
+      <c r="AS64" s="4" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="65" spans="38:43">
+    <row r="65" spans="38:45">
       <c r="AL65" s="2">
         <v>62</v>
       </c>
@@ -28703,14 +28859,16 @@
       <c r="AO65" s="10" t="s">
         <v>2654</v>
       </c>
-      <c r="AP65" s="2">
+      <c r="AP65" s="10"/>
+      <c r="AQ65" s="10"/>
+      <c r="AR65" s="2">
         <v>62</v>
       </c>
-      <c r="AQ65" s="4" t="s">
+      <c r="AS65" s="4" t="s">
         <v>1760</v>
       </c>
     </row>
-    <row r="66" spans="38:43">
+    <row r="66" spans="38:45">
       <c r="AL66" s="2">
         <v>63</v>
       </c>
@@ -28723,14 +28881,16 @@
       <c r="AO66" s="10" t="s">
         <v>2653</v>
       </c>
-      <c r="AP66" s="2">
+      <c r="AP66" s="10"/>
+      <c r="AQ66" s="10"/>
+      <c r="AR66" s="2">
         <v>63</v>
       </c>
-      <c r="AQ66" s="4" t="s">
+      <c r="AS66" s="4" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="67" spans="38:43">
+    <row r="67" spans="38:45">
       <c r="AL67" s="2">
         <v>64</v>
       </c>
@@ -28743,14 +28903,16 @@
       <c r="AO67" s="10" t="s">
         <v>2652</v>
       </c>
-      <c r="AP67" s="2">
+      <c r="AP67" s="10"/>
+      <c r="AQ67" s="10"/>
+      <c r="AR67" s="2">
         <v>64</v>
       </c>
-      <c r="AQ67" s="4" t="s">
+      <c r="AS67" s="4" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="68" spans="38:43">
+    <row r="68" spans="38:45">
       <c r="AL68" s="2">
         <v>65</v>
       </c>
@@ -28763,14 +28925,16 @@
       <c r="AO68" s="10" t="s">
         <v>2651</v>
       </c>
-      <c r="AP68" s="2">
+      <c r="AP68" s="10"/>
+      <c r="AQ68" s="10"/>
+      <c r="AR68" s="2">
         <v>65</v>
       </c>
-      <c r="AQ68" s="4" t="s">
+      <c r="AS68" s="4" t="s">
         <v>1762</v>
       </c>
     </row>
-    <row r="69" spans="38:43">
+    <row r="69" spans="38:45">
       <c r="AL69" s="2">
         <v>66</v>
       </c>
@@ -28783,14 +28947,16 @@
       <c r="AO69" s="10" t="s">
         <v>2650</v>
       </c>
-      <c r="AP69" s="2">
+      <c r="AP69" s="10"/>
+      <c r="AQ69" s="10"/>
+      <c r="AR69" s="2">
         <v>66</v>
       </c>
-      <c r="AQ69" s="4" t="s">
+      <c r="AS69" s="4" t="s">
         <v>1763</v>
       </c>
     </row>
-    <row r="70" spans="38:43">
+    <row r="70" spans="38:45">
       <c r="AL70" s="2">
         <v>67</v>
       </c>
@@ -28803,14 +28969,16 @@
       <c r="AO70" s="10" t="s">
         <v>2649</v>
       </c>
-      <c r="AP70" s="2">
+      <c r="AP70" s="10"/>
+      <c r="AQ70" s="10"/>
+      <c r="AR70" s="2">
         <v>67</v>
       </c>
-      <c r="AQ70" s="4" t="s">
+      <c r="AS70" s="4" t="s">
         <v>1764</v>
       </c>
     </row>
-    <row r="71" spans="38:43">
+    <row r="71" spans="38:45">
       <c r="AL71" s="2">
         <v>68</v>
       </c>
@@ -28823,14 +28991,16 @@
       <c r="AO71" s="10" t="s">
         <v>2648</v>
       </c>
-      <c r="AP71" s="2">
+      <c r="AP71" s="10"/>
+      <c r="AQ71" s="10"/>
+      <c r="AR71" s="2">
         <v>68</v>
       </c>
-      <c r="AQ71" s="4" t="s">
+      <c r="AS71" s="4" t="s">
         <v>1765</v>
       </c>
     </row>
-    <row r="72" spans="38:43">
+    <row r="72" spans="38:45">
       <c r="AL72" s="2">
         <v>69</v>
       </c>
@@ -28843,14 +29013,16 @@
       <c r="AO72" s="10" t="s">
         <v>2647</v>
       </c>
-      <c r="AP72" s="2">
+      <c r="AP72" s="10"/>
+      <c r="AQ72" s="10"/>
+      <c r="AR72" s="2">
         <v>69</v>
       </c>
-      <c r="AQ72" s="4" t="s">
+      <c r="AS72" s="4" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="73" spans="38:43">
+    <row r="73" spans="38:45">
       <c r="AL73" s="2">
         <v>70</v>
       </c>
@@ -28863,14 +29035,16 @@
       <c r="AO73" s="10" t="s">
         <v>2646</v>
       </c>
-      <c r="AP73" s="9">
+      <c r="AP73" s="10"/>
+      <c r="AQ73" s="10"/>
+      <c r="AR73" s="9">
         <v>70</v>
       </c>
-      <c r="AQ73" s="4" t="s">
+      <c r="AS73" s="4" t="s">
         <v>1767</v>
       </c>
     </row>
-    <row r="74" spans="38:43">
+    <row r="74" spans="38:45">
       <c r="AL74" s="2">
         <v>71</v>
       </c>
@@ -28883,14 +29057,16 @@
       <c r="AO74" s="10" t="s">
         <v>2645</v>
       </c>
-      <c r="AP74" s="9">
+      <c r="AP74" s="10"/>
+      <c r="AQ74" s="10"/>
+      <c r="AR74" s="9">
         <v>71</v>
       </c>
-      <c r="AQ74" s="4" t="s">
+      <c r="AS74" s="4" t="s">
         <v>1768</v>
       </c>
     </row>
-    <row r="75" spans="38:43">
+    <row r="75" spans="38:45">
       <c r="AL75" s="2">
         <v>72</v>
       </c>
@@ -28903,14 +29079,16 @@
       <c r="AO75" s="10" t="s">
         <v>2644</v>
       </c>
-      <c r="AP75" s="9">
+      <c r="AP75" s="10"/>
+      <c r="AQ75" s="10"/>
+      <c r="AR75" s="9">
         <v>72</v>
       </c>
-      <c r="AQ75" s="4" t="s">
+      <c r="AS75" s="4" t="s">
         <v>1769</v>
       </c>
     </row>
-    <row r="76" spans="38:43">
+    <row r="76" spans="38:45">
       <c r="AL76" s="2">
         <v>73</v>
       </c>
@@ -28923,14 +29101,16 @@
       <c r="AO76" s="10" t="s">
         <v>2643</v>
       </c>
-      <c r="AP76" s="9">
+      <c r="AP76" s="10"/>
+      <c r="AQ76" s="10"/>
+      <c r="AR76" s="9">
         <v>73</v>
       </c>
-      <c r="AQ76" s="4" t="s">
+      <c r="AS76" s="4" t="s">
         <v>1770</v>
       </c>
     </row>
-    <row r="77" spans="38:43">
+    <row r="77" spans="38:45">
       <c r="AL77" s="2">
         <v>74</v>
       </c>
@@ -28943,14 +29123,16 @@
       <c r="AO77" s="10" t="s">
         <v>2642</v>
       </c>
-      <c r="AP77" s="9">
+      <c r="AP77" s="10"/>
+      <c r="AQ77" s="10"/>
+      <c r="AR77" s="9">
         <v>74</v>
       </c>
-      <c r="AQ77" s="4" t="s">
+      <c r="AS77" s="4" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="78" spans="38:43">
+    <row r="78" spans="38:45">
       <c r="AL78" s="2">
         <v>75</v>
       </c>
@@ -28963,14 +29145,16 @@
       <c r="AO78" s="10" t="s">
         <v>2641</v>
       </c>
-      <c r="AP78" s="9">
+      <c r="AP78" s="10"/>
+      <c r="AQ78" s="10"/>
+      <c r="AR78" s="9">
         <v>75</v>
       </c>
-      <c r="AQ78" s="4" t="s">
+      <c r="AS78" s="4" t="s">
         <v>1772</v>
       </c>
     </row>
-    <row r="79" spans="38:43">
+    <row r="79" spans="38:45">
       <c r="AL79" s="2">
         <v>76</v>
       </c>
@@ -28983,14 +29167,16 @@
       <c r="AO79" s="10" t="s">
         <v>2640</v>
       </c>
-      <c r="AP79" s="9">
+      <c r="AP79" s="10"/>
+      <c r="AQ79" s="10"/>
+      <c r="AR79" s="9">
         <v>76</v>
       </c>
-      <c r="AQ79" s="4" t="s">
+      <c r="AS79" s="4" t="s">
         <v>1773</v>
       </c>
     </row>
-    <row r="80" spans="38:43">
+    <row r="80" spans="38:45">
       <c r="AL80" s="2">
         <v>77</v>
       </c>
@@ -29003,14 +29189,16 @@
       <c r="AO80" s="10" t="s">
         <v>2639</v>
       </c>
-      <c r="AP80" s="9">
+      <c r="AP80" s="10"/>
+      <c r="AQ80" s="10"/>
+      <c r="AR80" s="9">
         <v>77</v>
       </c>
-      <c r="AQ80" s="4" t="s">
+      <c r="AS80" s="4" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="81" spans="38:43">
+    <row r="81" spans="38:45">
       <c r="AL81" s="2">
         <v>78</v>
       </c>
@@ -29023,14 +29211,16 @@
       <c r="AO81" s="10" t="s">
         <v>2638</v>
       </c>
-      <c r="AP81" s="9">
+      <c r="AP81" s="10"/>
+      <c r="AQ81" s="10"/>
+      <c r="AR81" s="9">
         <v>78</v>
       </c>
-      <c r="AQ81" s="4" t="s">
+      <c r="AS81" s="4" t="s">
         <v>1775</v>
       </c>
     </row>
-    <row r="82" spans="38:43">
+    <row r="82" spans="38:45">
       <c r="AL82" s="2">
         <v>79</v>
       </c>
@@ -29043,14 +29233,16 @@
       <c r="AO82" s="10" t="s">
         <v>2637</v>
       </c>
-      <c r="AP82" s="9">
+      <c r="AP82" s="10"/>
+      <c r="AQ82" s="10"/>
+      <c r="AR82" s="9">
         <v>79</v>
       </c>
-      <c r="AQ82" s="4" t="s">
+      <c r="AS82" s="4" t="s">
         <v>1776</v>
       </c>
     </row>
-    <row r="83" spans="38:43">
+    <row r="83" spans="38:45">
       <c r="AL83" s="2">
         <v>80</v>
       </c>
@@ -29063,14 +29255,16 @@
       <c r="AO83" s="10" t="s">
         <v>2636</v>
       </c>
-      <c r="AP83" s="9">
+      <c r="AP83" s="10"/>
+      <c r="AQ83" s="10"/>
+      <c r="AR83" s="9">
         <v>80</v>
       </c>
-      <c r="AQ83" s="4" t="s">
+      <c r="AS83" s="4" t="s">
         <v>1777</v>
       </c>
     </row>
-    <row r="84" spans="38:43">
+    <row r="84" spans="38:45">
       <c r="AL84" s="2">
         <v>81</v>
       </c>
@@ -29083,14 +29277,16 @@
       <c r="AO84" s="10" t="s">
         <v>2635</v>
       </c>
-      <c r="AP84" s="9">
+      <c r="AP84" s="10"/>
+      <c r="AQ84" s="10"/>
+      <c r="AR84" s="9">
         <v>81</v>
       </c>
-      <c r="AQ84" s="4" t="s">
+      <c r="AS84" s="4" t="s">
         <v>1778</v>
       </c>
     </row>
-    <row r="85" spans="38:43">
+    <row r="85" spans="38:45">
       <c r="AL85" s="2">
         <v>82</v>
       </c>
@@ -29103,14 +29299,16 @@
       <c r="AO85" s="10" t="s">
         <v>2634</v>
       </c>
-      <c r="AP85" s="9">
+      <c r="AP85" s="10"/>
+      <c r="AQ85" s="10"/>
+      <c r="AR85" s="9">
         <v>82</v>
       </c>
-      <c r="AQ85" s="4" t="s">
+      <c r="AS85" s="4" t="s">
         <v>1779</v>
       </c>
     </row>
-    <row r="86" spans="38:43">
+    <row r="86" spans="38:45">
       <c r="AL86" s="2">
         <v>83</v>
       </c>
@@ -29123,14 +29321,16 @@
       <c r="AO86" s="10" t="s">
         <v>2633</v>
       </c>
-      <c r="AP86" s="9">
+      <c r="AP86" s="10"/>
+      <c r="AQ86" s="10"/>
+      <c r="AR86" s="9">
         <v>83</v>
       </c>
-      <c r="AQ86" s="4" t="s">
+      <c r="AS86" s="4" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="87" spans="38:43">
+    <row r="87" spans="38:45">
       <c r="AL87" s="2">
         <v>84</v>
       </c>
@@ -29143,14 +29343,16 @@
       <c r="AO87" s="10" t="s">
         <v>2632</v>
       </c>
-      <c r="AP87" s="9">
+      <c r="AP87" s="10"/>
+      <c r="AQ87" s="10"/>
+      <c r="AR87" s="9">
         <v>84</v>
       </c>
-      <c r="AQ87" s="4" t="s">
+      <c r="AS87" s="4" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="88" spans="38:43">
+    <row r="88" spans="38:45">
       <c r="AL88" s="2">
         <v>85</v>
       </c>
@@ -29163,14 +29365,16 @@
       <c r="AO88" s="10" t="s">
         <v>2631</v>
       </c>
-      <c r="AP88" s="9">
+      <c r="AP88" s="10"/>
+      <c r="AQ88" s="10"/>
+      <c r="AR88" s="9">
         <v>85</v>
       </c>
-      <c r="AQ88" s="4" t="s">
+      <c r="AS88" s="4" t="s">
         <v>1781</v>
       </c>
     </row>
-    <row r="89" spans="38:43">
+    <row r="89" spans="38:45">
       <c r="AL89" s="2">
         <v>86</v>
       </c>
@@ -29183,14 +29387,16 @@
       <c r="AO89" s="10" t="s">
         <v>2630</v>
       </c>
-      <c r="AP89" s="9">
+      <c r="AP89" s="10"/>
+      <c r="AQ89" s="10"/>
+      <c r="AR89" s="9">
         <v>86</v>
       </c>
-      <c r="AQ89" s="4" t="s">
+      <c r="AS89" s="4" t="s">
         <v>1782</v>
       </c>
     </row>
-    <row r="90" spans="38:43">
+    <row r="90" spans="38:45">
       <c r="AL90" s="2">
         <v>87</v>
       </c>
@@ -29203,14 +29409,16 @@
       <c r="AO90" s="10" t="s">
         <v>2629</v>
       </c>
-      <c r="AP90" s="9">
+      <c r="AP90" s="10"/>
+      <c r="AQ90" s="10"/>
+      <c r="AR90" s="9">
         <v>87</v>
       </c>
-      <c r="AQ90" s="4" t="s">
+      <c r="AS90" s="4" t="s">
         <v>1783</v>
       </c>
     </row>
-    <row r="91" spans="38:43">
+    <row r="91" spans="38:45">
       <c r="AL91" s="2">
         <v>88</v>
       </c>
@@ -29223,14 +29431,16 @@
       <c r="AO91" s="10" t="s">
         <v>2628</v>
       </c>
-      <c r="AP91" s="9">
+      <c r="AP91" s="10"/>
+      <c r="AQ91" s="10"/>
+      <c r="AR91" s="9">
         <v>88</v>
       </c>
-      <c r="AQ91" s="4" t="s">
+      <c r="AS91" s="4" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="92" spans="38:43">
+    <row r="92" spans="38:45">
       <c r="AL92" s="2">
         <v>89</v>
       </c>
@@ -29243,994 +29453,1164 @@
       <c r="AO92" s="10" t="s">
         <v>2627</v>
       </c>
-      <c r="AP92" s="9">
+      <c r="AP92" s="10"/>
+      <c r="AQ92" s="10"/>
+      <c r="AR92" s="9">
         <v>89</v>
       </c>
-      <c r="AQ92" s="4" t="s">
+      <c r="AS92" s="4" t="s">
         <v>1785</v>
       </c>
     </row>
-    <row r="93" spans="38:43">
+    <row r="93" spans="38:45">
       <c r="AN93" s="2">
         <v>90</v>
       </c>
       <c r="AO93" s="10" t="s">
         <v>2626</v>
       </c>
-      <c r="AP93" s="9">
+      <c r="AP93" s="10"/>
+      <c r="AQ93" s="10"/>
+      <c r="AR93" s="9">
         <v>90</v>
       </c>
-      <c r="AQ93" s="4" t="s">
+      <c r="AS93" s="4" t="s">
         <v>1786</v>
       </c>
     </row>
-    <row r="94" spans="38:43">
+    <row r="94" spans="38:45">
       <c r="AN94" s="2">
         <v>91</v>
       </c>
       <c r="AO94" s="10" t="s">
         <v>2625</v>
       </c>
-      <c r="AP94" s="9">
+      <c r="AP94" s="10"/>
+      <c r="AQ94" s="10"/>
+      <c r="AR94" s="9">
         <v>91</v>
       </c>
-      <c r="AQ94" s="4" t="s">
+      <c r="AS94" s="4" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="95" spans="38:43">
+    <row r="95" spans="38:45">
       <c r="AN95" s="2">
         <v>92</v>
       </c>
       <c r="AO95" s="10" t="s">
         <v>2624</v>
       </c>
-      <c r="AP95" s="2">
+      <c r="AP95" s="10"/>
+      <c r="AQ95" s="10"/>
+      <c r="AR95" s="2">
         <v>92</v>
       </c>
-      <c r="AQ95" s="4" t="s">
+      <c r="AS95" s="4" t="s">
         <v>1788</v>
       </c>
     </row>
-    <row r="96" spans="38:43">
+    <row r="96" spans="38:45">
       <c r="AN96" s="2">
         <v>93</v>
       </c>
       <c r="AO96" s="10" t="s">
         <v>2623</v>
       </c>
-      <c r="AP96" s="2">
+      <c r="AP96" s="10"/>
+      <c r="AQ96" s="10"/>
+      <c r="AR96" s="2">
         <v>93</v>
       </c>
-      <c r="AQ96" s="4" t="s">
+      <c r="AS96" s="4" t="s">
         <v>1789</v>
       </c>
     </row>
-    <row r="97" spans="40:43">
+    <row r="97" spans="40:45">
       <c r="AN97" s="2">
         <v>94</v>
       </c>
       <c r="AO97" s="10" t="s">
         <v>2622</v>
       </c>
-      <c r="AP97" s="2">
+      <c r="AP97" s="10"/>
+      <c r="AQ97" s="10"/>
+      <c r="AR97" s="2">
         <v>94</v>
       </c>
-      <c r="AQ97" s="4" t="s">
+      <c r="AS97" s="4" t="s">
         <v>1790</v>
       </c>
     </row>
-    <row r="98" spans="40:43">
+    <row r="98" spans="40:45">
       <c r="AN98" s="2">
         <v>95</v>
       </c>
       <c r="AO98" s="10" t="s">
         <v>2621</v>
       </c>
-      <c r="AP98" s="2">
+      <c r="AP98" s="10"/>
+      <c r="AQ98" s="10"/>
+      <c r="AR98" s="2">
         <v>95</v>
       </c>
-      <c r="AQ98" s="4" t="s">
+      <c r="AS98" s="4" t="s">
         <v>1790</v>
       </c>
     </row>
-    <row r="99" spans="40:43">
+    <row r="99" spans="40:45">
       <c r="AN99" s="2">
         <v>96</v>
       </c>
       <c r="AO99" s="10" t="s">
         <v>1129</v>
       </c>
-      <c r="AP99" s="2">
+      <c r="AP99" s="10"/>
+      <c r="AQ99" s="10"/>
+      <c r="AR99" s="2">
         <v>96</v>
       </c>
-      <c r="AQ99" s="4" t="s">
+      <c r="AS99" s="4" t="s">
         <v>1791</v>
       </c>
     </row>
-    <row r="100" spans="40:43">
+    <row r="100" spans="40:45">
       <c r="AN100" s="2">
         <v>97</v>
       </c>
       <c r="AO100" s="10" t="s">
         <v>2620</v>
       </c>
-      <c r="AP100" s="2">
+      <c r="AP100" s="10"/>
+      <c r="AQ100" s="10"/>
+      <c r="AR100" s="2">
         <v>97</v>
       </c>
-      <c r="AQ100" s="4" t="s">
+      <c r="AS100" s="4" t="s">
         <v>1792</v>
       </c>
     </row>
-    <row r="101" spans="40:43">
+    <row r="101" spans="40:45">
       <c r="AN101" s="2">
         <v>98</v>
       </c>
       <c r="AO101" s="10" t="s">
         <v>2619</v>
       </c>
-      <c r="AP101" s="2">
+      <c r="AP101" s="10"/>
+      <c r="AQ101" s="10"/>
+      <c r="AR101" s="2">
         <v>98</v>
       </c>
-      <c r="AQ101" s="4" t="s">
+      <c r="AS101" s="4" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="102" spans="40:43">
+    <row r="102" spans="40:45">
       <c r="AN102" s="2">
         <v>99</v>
       </c>
       <c r="AO102" s="10" t="s">
         <v>2618</v>
       </c>
-      <c r="AP102" s="2">
+      <c r="AP102" s="10"/>
+      <c r="AQ102" s="10"/>
+      <c r="AR102" s="2">
         <v>99</v>
       </c>
-      <c r="AQ102" s="4" t="s">
+      <c r="AS102" s="4" t="s">
         <v>1794</v>
       </c>
     </row>
-    <row r="103" spans="40:43">
+    <row r="103" spans="40:45">
       <c r="AN103" s="2">
         <v>100</v>
       </c>
       <c r="AO103" s="10" t="s">
         <v>2617</v>
       </c>
-      <c r="AP103" s="2">
+      <c r="AP103" s="10"/>
+      <c r="AQ103" s="10"/>
+      <c r="AR103" s="2">
         <v>100</v>
       </c>
-      <c r="AQ103" s="4" t="s">
+      <c r="AS103" s="4" t="s">
         <v>1795</v>
       </c>
     </row>
-    <row r="104" spans="40:43">
+    <row r="104" spans="40:45">
       <c r="AN104" s="2">
         <v>101</v>
       </c>
       <c r="AO104" s="10" t="s">
         <v>2616</v>
       </c>
-      <c r="AP104" s="2">
+      <c r="AP104" s="10"/>
+      <c r="AQ104" s="10"/>
+      <c r="AR104" s="2">
         <v>101</v>
       </c>
-      <c r="AQ104" s="4" t="s">
+      <c r="AS104" s="4" t="s">
         <v>1796</v>
       </c>
     </row>
-    <row r="105" spans="40:43">
+    <row r="105" spans="40:45">
       <c r="AN105" s="2">
         <v>102</v>
       </c>
       <c r="AO105" s="10" t="s">
         <v>2615</v>
       </c>
-      <c r="AP105" s="2">
+      <c r="AP105" s="10"/>
+      <c r="AQ105" s="10"/>
+      <c r="AR105" s="2">
         <v>102</v>
       </c>
-      <c r="AQ105" s="4" t="s">
+      <c r="AS105" s="4" t="s">
         <v>1797</v>
       </c>
     </row>
-    <row r="106" spans="40:43">
+    <row r="106" spans="40:45">
       <c r="AN106" s="2">
         <v>103</v>
       </c>
       <c r="AO106" s="10" t="s">
         <v>2614</v>
       </c>
-      <c r="AP106" s="2">
+      <c r="AP106" s="10"/>
+      <c r="AQ106" s="10"/>
+      <c r="AR106" s="2">
         <v>103</v>
       </c>
-      <c r="AQ106" s="4" t="s">
+      <c r="AS106" s="4" t="s">
         <v>1798</v>
       </c>
     </row>
-    <row r="107" spans="40:43">
+    <row r="107" spans="40:45">
       <c r="AN107" s="2">
         <v>104</v>
       </c>
       <c r="AO107" s="10" t="s">
         <v>2613</v>
       </c>
-      <c r="AP107" s="2">
+      <c r="AP107" s="10"/>
+      <c r="AQ107" s="10"/>
+      <c r="AR107" s="2">
         <v>104</v>
       </c>
-      <c r="AQ107" s="4" t="s">
+      <c r="AS107" s="4" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="108" spans="40:43">
+    <row r="108" spans="40:45">
       <c r="AN108" s="2">
         <v>105</v>
       </c>
       <c r="AO108" s="10" t="s">
         <v>2612</v>
       </c>
-      <c r="AP108" s="2">
+      <c r="AP108" s="10"/>
+      <c r="AQ108" s="10"/>
+      <c r="AR108" s="2">
         <v>105</v>
       </c>
-      <c r="AQ108" s="4" t="s">
+      <c r="AS108" s="4" t="s">
         <v>1799</v>
       </c>
     </row>
-    <row r="109" spans="40:43">
+    <row r="109" spans="40:45">
       <c r="AN109" s="2">
         <v>106</v>
       </c>
       <c r="AO109" s="10" t="s">
         <v>2611</v>
       </c>
-      <c r="AP109" s="2">
+      <c r="AP109" s="10"/>
+      <c r="AQ109" s="10"/>
+      <c r="AR109" s="2">
         <v>106</v>
       </c>
-      <c r="AQ109" s="4" t="s">
+      <c r="AS109" s="4" t="s">
         <v>1800</v>
       </c>
     </row>
-    <row r="110" spans="40:43">
+    <row r="110" spans="40:45">
       <c r="AN110" s="2">
         <v>107</v>
       </c>
       <c r="AO110" s="10" t="s">
         <v>2610</v>
       </c>
-      <c r="AP110" s="2">
+      <c r="AP110" s="10"/>
+      <c r="AQ110" s="10"/>
+      <c r="AR110" s="2">
         <v>107</v>
       </c>
-      <c r="AQ110" s="4" t="s">
+      <c r="AS110" s="4" t="s">
         <v>1801</v>
       </c>
     </row>
-    <row r="111" spans="40:43">
+    <row r="111" spans="40:45">
       <c r="AN111" s="2">
         <v>108</v>
       </c>
       <c r="AO111" s="10" t="s">
         <v>2609</v>
       </c>
-      <c r="AP111" s="2">
+      <c r="AP111" s="10"/>
+      <c r="AQ111" s="10"/>
+      <c r="AR111" s="2">
         <v>108</v>
       </c>
-      <c r="AQ111" s="4" t="s">
+      <c r="AS111" s="4" t="s">
         <v>1802</v>
       </c>
     </row>
-    <row r="112" spans="40:43">
+    <row r="112" spans="40:45">
       <c r="AN112" s="2">
         <v>109</v>
       </c>
       <c r="AO112" s="10" t="s">
         <v>2608</v>
       </c>
-      <c r="AP112" s="2">
+      <c r="AP112" s="10"/>
+      <c r="AQ112" s="10"/>
+      <c r="AR112" s="2">
         <v>109</v>
       </c>
-      <c r="AQ112" s="4" t="s">
+      <c r="AS112" s="4" t="s">
         <v>1803</v>
       </c>
     </row>
-    <row r="113" spans="40:43">
+    <row r="113" spans="40:45">
       <c r="AN113" s="2">
         <v>110</v>
       </c>
       <c r="AO113" s="10" t="s">
         <v>2607</v>
       </c>
-      <c r="AP113" s="2">
+      <c r="AP113" s="10"/>
+      <c r="AQ113" s="10"/>
+      <c r="AR113" s="2">
         <v>110</v>
       </c>
-      <c r="AQ113" s="4" t="s">
+      <c r="AS113" s="4" t="s">
         <v>1804</v>
       </c>
     </row>
-    <row r="114" spans="40:43">
+    <row r="114" spans="40:45">
       <c r="AN114" s="2">
         <v>111</v>
       </c>
       <c r="AO114" s="10" t="s">
         <v>2606</v>
       </c>
-      <c r="AP114" s="2">
+      <c r="AP114" s="10"/>
+      <c r="AQ114" s="10"/>
+      <c r="AR114" s="2">
         <v>111</v>
       </c>
-      <c r="AQ114" s="4" t="s">
+      <c r="AS114" s="4" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="115" spans="40:43">
+    <row r="115" spans="40:45">
       <c r="AN115" s="2">
         <v>112</v>
       </c>
       <c r="AO115" s="10" t="s">
         <v>2605</v>
       </c>
-      <c r="AP115" s="2">
+      <c r="AP115" s="10"/>
+      <c r="AQ115" s="10"/>
+      <c r="AR115" s="2">
         <v>112</v>
       </c>
-      <c r="AQ115" s="4" t="s">
+      <c r="AS115" s="4" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="116" spans="40:43">
+    <row r="116" spans="40:45">
       <c r="AN116" s="2">
         <v>113</v>
       </c>
       <c r="AO116" s="10" t="s">
         <v>2604</v>
       </c>
-      <c r="AP116" s="2">
+      <c r="AP116" s="10"/>
+      <c r="AQ116" s="10"/>
+      <c r="AR116" s="2">
         <v>113</v>
       </c>
-      <c r="AQ116" s="4" t="s">
+      <c r="AS116" s="4" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="117" spans="40:43">
+    <row r="117" spans="40:45">
       <c r="AN117" s="2">
         <v>114</v>
       </c>
       <c r="AO117" s="10" t="s">
         <v>2603</v>
       </c>
-      <c r="AP117" s="2">
+      <c r="AP117" s="10"/>
+      <c r="AQ117" s="10"/>
+      <c r="AR117" s="2">
         <v>114</v>
       </c>
-      <c r="AQ117" s="4" t="s">
+      <c r="AS117" s="4" t="s">
         <v>1806</v>
       </c>
     </row>
-    <row r="118" spans="40:43">
+    <row r="118" spans="40:45">
       <c r="AN118" s="2">
         <v>115</v>
       </c>
       <c r="AO118" s="10" t="s">
         <v>2602</v>
       </c>
-      <c r="AP118" s="2">
+      <c r="AP118" s="10"/>
+      <c r="AQ118" s="10"/>
+      <c r="AR118" s="2">
         <v>115</v>
       </c>
-      <c r="AQ118" s="4" t="s">
+      <c r="AS118" s="4" t="s">
         <v>1807</v>
       </c>
     </row>
-    <row r="119" spans="40:43">
+    <row r="119" spans="40:45">
       <c r="AN119" s="2">
         <v>116</v>
       </c>
       <c r="AO119" s="10" t="s">
         <v>2601</v>
       </c>
-      <c r="AP119" s="2">
+      <c r="AP119" s="10"/>
+      <c r="AQ119" s="10"/>
+      <c r="AR119" s="2">
         <v>116</v>
       </c>
-      <c r="AQ119" s="4" t="s">
+      <c r="AS119" s="4" t="s">
         <v>1808</v>
       </c>
     </row>
-    <row r="120" spans="40:43">
+    <row r="120" spans="40:45">
       <c r="AN120" s="2">
         <v>117</v>
       </c>
       <c r="AO120" s="10" t="s">
         <v>2600</v>
       </c>
-      <c r="AP120" s="9">
+      <c r="AP120" s="10"/>
+      <c r="AQ120" s="10"/>
+      <c r="AR120" s="9">
         <v>117</v>
       </c>
-      <c r="AQ120" s="4" t="s">
+      <c r="AS120" s="4" t="s">
         <v>1809</v>
       </c>
     </row>
-    <row r="121" spans="40:43">
+    <row r="121" spans="40:45">
       <c r="AN121" s="2">
         <v>118</v>
       </c>
       <c r="AO121" s="10" t="s">
         <v>2599</v>
       </c>
-      <c r="AP121" s="9">
+      <c r="AP121" s="10"/>
+      <c r="AQ121" s="10"/>
+      <c r="AR121" s="9">
         <v>118</v>
       </c>
-      <c r="AQ121" s="4" t="s">
+      <c r="AS121" s="4" t="s">
         <v>1810</v>
       </c>
     </row>
-    <row r="122" spans="40:43">
+    <row r="122" spans="40:45">
       <c r="AN122" s="2">
         <v>119</v>
       </c>
       <c r="AO122" s="10" t="s">
         <v>2598</v>
       </c>
-      <c r="AP122" s="9">
+      <c r="AP122" s="10"/>
+      <c r="AQ122" s="10"/>
+      <c r="AR122" s="9">
         <v>119</v>
       </c>
-      <c r="AQ122" s="4" t="s">
+      <c r="AS122" s="4" t="s">
         <v>1811</v>
       </c>
     </row>
-    <row r="123" spans="40:43">
+    <row r="123" spans="40:45">
       <c r="AN123" s="2">
         <v>120</v>
       </c>
       <c r="AO123" s="10" t="s">
         <v>2597</v>
       </c>
-      <c r="AP123" s="9">
+      <c r="AP123" s="10"/>
+      <c r="AQ123" s="10"/>
+      <c r="AR123" s="9">
         <v>120</v>
       </c>
-      <c r="AQ123" s="4" t="s">
+      <c r="AS123" s="4" t="s">
         <v>1812</v>
       </c>
     </row>
-    <row r="124" spans="40:43">
+    <row r="124" spans="40:45">
       <c r="AN124" s="2">
         <v>121</v>
       </c>
       <c r="AO124" s="10" t="s">
         <v>2596</v>
       </c>
-      <c r="AP124" s="9">
+      <c r="AP124" s="10"/>
+      <c r="AQ124" s="10"/>
+      <c r="AR124" s="9">
         <v>121</v>
       </c>
-      <c r="AQ124" s="4" t="s">
+      <c r="AS124" s="4" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="125" spans="40:43">
+    <row r="125" spans="40:45">
       <c r="AN125" s="2">
         <v>122</v>
       </c>
       <c r="AO125" s="10" t="s">
         <v>2595</v>
       </c>
-      <c r="AP125" s="9">
+      <c r="AP125" s="10"/>
+      <c r="AQ125" s="10"/>
+      <c r="AR125" s="9">
         <v>122</v>
       </c>
-      <c r="AQ125" s="4" t="s">
+      <c r="AS125" s="4" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="126" spans="40:43">
+    <row r="126" spans="40:45">
       <c r="AN126" s="2">
         <v>123</v>
       </c>
       <c r="AO126" s="10" t="s">
         <v>2594</v>
       </c>
-      <c r="AP126" s="9">
+      <c r="AP126" s="10"/>
+      <c r="AQ126" s="10"/>
+      <c r="AR126" s="9">
         <v>123</v>
       </c>
-      <c r="AQ126" s="4" t="s">
+      <c r="AS126" s="4" t="s">
         <v>1814</v>
       </c>
     </row>
-    <row r="127" spans="40:43">
+    <row r="127" spans="40:45">
       <c r="AN127" s="2">
         <v>124</v>
       </c>
       <c r="AO127" s="10" t="s">
         <v>2593</v>
       </c>
-      <c r="AP127" s="9">
+      <c r="AP127" s="10"/>
+      <c r="AQ127" s="10"/>
+      <c r="AR127" s="9">
         <v>124</v>
       </c>
-      <c r="AQ127" s="4" t="s">
+      <c r="AS127" s="4" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="128" spans="40:43">
+    <row r="128" spans="40:45">
       <c r="AN128" s="2">
         <v>125</v>
       </c>
       <c r="AO128" s="10" t="s">
         <v>2592</v>
       </c>
-      <c r="AP128" s="9">
+      <c r="AP128" s="10"/>
+      <c r="AQ128" s="10"/>
+      <c r="AR128" s="9">
         <v>125</v>
       </c>
-      <c r="AQ128" s="4" t="s">
+      <c r="AS128" s="4" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="129" spans="40:43">
+    <row r="129" spans="40:45">
       <c r="AN129" s="2">
         <v>126</v>
       </c>
       <c r="AO129" s="10" t="s">
         <v>2591</v>
       </c>
-      <c r="AP129" s="9">
+      <c r="AP129" s="10"/>
+      <c r="AQ129" s="10"/>
+      <c r="AR129" s="9">
         <v>126</v>
       </c>
-      <c r="AQ129" s="4" t="s">
+      <c r="AS129" s="4" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="130" spans="40:43">
+    <row r="130" spans="40:45">
       <c r="AN130" s="2">
         <v>127</v>
       </c>
       <c r="AO130" s="10" t="s">
         <v>2590</v>
       </c>
-      <c r="AP130" s="9">
+      <c r="AP130" s="10"/>
+      <c r="AQ130" s="10"/>
+      <c r="AR130" s="9">
         <v>127</v>
       </c>
-      <c r="AQ130" s="4" t="s">
+      <c r="AS130" s="4" t="s">
         <v>1815</v>
       </c>
     </row>
-    <row r="131" spans="40:43">
+    <row r="131" spans="40:45">
       <c r="AN131" s="2">
         <v>128</v>
       </c>
       <c r="AO131" s="10" t="s">
         <v>2589</v>
       </c>
-      <c r="AP131" s="9">
+      <c r="AP131" s="10"/>
+      <c r="AQ131" s="10"/>
+      <c r="AR131" s="9">
         <v>128</v>
       </c>
-      <c r="AQ131" s="4" t="s">
+      <c r="AS131" s="4" t="s">
         <v>1816</v>
       </c>
     </row>
-    <row r="132" spans="40:43">
+    <row r="132" spans="40:45">
       <c r="AN132" s="2">
         <v>129</v>
       </c>
       <c r="AO132" s="10" t="s">
         <v>2588</v>
       </c>
-      <c r="AP132" s="9">
+      <c r="AP132" s="10"/>
+      <c r="AQ132" s="10"/>
+      <c r="AR132" s="9">
         <v>129</v>
       </c>
-      <c r="AQ132" s="4" t="s">
+      <c r="AS132" s="4" t="s">
         <v>1817</v>
       </c>
     </row>
-    <row r="133" spans="40:43">
+    <row r="133" spans="40:45">
       <c r="AN133" s="2">
         <v>130</v>
       </c>
       <c r="AO133" s="10" t="s">
         <v>2587</v>
       </c>
-      <c r="AP133" s="9">
+      <c r="AP133" s="10"/>
+      <c r="AQ133" s="10"/>
+      <c r="AR133" s="9">
         <v>130</v>
       </c>
-      <c r="AQ133" s="4" t="s">
+      <c r="AS133" s="4" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="134" spans="40:43">
+    <row r="134" spans="40:45">
       <c r="AN134" s="2">
         <v>131</v>
       </c>
       <c r="AO134" s="10" t="s">
         <v>2586</v>
       </c>
-      <c r="AP134" s="9">
+      <c r="AP134" s="10"/>
+      <c r="AQ134" s="10"/>
+      <c r="AR134" s="9">
         <v>131</v>
       </c>
-      <c r="AQ134" s="4" t="s">
+      <c r="AS134" s="4" t="s">
         <v>1819</v>
       </c>
     </row>
-    <row r="135" spans="40:43">
+    <row r="135" spans="40:45">
       <c r="AN135" s="2">
         <v>132</v>
       </c>
       <c r="AO135" s="10" t="s">
         <v>2585</v>
       </c>
-      <c r="AP135" s="9">
+      <c r="AP135" s="10"/>
+      <c r="AQ135" s="10"/>
+      <c r="AR135" s="9">
         <v>132</v>
       </c>
-      <c r="AQ135" s="4" t="s">
+      <c r="AS135" s="4" t="s">
         <v>1820</v>
       </c>
     </row>
-    <row r="136" spans="40:43">
+    <row r="136" spans="40:45">
       <c r="AN136" s="2">
         <v>133</v>
       </c>
       <c r="AO136" s="10" t="s">
         <v>2584</v>
       </c>
-      <c r="AP136" s="9">
+      <c r="AP136" s="10"/>
+      <c r="AQ136" s="10"/>
+      <c r="AR136" s="9">
         <v>133</v>
       </c>
-      <c r="AQ136" s="4" t="s">
+      <c r="AS136" s="4" t="s">
         <v>1821</v>
       </c>
     </row>
-    <row r="137" spans="40:43">
+    <row r="137" spans="40:45">
       <c r="AN137" s="2">
         <v>134</v>
       </c>
       <c r="AO137" s="10" t="s">
         <v>2583</v>
       </c>
-      <c r="AP137" s="9">
+      <c r="AP137" s="10"/>
+      <c r="AQ137" s="10"/>
+      <c r="AR137" s="9">
         <v>134</v>
       </c>
-      <c r="AQ137" s="4" t="s">
+      <c r="AS137" s="4" t="s">
         <v>1822</v>
       </c>
     </row>
-    <row r="138" spans="40:43">
+    <row r="138" spans="40:45">
       <c r="AN138" s="2">
         <v>135</v>
       </c>
       <c r="AO138" s="10" t="s">
         <v>2582</v>
       </c>
-      <c r="AP138" s="9">
+      <c r="AP138" s="10"/>
+      <c r="AQ138" s="10"/>
+      <c r="AR138" s="9">
         <v>135</v>
       </c>
-      <c r="AQ138" s="4" t="s">
+      <c r="AS138" s="4" t="s">
         <v>1823</v>
       </c>
     </row>
-    <row r="139" spans="40:43">
+    <row r="139" spans="40:45">
       <c r="AN139" s="2">
         <v>136</v>
       </c>
       <c r="AO139" s="10" t="s">
         <v>2581</v>
       </c>
-      <c r="AP139" s="9">
+      <c r="AP139" s="10"/>
+      <c r="AQ139" s="10"/>
+      <c r="AR139" s="9">
         <v>136</v>
       </c>
-      <c r="AQ139" s="4" t="s">
+      <c r="AS139" s="4" t="s">
         <v>1823</v>
       </c>
     </row>
-    <row r="140" spans="40:43">
+    <row r="140" spans="40:45">
       <c r="AN140" s="2">
         <v>137</v>
       </c>
       <c r="AO140" s="10" t="s">
         <v>2580</v>
       </c>
-      <c r="AP140" s="9">
+      <c r="AP140" s="10"/>
+      <c r="AQ140" s="10"/>
+      <c r="AR140" s="9">
         <v>137</v>
       </c>
-      <c r="AQ140" s="4" t="s">
+      <c r="AS140" s="4" t="s">
         <v>1824</v>
       </c>
     </row>
-    <row r="141" spans="40:43">
+    <row r="141" spans="40:45">
       <c r="AN141" s="2">
         <v>138</v>
       </c>
       <c r="AO141" s="10" t="s">
         <v>2499</v>
       </c>
-    </row>
-    <row r="142" spans="40:43">
+      <c r="AP141" s="10"/>
+      <c r="AQ141" s="10"/>
+    </row>
+    <row r="142" spans="40:45">
       <c r="AN142" s="2">
         <v>139</v>
       </c>
       <c r="AO142" s="10" t="s">
         <v>2579</v>
       </c>
-    </row>
-    <row r="143" spans="40:43">
+      <c r="AP142" s="10"/>
+      <c r="AQ142" s="10"/>
+    </row>
+    <row r="143" spans="40:45">
       <c r="AN143" s="2">
         <v>140</v>
       </c>
       <c r="AO143" s="10" t="s">
         <v>1759</v>
       </c>
-    </row>
-    <row r="144" spans="40:43">
+      <c r="AP143" s="10"/>
+      <c r="AQ143" s="10"/>
+    </row>
+    <row r="144" spans="40:45">
       <c r="AN144" s="2">
         <v>141</v>
       </c>
       <c r="AO144" s="10" t="s">
         <v>2578</v>
       </c>
-    </row>
-    <row r="145" spans="40:41">
+      <c r="AP144" s="10"/>
+      <c r="AQ144" s="10"/>
+    </row>
+    <row r="145" spans="40:43">
       <c r="AN145" s="2">
         <v>142</v>
       </c>
       <c r="AO145" s="10" t="s">
         <v>2577</v>
       </c>
-    </row>
-    <row r="146" spans="40:41">
+      <c r="AP145" s="10"/>
+      <c r="AQ145" s="10"/>
+    </row>
+    <row r="146" spans="40:43">
       <c r="AN146" s="2">
         <v>143</v>
       </c>
       <c r="AO146" s="10" t="s">
         <v>2576</v>
       </c>
-    </row>
-    <row r="147" spans="40:41">
+      <c r="AP146" s="10"/>
+      <c r="AQ146" s="10"/>
+    </row>
+    <row r="147" spans="40:43">
       <c r="AN147" s="2">
         <v>144</v>
       </c>
       <c r="AO147" s="10" t="s">
         <v>2575</v>
       </c>
-    </row>
-    <row r="148" spans="40:41">
+      <c r="AP147" s="10"/>
+      <c r="AQ147" s="10"/>
+    </row>
+    <row r="148" spans="40:43">
       <c r="AN148" s="2">
         <v>145</v>
       </c>
       <c r="AO148" s="10" t="s">
         <v>2574</v>
       </c>
-    </row>
-    <row r="149" spans="40:41">
+      <c r="AP148" s="10"/>
+      <c r="AQ148" s="10"/>
+    </row>
+    <row r="149" spans="40:43">
       <c r="AN149" s="2">
         <v>146</v>
       </c>
       <c r="AO149" s="10" t="s">
         <v>2573</v>
       </c>
-    </row>
-    <row r="150" spans="40:41">
+      <c r="AP149" s="10"/>
+      <c r="AQ149" s="10"/>
+    </row>
+    <row r="150" spans="40:43">
       <c r="AN150" s="2">
         <v>147</v>
       </c>
       <c r="AO150" s="10" t="s">
         <v>2572</v>
       </c>
-    </row>
-    <row r="151" spans="40:41">
+      <c r="AP150" s="10"/>
+      <c r="AQ150" s="10"/>
+    </row>
+    <row r="151" spans="40:43">
       <c r="AN151" s="2">
         <v>148</v>
       </c>
       <c r="AO151" s="10" t="s">
         <v>2571</v>
       </c>
-    </row>
-    <row r="152" spans="40:41">
+      <c r="AP151" s="10"/>
+      <c r="AQ151" s="10"/>
+    </row>
+    <row r="152" spans="40:43">
       <c r="AN152" s="2">
         <v>149</v>
       </c>
       <c r="AO152" s="10" t="s">
         <v>2570</v>
       </c>
-    </row>
-    <row r="153" spans="40:41">
+      <c r="AP152" s="10"/>
+      <c r="AQ152" s="10"/>
+    </row>
+    <row r="153" spans="40:43">
       <c r="AN153" s="2">
         <v>150</v>
       </c>
       <c r="AO153" s="10" t="s">
         <v>2569</v>
       </c>
-    </row>
-    <row r="154" spans="40:41">
+      <c r="AP153" s="10"/>
+      <c r="AQ153" s="10"/>
+    </row>
+    <row r="154" spans="40:43">
       <c r="AN154" s="2">
         <v>151</v>
       </c>
       <c r="AO154" s="10" t="s">
         <v>2568</v>
       </c>
-    </row>
-    <row r="155" spans="40:41">
+      <c r="AP154" s="10"/>
+      <c r="AQ154" s="10"/>
+    </row>
+    <row r="155" spans="40:43">
       <c r="AN155" s="2">
         <v>152</v>
       </c>
       <c r="AO155" s="10" t="s">
         <v>2567</v>
       </c>
-    </row>
-    <row r="156" spans="40:41">
+      <c r="AP155" s="10"/>
+      <c r="AQ155" s="10"/>
+    </row>
+    <row r="156" spans="40:43">
       <c r="AN156" s="2">
         <v>153</v>
       </c>
       <c r="AO156" s="10" t="s">
         <v>2566</v>
       </c>
-    </row>
-    <row r="157" spans="40:41">
+      <c r="AP156" s="10"/>
+      <c r="AQ156" s="10"/>
+    </row>
+    <row r="157" spans="40:43">
       <c r="AN157" s="2">
         <v>154</v>
       </c>
       <c r="AO157" s="10" t="s">
         <v>2565</v>
       </c>
-    </row>
-    <row r="158" spans="40:41">
+      <c r="AP157" s="10"/>
+      <c r="AQ157" s="10"/>
+    </row>
+    <row r="158" spans="40:43">
       <c r="AN158" s="2">
         <v>155</v>
       </c>
       <c r="AO158" s="10" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="159" spans="40:41">
+      <c r="AP158" s="10"/>
+      <c r="AQ158" s="10"/>
+    </row>
+    <row r="159" spans="40:43">
       <c r="AN159" s="2">
         <v>156</v>
       </c>
       <c r="AO159" s="10" t="s">
         <v>2564</v>
       </c>
-    </row>
-    <row r="160" spans="40:41">
+      <c r="AP159" s="10"/>
+      <c r="AQ159" s="10"/>
+    </row>
+    <row r="160" spans="40:43">
       <c r="AN160" s="2">
         <v>157</v>
       </c>
       <c r="AO160" s="10" t="s">
         <v>2563</v>
       </c>
-    </row>
-    <row r="161" spans="40:42">
+      <c r="AP160" s="10"/>
+      <c r="AQ160" s="10"/>
+    </row>
+    <row r="161" spans="40:44">
       <c r="AN161" s="2">
         <v>158</v>
       </c>
       <c r="AO161" s="10" t="s">
         <v>2562</v>
       </c>
-    </row>
-    <row r="162" spans="40:42">
+      <c r="AP161" s="10"/>
+      <c r="AQ161" s="10"/>
+    </row>
+    <row r="162" spans="40:44">
       <c r="AN162" s="2">
         <v>159</v>
       </c>
       <c r="AO162" s="10" t="s">
         <v>2561</v>
       </c>
-      <c r="AP162" s="9"/>
-    </row>
-    <row r="163" spans="40:42">
+      <c r="AP162" s="10"/>
+      <c r="AQ162" s="10"/>
+      <c r="AR162" s="9"/>
+    </row>
+    <row r="163" spans="40:44">
       <c r="AN163" s="2">
         <v>160</v>
       </c>
       <c r="AO163" s="10" t="s">
         <v>2560</v>
       </c>
-      <c r="AP163" s="9"/>
-    </row>
-    <row r="164" spans="40:42">
+      <c r="AP163" s="10"/>
+      <c r="AQ163" s="10"/>
+      <c r="AR163" s="9"/>
+    </row>
+    <row r="164" spans="40:44">
       <c r="AN164" s="2">
         <v>161</v>
       </c>
       <c r="AO164" s="10" t="s">
         <v>2559</v>
       </c>
-      <c r="AP164" s="9"/>
-    </row>
-    <row r="165" spans="40:42">
+      <c r="AP164" s="10"/>
+      <c r="AQ164" s="10"/>
+      <c r="AR164" s="9"/>
+    </row>
+    <row r="165" spans="40:44">
       <c r="AN165" s="2">
         <v>162</v>
       </c>
       <c r="AO165" s="10" t="s">
         <v>2558</v>
       </c>
-      <c r="AP165" s="9"/>
-    </row>
-    <row r="166" spans="40:42">
+      <c r="AP165" s="10"/>
+      <c r="AQ165" s="10"/>
+      <c r="AR165" s="9"/>
+    </row>
+    <row r="166" spans="40:44">
       <c r="AN166" s="2">
         <v>163</v>
       </c>
       <c r="AO166" s="10" t="s">
         <v>2557</v>
       </c>
-      <c r="AP166" s="9"/>
-    </row>
-    <row r="167" spans="40:42">
+      <c r="AP166" s="10"/>
+      <c r="AQ166" s="10"/>
+      <c r="AR166" s="9"/>
+    </row>
+    <row r="167" spans="40:44">
       <c r="AN167" s="2">
         <v>164</v>
       </c>
       <c r="AO167" s="10" t="s">
         <v>2556</v>
       </c>
-      <c r="AP167" s="9"/>
-    </row>
-    <row r="168" spans="40:42">
+      <c r="AP167" s="10"/>
+      <c r="AQ167" s="10"/>
+      <c r="AR167" s="9"/>
+    </row>
+    <row r="168" spans="40:44">
       <c r="AN168" s="2">
         <v>165</v>
       </c>
       <c r="AO168" s="10" t="s">
         <v>2555</v>
       </c>
-      <c r="AP168" s="9"/>
-    </row>
-    <row r="169" spans="40:42">
+      <c r="AP168" s="10"/>
+      <c r="AQ168" s="10"/>
+      <c r="AR168" s="9"/>
+    </row>
+    <row r="169" spans="40:44">
       <c r="AN169" s="2">
         <v>166</v>
       </c>
       <c r="AO169" s="10" t="s">
         <v>2554</v>
       </c>
-      <c r="AP169" s="9"/>
-    </row>
-    <row r="170" spans="40:42">
+      <c r="AP169" s="10"/>
+      <c r="AQ169" s="10"/>
+      <c r="AR169" s="9"/>
+    </row>
+    <row r="170" spans="40:44">
       <c r="AN170" s="2">
         <v>167</v>
       </c>
       <c r="AO170" s="10" t="s">
         <v>2553</v>
       </c>
-      <c r="AP170" s="9"/>
-    </row>
-    <row r="171" spans="40:42">
+      <c r="AP170" s="10"/>
+      <c r="AQ170" s="10"/>
+      <c r="AR170" s="9"/>
+    </row>
+    <row r="171" spans="40:44">
       <c r="AN171" s="2">
         <v>168</v>
       </c>
       <c r="AO171" s="10" t="s">
         <v>1131</v>
       </c>
-      <c r="AP171" s="9"/>
-    </row>
-    <row r="172" spans="40:42">
+      <c r="AP171" s="10"/>
+      <c r="AQ171" s="10"/>
+      <c r="AR171" s="9"/>
+    </row>
+    <row r="172" spans="40:44">
       <c r="AN172" s="2">
         <v>169</v>
       </c>
       <c r="AO172" s="10" t="s">
         <v>2552</v>
       </c>
-      <c r="AP172" s="9"/>
-    </row>
-    <row r="173" spans="40:42">
+      <c r="AP172" s="10"/>
+      <c r="AQ172" s="10"/>
+      <c r="AR172" s="9"/>
+    </row>
+    <row r="173" spans="40:44">
       <c r="AN173" s="2">
         <v>170</v>
       </c>
       <c r="AO173" s="10" t="s">
         <v>2551</v>
       </c>
-      <c r="AP173" s="9"/>
-    </row>
-    <row r="174" spans="40:42">
+      <c r="AP173" s="10"/>
+      <c r="AQ173" s="10"/>
+      <c r="AR173" s="9"/>
+    </row>
+    <row r="174" spans="40:44">
       <c r="AN174" s="2">
         <v>171</v>
       </c>
       <c r="AO174" s="10" t="s">
         <v>2550</v>
       </c>
-      <c r="AP174" s="9"/>
-    </row>
-    <row r="175" spans="40:42">
+      <c r="AP174" s="10"/>
+      <c r="AQ174" s="10"/>
+      <c r="AR174" s="9"/>
+    </row>
+    <row r="175" spans="40:44">
       <c r="AN175" s="2">
         <v>172</v>
       </c>
       <c r="AO175" s="10" t="s">
         <v>2549</v>
       </c>
-      <c r="AP175" s="9"/>
-    </row>
-    <row r="176" spans="40:42">
+      <c r="AP175" s="10"/>
+      <c r="AQ175" s="10"/>
+      <c r="AR175" s="9"/>
+    </row>
+    <row r="176" spans="40:44">
       <c r="AN176" s="2">
         <v>173</v>
       </c>
       <c r="AO176" s="10" t="s">
         <v>2548</v>
       </c>
-      <c r="AP176" s="9"/>
+      <c r="AP176" s="10"/>
+      <c r="AQ176" s="10"/>
+      <c r="AR176" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:Y1"/>
     <mergeCell ref="AA1:AI1"/>
-    <mergeCell ref="AK1:AW1"/>
-    <mergeCell ref="AY1:BC1"/>
+    <mergeCell ref="AK1:AY1"/>
+    <mergeCell ref="BA1:BE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30368,7 +30748,7 @@
         <v>228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="C9" s="2">
         <v>6</v>
@@ -30385,7 +30765,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>226</v>
@@ -30408,7 +30788,7 @@
         <v>229</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="C11" s="2">
         <v>8</v>
@@ -30465,10 +30845,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -30485,7 +30865,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>221</v>
@@ -30585,10 +30965,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="C23" s="2">
         <v>7</v>
@@ -30637,7 +31017,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>272</v>
@@ -30697,7 +31077,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>275</v>
@@ -30737,7 +31117,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>277</v>
@@ -30757,7 +31137,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>278</v>
@@ -30777,7 +31157,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>279</v>
@@ -30797,7 +31177,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>280</v>
@@ -30917,7 +31297,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>285</v>
@@ -30937,7 +31317,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>286</v>
@@ -30957,10 +31337,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="C19" s="2">
         <v>17</v>
@@ -30980,7 +31360,7 @@
         <v>288</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="C20" s="2">
         <v>18</v>
@@ -30997,7 +31377,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>264</v>
@@ -31017,7 +31397,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>265</v>
@@ -31037,7 +31417,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>289</v>
@@ -31057,7 +31437,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>290</v>
@@ -31097,7 +31477,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>291</v>
@@ -31117,7 +31497,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>292</v>
@@ -31157,7 +31537,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>293</v>
@@ -31217,7 +31597,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>295</v>
@@ -31237,10 +31617,10 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="C33" s="2">
         <v>31</v>
@@ -31257,10 +31637,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="C34" s="2">
         <v>32</v>
@@ -31277,10 +31657,10 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="C35" s="2">
         <v>33</v>
@@ -31297,7 +31677,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>298</v>
@@ -31317,7 +31697,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>299</v>
@@ -31377,7 +31757,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>271</v>
@@ -31397,7 +31777,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>301</v>
@@ -31489,10 +31869,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -31529,7 +31909,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>388</v>
@@ -31549,7 +31929,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>389</v>
@@ -31589,7 +31969,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>391</v>
@@ -31609,7 +31989,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>392</v>
@@ -31649,7 +32029,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>394</v>
@@ -31669,7 +32049,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>395</v>
@@ -31689,7 +32069,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>396</v>
@@ -31729,7 +32109,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>398</v>
@@ -31789,7 +32169,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>401</v>
@@ -31869,7 +32249,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>430</v>
@@ -31889,10 +32269,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="C23" s="2">
         <v>21</v>
@@ -31909,10 +32289,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="C24" s="2">
         <v>22</v>
@@ -31929,10 +32309,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="C25" s="2">
         <v>23</v>
@@ -32092,7 +32472,7 @@
         <v>414</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="C33" s="2">
         <v>31</v>
@@ -32389,7 +32769,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>226</v>
@@ -32540,7 +32920,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>532</v>
@@ -32560,7 +32940,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>545</v>
@@ -32574,10 +32954,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
@@ -32628,10 +33008,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="C9" s="2">
         <v>11</v>
@@ -32648,7 +33028,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>536</v>
@@ -32668,7 +33048,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>534</v>
@@ -32696,7 +33076,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>537</v>
@@ -32756,10 +33136,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="C16" s="2">
         <v>25</v>
@@ -32819,7 +33199,7 @@
         <v>542</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="C19" s="2">
         <v>31</v>
@@ -32856,7 +33236,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>532</v>
@@ -32884,10 +33264,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -32924,10 +33304,10 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="C28" s="2">
         <v>3</v>
@@ -32996,7 +33376,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>579</v>
@@ -33436,7 +33816,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>601</v>
@@ -33556,7 +33936,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>615</v>
@@ -33576,7 +33956,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>616</v>
@@ -33619,7 +33999,7 @@
         <v>618</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="C40" s="2">
         <v>37</v>
@@ -33696,10 +34076,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="C45" s="2">
         <v>42</v>
@@ -33719,7 +34099,7 @@
         <v>603</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="C46" s="2">
         <v>43</v>
@@ -33739,7 +34119,7 @@
         <v>604</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="C47" s="2">
         <v>44</v>
@@ -33779,7 +34159,7 @@
         <v>606</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="C49" s="2">
         <v>46</v>
@@ -33796,10 +34176,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="C50" s="2">
         <v>47</v>
@@ -33816,10 +34196,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="C52" s="2">
         <v>49</v>
@@ -33859,7 +34239,7 @@
         <v>610</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="C54" s="2">
         <v>51</v>
@@ -33928,10 +34308,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -33948,10 +34328,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -33968,10 +34348,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -33991,7 +34371,7 @@
         <v>718</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -34231,7 +34611,7 @@
         <v>730</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -34257,7 +34637,7 @@
         <v>731</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -34277,7 +34657,7 @@
         <v>732</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
@@ -34297,7 +34677,7 @@
         <v>733</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
@@ -34317,7 +34697,7 @@
         <v>734</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="C11" s="2">
         <v>5</v>
@@ -34337,7 +34717,7 @@
         <v>735</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
@@ -34357,10 +34737,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -34377,10 +34757,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
@@ -34400,7 +34780,7 @@
         <v>739</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
@@ -34417,7 +34797,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>773</v>
@@ -34437,10 +34817,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="C18" s="2">
         <v>5</v>
@@ -34457,10 +34837,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="C19" s="2">
         <v>6</v>
@@ -34480,7 +34860,7 @@
         <v>743</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="C20" s="2">
         <v>7</v>
@@ -34497,10 +34877,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="C21" s="2">
         <v>8</v>
@@ -34517,10 +34897,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="C22" s="2">
         <v>9</v>
@@ -34537,10 +34917,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="C23" s="2">
         <v>10</v>
@@ -34560,7 +34940,7 @@
         <v>747</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="C24" s="2">
         <v>11</v>
@@ -34580,7 +34960,7 @@
         <v>748</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="C25" s="2">
         <v>12</v>

--- a/3-JavaScript/Dars/JS_KORIN.xlsx
+++ b/3-JavaScript/Dars/JS_KORIN.xlsx
@@ -9430,7 +9430,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9440,18 +9440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9495,7 +9483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -9519,10 +9507,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9547,7 +9533,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -9598,7 +9583,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9640,7 +9625,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9682,7 +9667,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9724,7 +9709,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9766,7 +9751,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9808,7 +9793,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -9850,7 +9835,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -24309,8 +24294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BE176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AQ9" sqref="AQ9"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>
@@ -24375,70 +24360,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="26.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>2774</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="21"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="19"/>
       <c r="Z1" s="8"/>
-      <c r="AA1" s="22" t="s">
+      <c r="AA1" s="20" t="s">
         <v>2773</v>
       </c>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="23"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="21"/>
       <c r="AJ1" s="13"/>
-      <c r="AK1" s="24" t="s">
+      <c r="AK1" s="22" t="s">
         <v>2772</v>
       </c>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="25"/>
-      <c r="AZ1" s="19"/>
-      <c r="BA1" s="26" t="s">
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="24" t="s">
         <v>3069</v>
       </c>
-      <c r="BB1" s="26"/>
-      <c r="BC1" s="26"/>
-      <c r="BD1" s="26"/>
-      <c r="BE1" s="26"/>
+      <c r="BB1" s="24"/>
+      <c r="BC1" s="24"/>
+      <c r="BD1" s="24"/>
+      <c r="BE1" s="24"/>
     </row>
     <row r="3" spans="1:57" s="3" customFormat="1" ht="26.25">
       <c r="A3" s="3" t="s">
@@ -24591,7 +24576,7 @@
       <c r="AX3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AY3" s="16" t="s">
+      <c r="AY3" s="15" t="s">
         <v>1665</v>
       </c>
       <c r="AZ3" s="3" t="s">
@@ -24677,7 +24662,7 @@
       <c r="V4" s="2">
         <v>1</v>
       </c>
-      <c r="W4" s="15" t="s">
+      <c r="W4" s="4" t="s">
         <v>797</v>
       </c>
       <c r="X4" s="2">
@@ -24689,7 +24674,7 @@
       <c r="Z4" s="9">
         <v>1</v>
       </c>
-      <c r="AA4" s="15" t="s">
+      <c r="AA4" s="4" t="s">
         <v>845</v>
       </c>
       <c r="AB4" s="2">
@@ -24719,13 +24704,13 @@
       <c r="AJ4" s="9">
         <v>1</v>
       </c>
-      <c r="AK4" s="15" t="s">
+      <c r="AK4" s="4" t="s">
         <v>1205</v>
       </c>
       <c r="AL4" s="2">
         <v>1</v>
       </c>
-      <c r="AM4" s="15" t="s">
+      <c r="AM4" s="4" t="s">
         <v>1382</v>
       </c>
       <c r="AN4" s="2">
@@ -24737,7 +24722,7 @@
       <c r="AP4" s="2">
         <v>1</v>
       </c>
-      <c r="AQ4" s="27" t="s">
+      <c r="AQ4" s="10" t="s">
         <v>3071</v>
       </c>
       <c r="AR4" s="9">
@@ -24761,7 +24746,7 @@
       <c r="AX4" s="2">
         <v>1</v>
       </c>
-      <c r="AY4" s="17" t="s">
+      <c r="AY4" s="16" t="s">
         <v>1666</v>
       </c>
       <c r="AZ4" s="2">
@@ -24847,7 +24832,7 @@
       <c r="V5" s="2">
         <v>2</v>
       </c>
-      <c r="W5" s="15" t="s">
+      <c r="W5" s="4" t="s">
         <v>793</v>
       </c>
       <c r="X5" s="2">
@@ -24859,7 +24844,7 @@
       <c r="Z5" s="9">
         <v>2</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AA5" s="4" t="s">
         <v>853</v>
       </c>
       <c r="AB5" s="2">
@@ -24889,13 +24874,13 @@
       <c r="AJ5" s="9">
         <v>2</v>
       </c>
-      <c r="AK5" s="15" t="s">
+      <c r="AK5" s="4" t="s">
         <v>1206</v>
       </c>
       <c r="AL5" s="2">
         <v>2</v>
       </c>
-      <c r="AM5" s="15" t="s">
+      <c r="AM5" s="4" t="s">
         <v>1383</v>
       </c>
       <c r="AN5" s="2">
@@ -24931,7 +24916,7 @@
       <c r="AX5" s="2">
         <v>2</v>
       </c>
-      <c r="AY5" s="17" t="s">
+      <c r="AY5" s="16" t="s">
         <v>1667</v>
       </c>
       <c r="AZ5" s="2">
@@ -25012,13 +24997,13 @@
       <c r="V6" s="2">
         <v>3</v>
       </c>
-      <c r="W6" s="15" t="s">
+      <c r="W6" s="4" t="s">
         <v>788</v>
       </c>
       <c r="Z6" s="9">
         <v>3</v>
       </c>
-      <c r="AA6" s="15" t="s">
+      <c r="AA6" s="4" t="s">
         <v>878</v>
       </c>
       <c r="AB6" s="2">
@@ -25048,13 +25033,13 @@
       <c r="AJ6" s="9">
         <v>3</v>
       </c>
-      <c r="AK6" s="18" t="s">
+      <c r="AK6" s="4" t="s">
         <v>870</v>
       </c>
       <c r="AL6" s="2">
         <v>3</v>
       </c>
-      <c r="AM6" s="15" t="s">
+      <c r="AM6" s="4" t="s">
         <v>1381</v>
       </c>
       <c r="AN6" s="2">
@@ -25090,7 +25075,7 @@
       <c r="AX6" s="2">
         <v>3</v>
       </c>
-      <c r="AY6" s="17" t="s">
+      <c r="AY6" s="16" t="s">
         <v>1668</v>
       </c>
       <c r="AZ6" s="2">
@@ -25171,13 +25156,13 @@
       <c r="V7" s="2">
         <v>4</v>
       </c>
-      <c r="W7" s="15" t="s">
+      <c r="W7" s="4" t="s">
         <v>792</v>
       </c>
       <c r="Z7" s="9">
         <v>4</v>
       </c>
-      <c r="AA7" s="15" t="s">
+      <c r="AA7" s="4" t="s">
         <v>877</v>
       </c>
       <c r="AB7" s="2">
@@ -25207,13 +25192,13 @@
       <c r="AJ7" s="9">
         <v>4</v>
       </c>
-      <c r="AK7" s="18" t="s">
+      <c r="AK7" s="4" t="s">
         <v>851</v>
       </c>
       <c r="AL7" s="2">
         <v>4</v>
       </c>
-      <c r="AM7" s="15" t="s">
+      <c r="AM7" s="4" t="s">
         <v>3068</v>
       </c>
       <c r="AN7" s="2">
@@ -25243,7 +25228,7 @@
       <c r="AX7" s="2">
         <v>4</v>
       </c>
-      <c r="AY7" s="17" t="s">
+      <c r="AY7" s="16" t="s">
         <v>19</v>
       </c>
       <c r="AZ7" s="2">
@@ -25336,13 +25321,13 @@
       <c r="AJ8" s="9">
         <v>5</v>
       </c>
-      <c r="AK8" s="15" t="s">
+      <c r="AK8" s="4" t="s">
         <v>1181</v>
       </c>
       <c r="AL8" s="2">
         <v>5</v>
       </c>
-      <c r="AM8" s="15" t="s">
+      <c r="AM8" s="4" t="s">
         <v>1360</v>
       </c>
       <c r="AN8" s="2">
@@ -25372,7 +25357,7 @@
       <c r="AX8" s="2">
         <v>5</v>
       </c>
-      <c r="AY8" s="17" t="s">
+      <c r="AY8" s="16" t="s">
         <v>728</v>
       </c>
       <c r="AZ8" s="2">
@@ -25496,7 +25481,7 @@
       <c r="AX9" s="2">
         <v>6</v>
       </c>
-      <c r="AY9" s="17" t="s">
+      <c r="AY9" s="16" t="s">
         <v>1669</v>
       </c>
       <c r="AZ9" s="2">
@@ -25615,7 +25600,7 @@
       <c r="AX10" s="2">
         <v>7</v>
       </c>
-      <c r="AY10" s="17" t="s">
+      <c r="AY10" s="16" t="s">
         <v>1670</v>
       </c>
       <c r="AZ10" s="2">
@@ -25728,7 +25713,7 @@
       <c r="AX11" s="2">
         <v>8</v>
       </c>
-      <c r="AY11" s="17" t="s">
+      <c r="AY11" s="16" t="s">
         <v>1671</v>
       </c>
       <c r="AZ11" s="2">
@@ -25842,7 +25827,7 @@
       <c r="AX12" s="2">
         <v>9</v>
       </c>
-      <c r="AY12" s="17" t="s">
+      <c r="AY12" s="16" t="s">
         <v>1672</v>
       </c>
       <c r="AZ12" s="2">
